--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/425f7634435c6874/Escritorio/5-ITESO/Laboratorio de Análisis Financiero y Diseño de Indicadores/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/5-ITESO/Laboratorio de Análisis Financiero y Diseño de Indicadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{579CDC83-B7C0-6142-AA26-5AAB5BE4DC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AEC337E-0A2C-4AFF-AC2C-B84BB156F5EA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F32CF7A-990E-534B-AD52-BCD1CD287C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9EEB0879-F8BE-F946-8F13-4F3CCEC835FF}"/>
+    <workbookView xWindow="4440" yWindow="740" windowWidth="24960" windowHeight="15720" xr2:uid="{9EEB0879-F8BE-F946-8F13-4F3CCEC835FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -315,7 +315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -323,71 +323,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="36">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -800,6 +735,71 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -862,33 +862,33 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A8EF3DB4-F2F5-D341-B92D-EFDAAEAE969B}" name="Tabla1" displayName="Tabla1" ref="C1:U367" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
   <autoFilter ref="C1:U367" xr:uid="{A8EF3DB4-F2F5-D341-B92D-EFDAAEAE969B}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{3C556853-9CB4-8843-BE67-C1E21A308F8D}" name="fecha" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{5450EAE9-053F-4630-AD82-87D5D2CDBA99}" name="temperatura_promedio" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{60101D9F-ADF9-6147-A5A1-7317309DD6EF}" name="cantidad_adultos" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{57DAD4B7-F56E-EA4C-B302-E58E3E2CED9E}" name="precio_adultos" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{D4BD6134-AF25-6346-9779-ECFB777938A8}" name="total_adultos" dataDxfId="29">
+    <tableColumn id="1" xr3:uid="{3C556853-9CB4-8843-BE67-C1E21A308F8D}" name="fecha" dataDxfId="30"/>
+    <tableColumn id="19" xr3:uid="{5450EAE9-053F-4630-AD82-87D5D2CDBA99}" name="temperatura_promedio" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{60101D9F-ADF9-6147-A5A1-7317309DD6EF}" name="cantidad_adultos" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{57DAD4B7-F56E-EA4C-B302-E58E3E2CED9E}" name="precio_adultos" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{D4BD6134-AF25-6346-9779-ECFB777938A8}" name="total_adultos" dataDxfId="26">
       <calculatedColumnFormula>Tabla1[[#This Row],[cantidad_adultos]]*Tabla1[[#This Row],[precio_adultos]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{43DC9564-20A9-7549-83BE-9588F4923346}" name="cantidad_niños" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{E9BD31D0-F1CD-FE47-8DFD-BE50DF97C7E9}" name="precio_niños" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{37621434-724B-B840-9135-2B21D9E4BD09}" name="total_niños" dataDxfId="26">
+    <tableColumn id="5" xr3:uid="{43DC9564-20A9-7549-83BE-9588F4923346}" name="cantidad_niños" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{E9BD31D0-F1CD-FE47-8DFD-BE50DF97C7E9}" name="precio_niños" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{37621434-724B-B840-9135-2B21D9E4BD09}" name="total_niños" dataDxfId="23">
       <calculatedColumnFormula>Tabla1[[#This Row],[cantidad_niños]]*Tabla1[[#This Row],[precio_niños]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D4DF7ED3-18E6-9D40-81F4-7F77372E341B}" name="cantidad_familia" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{C9114E39-E3E5-0948-9091-8775567F6BDB}" name="precio_familia" dataDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{6015787E-B74F-AE45-9A12-C9F53C48941E}" name="total_familia" dataDxfId="23">
+    <tableColumn id="8" xr3:uid="{D4DF7ED3-18E6-9D40-81F4-7F77372E341B}" name="cantidad_familia" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{C9114E39-E3E5-0948-9091-8775567F6BDB}" name="precio_familia" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{6015787E-B74F-AE45-9A12-C9F53C48941E}" name="total_familia" dataDxfId="20">
       <calculatedColumnFormula>Tabla1[[#This Row],[cantidad_familia]]*Tabla1[[#This Row],[precio_familia]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{B928A7C5-92EB-B045-B419-C29BFC4BD1B0}" name="cantidad_especial" dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{D7E80B1A-6F4E-C94E-BB67-1B90C19B6CC6}" name="precio_especial" dataDxfId="21"/>
-    <tableColumn id="13" xr3:uid="{B648AA8C-77D1-2946-8AED-A8DDE5C9EB02}" name="total_especial" dataDxfId="20">
+    <tableColumn id="11" xr3:uid="{B928A7C5-92EB-B045-B419-C29BFC4BD1B0}" name="cantidad_especial" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{D7E80B1A-6F4E-C94E-BB67-1B90C19B6CC6}" name="precio_especial" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{B648AA8C-77D1-2946-8AED-A8DDE5C9EB02}" name="total_especial" dataDxfId="17">
       <calculatedColumnFormula>Tabla1[[#This Row],[cantidad_especial]]*Tabla1[[#This Row],[precio_especial]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{57EAB7DE-2717-2041-BC4B-20E4C26A98AD}" name="alimento" dataDxfId="19"/>
-    <tableColumn id="15" xr3:uid="{2C639700-CE90-6D43-BE07-6A469325F475}" name="extras" dataDxfId="18"/>
-    <tableColumn id="18" xr3:uid="{DAC9E68A-4CDB-8A4F-B66F-967469DB3AC9}" name="raya" dataDxfId="17"/>
-    <tableColumn id="16" xr3:uid="{10B76853-F3DF-4746-8C6E-ACAD99510170}" name="gastos" dataDxfId="16"/>
-    <tableColumn id="17" xr3:uid="{4C51BDE7-43CF-DF40-946F-176505A6CEEA}" name="neto" dataDxfId="15">
+    <tableColumn id="14" xr3:uid="{57EAB7DE-2717-2041-BC4B-20E4C26A98AD}" name="alimento" dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{2C639700-CE90-6D43-BE07-6A469325F475}" name="extras" dataDxfId="15"/>
+    <tableColumn id="18" xr3:uid="{DAC9E68A-4CDB-8A4F-B66F-967469DB3AC9}" name="raya" dataDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{10B76853-F3DF-4746-8C6E-ACAD99510170}" name="gastos" dataDxfId="13"/>
+    <tableColumn id="17" xr3:uid="{4C51BDE7-43CF-DF40-946F-176505A6CEEA}" name="neto" dataDxfId="12">
       <calculatedColumnFormula>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -897,10 +897,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2E69ABEE-F55B-4D46-AA27-AAFF42367A9D}" name="Tabla2" displayName="Tabla2" ref="B1:B367" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2E69ABEE-F55B-4D46-AA27-AAFF42367A9D}" name="Tabla2" displayName="Tabla2" ref="B1:B367" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="B1:B367" xr:uid="{2E69ABEE-F55B-4D46-AA27-AAFF42367A9D}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{16996AE3-93E2-3742-B4B9-76540E17088D}" name="mes" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{16996AE3-93E2-3742-B4B9-76540E17088D}" name="mes" dataDxfId="6">
       <calculatedColumnFormula>TEXT(Tabla1[[#This Row],[fecha]],"mmmm")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -909,10 +909,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2E750AFD-BAFF-6D4D-914C-E4BCD804F14C}" name="Tabla3" displayName="Tabla3" ref="A1:A367" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2E750AFD-BAFF-6D4D-914C-E4BCD804F14C}" name="Tabla3" displayName="Tabla3" ref="A1:A367" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2" totalsRowBorderDxfId="1">
   <autoFilter ref="A1:A367" xr:uid="{2E750AFD-BAFF-6D4D-914C-E4BCD804F14C}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{5F04D8AD-9142-9B46-B8C8-9995052D16E6}" name="año" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{5F04D8AD-9142-9B46-B8C8-9995052D16E6}" name="año" dataDxfId="0">
       <calculatedColumnFormula>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1240,30 +1240,30 @@
   <dimension ref="A1:U367"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="S48" sqref="S48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="1"/>
-    <col min="4" max="4" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="11.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.875" style="1"/>
+    <col min="13" max="13" width="13.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.1640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -1400,7 +1400,7 @@
         <v>29186</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -1472,7 +1472,7 @@
         <v>47832</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -1544,7 +1544,7 @@
         <v>33327</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -1616,7 +1616,7 @@
         <v>35356</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -1688,7 +1688,7 @@
         <v>47842.8</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -1760,7 +1760,7 @@
         <v>99923</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -1832,7 +1832,7 @@
         <v>42283.7</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -1904,7 +1904,7 @@
         <v>32459.1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -1976,7 +1976,7 @@
         <v>31423</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2048,7 +2048,7 @@
         <v>41570</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2120,7 +2120,7 @@
         <v>38338.6</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2192,7 +2192,7 @@
         <v>37946.6</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2264,7 +2264,7 @@
         <v>127258</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2336,7 +2336,7 @@
         <v>25663</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2408,7 +2408,7 @@
         <v>42978</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2480,7 +2480,7 @@
         <v>49000.36</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2552,7 +2552,7 @@
         <v>41189</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2624,7 +2624,7 @@
         <v>41653.4</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2696,7 +2696,7 @@
         <v>35300.800000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2768,7 +2768,7 @@
         <v>25784</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2840,7 +2840,7 @@
         <v>36821</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2912,7 +2912,7 @@
         <v>23740</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2984,7 +2984,7 @@
         <v>30356</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3056,7 +3056,7 @@
         <v>30025</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3128,7 +3128,7 @@
         <v>39839</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3200,7 +3200,7 @@
         <v>55391.9</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3272,7 +3272,7 @@
         <v>85848</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3344,7 +3344,7 @@
         <v>13635</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3416,7 +3416,7 @@
         <v>11529</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3488,7 +3488,7 @@
         <v>4316</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3560,7 +3560,7 @@
         <v>7199</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3632,7 +3632,7 @@
         <v>6080</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3704,7 +3704,7 @@
         <v>20869.099999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3776,7 +3776,7 @@
         <v>41459</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3848,7 +3848,7 @@
         <v>14946</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3920,7 +3920,7 @@
         <v>10490</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3992,7 +3992,7 @@
         <v>10690</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4064,7 +4064,7 @@
         <v>9865</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4136,7 +4136,7 @@
         <v>8260</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4208,7 +4208,7 @@
         <v>10573.099999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4280,7 +4280,7 @@
         <v>41791</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4352,7 +4352,7 @@
         <v>21626</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4424,7 +4424,7 @@
         <v>22357</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4496,7 +4496,7 @@
         <v>17182</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4568,7 +4568,7 @@
         <v>11540</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4640,7 +4640,7 @@
         <v>12679</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4712,7 +4712,7 @@
         <v>62755.1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4784,7 +4784,7 @@
         <v>49186</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4856,7 +4856,7 @@
         <v>18222</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4928,7 +4928,7 @@
         <v>14945</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5000,7 +5000,7 @@
         <v>14285</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5072,7 +5072,7 @@
         <v>14285</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5144,7 +5144,7 @@
         <v>16027</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5216,7 +5216,7 @@
         <v>46527.8</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5288,7 +5288,7 @@
         <v>98184</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5360,7 +5360,7 @@
         <v>27087</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5432,7 +5432,7 @@
         <v>20495</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5504,7 +5504,7 @@
         <v>6157</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5576,7 +5576,7 @@
         <v>12561</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5648,7 +5648,7 @@
         <v>39588</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5720,7 +5720,7 @@
         <v>33562.639999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5792,7 +5792,7 @@
         <v>92341</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5864,7 +5864,7 @@
         <v>17112</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5936,7 +5936,7 @@
         <v>14546</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6008,7 +6008,7 @@
         <v>7003.5</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6080,7 +6080,7 @@
         <v>9414</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6152,7 +6152,7 @@
         <v>5643.5</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6224,7 +6224,7 @@
         <v>28232.2</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6296,7 +6296,7 @@
         <v>34059</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6368,7 +6368,7 @@
         <v>8460</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6440,7 +6440,7 @@
         <v>5005</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6512,7 +6512,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6584,7 +6584,7 @@
         <v>21039</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6656,7 +6656,7 @@
         <v>8934</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6728,7 +6728,7 @@
         <v>19374.2</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6800,7 +6800,7 @@
         <v>36260</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6872,7 +6872,7 @@
         <v>26388</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6944,7 +6944,7 @@
         <v>4181</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7016,7 +7016,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7088,7 +7088,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7160,7 +7160,7 @@
         <v>3003</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7232,7 +7232,7 @@
         <v>10792</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7304,7 +7304,7 @@
         <v>24958</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7376,7 +7376,7 @@
         <v>19913</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7448,7 +7448,7 @@
         <v>13080</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7520,7 +7520,7 @@
         <v>4316</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7592,7 +7592,7 @@
         <v>9975</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7664,7 +7664,7 @@
         <v>7256</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7736,7 +7736,7 @@
         <v>12502</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7808,7 +7808,7 @@
         <v>26223</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7880,7 +7880,7 @@
         <v>8555</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7952,7 +7952,7 @@
         <v>3690</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8024,7 +8024,7 @@
         <v>4374</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8096,7 +8096,7 @@
         <v>12274</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8168,7 +8168,7 @@
         <v>4020.5</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8240,7 +8240,7 @@
         <v>8722.8000000000029</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8312,7 +8312,7 @@
         <v>25893</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8384,7 +8384,7 @@
         <v>7894</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8456,7 +8456,7 @@
         <v>8651</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8528,7 +8528,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8600,7 +8600,7 @@
         <v>6390</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8672,7 +8672,7 @@
         <v>7710</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8744,7 +8744,7 @@
         <v>11036.699999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8816,7 +8816,7 @@
         <v>29054</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8888,7 +8888,7 @@
         <v>10492</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8960,7 +8960,7 @@
         <v>4699</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9032,7 +9032,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9104,7 +9104,7 @@
         <v>7510</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9176,7 +9176,7 @@
         <v>5421.7</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9248,7 +9248,7 @@
         <v>25391.200000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9320,7 +9320,7 @@
         <v>37298</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9392,7 +9392,7 @@
         <v>100439</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9464,7 +9464,7 @@
         <v>-983</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9536,7 +9536,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9608,7 +9608,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9680,7 +9680,7 @@
         <v>2933</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9752,7 +9752,7 @@
         <v>7198.1999999999971</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9824,7 +9824,7 @@
         <v>11458</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9896,7 +9896,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9968,7 +9968,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10040,7 +10040,7 @@
         <v>-1140</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10112,7 +10112,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10184,7 +10184,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10256,7 +10256,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10328,7 +10328,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10400,7 +10400,7 @@
         <v>-62</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10472,7 +10472,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10544,7 +10544,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10616,7 +10616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10760,7 +10760,7 @@
         <v>3363</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10832,7 +10832,7 @@
         <v>16213</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10904,7 +10904,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10976,7 +10976,7 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11048,7 +11048,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11120,7 +11120,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11192,7 +11192,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11264,7 +11264,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11336,7 +11336,7 @@
         <v>8967.5</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11408,7 +11408,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11480,7 +11480,7 @@
         <v>5537.5</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11552,7 +11552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11624,7 +11624,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A145" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11696,7 +11696,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A146" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11768,7 +11768,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A147" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11840,7 +11840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A148" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11912,7 +11912,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11984,7 +11984,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A150" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -12056,7 +12056,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A151" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -12128,7 +12128,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A152" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -12200,7 +12200,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A153" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -12272,7 +12272,7 @@
         <v>-2993</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A154" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -12344,7 +12344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A155" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -12416,7 +12416,7 @@
         <v>13082</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A156" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -12488,7 +12488,7 @@
         <v>5453</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A157" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -12560,7 +12560,7 @@
         <v>7418</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A158" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -12632,7 +12632,7 @@
         <v>7418</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A159" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -12704,7 +12704,7 @@
         <v>-353</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -12776,7 +12776,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -12848,7 +12848,7 @@
         <v>4824</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -12920,7 +12920,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -12992,7 +12992,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13064,7 +13064,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13136,7 +13136,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13208,7 +13208,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13280,7 +13280,7 @@
         <v>-864</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13352,7 +13352,7 @@
         <v>6111</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13424,7 +13424,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13496,7 +13496,7 @@
         <v>4979</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13568,7 +13568,7 @@
         <v>8128</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13640,7 +13640,7 @@
         <v>3795</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13712,7 +13712,7 @@
         <v>3504</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13784,7 +13784,7 @@
         <v>10797.8</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13856,7 +13856,7 @@
         <v>32826</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13928,7 +13928,7 @@
         <v>3877</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14000,7 +14000,7 @@
         <v>5090</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14072,7 +14072,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14144,7 +14144,7 @@
         <v>5305.5</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14216,7 +14216,7 @@
         <v>7250</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14288,7 +14288,7 @@
         <v>1461.1600000000035</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14360,7 +14360,7 @@
         <v>51682</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14432,7 +14432,7 @@
         <v>5746</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14504,7 +14504,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A185" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14576,7 +14576,7 @@
         <v>7354</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14648,7 +14648,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14720,7 +14720,7 @@
         <v>3418.2</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A188" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14792,7 +14792,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14864,7 +14864,7 @@
         <v>67223</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A190" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14936,7 +14936,7 @@
         <v>93978</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A191" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15008,7 +15008,7 @@
         <v>12790</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A192" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15080,7 +15080,7 @@
         <v>5454</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A193" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15152,7 +15152,7 @@
         <v>5974</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A194" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15224,7 +15224,7 @@
         <v>11104.4</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A195" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15296,7 +15296,7 @@
         <v>17171.400000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A196" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15368,7 +15368,7 @@
         <v>65091</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A197" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15440,7 +15440,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A198" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15512,7 +15512,7 @@
         <v>3885</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A199" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15584,7 +15584,7 @@
         <v>7510.4</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A200" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15656,7 +15656,7 @@
         <v>3181</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A201" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15728,7 +15728,7 @@
         <v>-2504.5</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A202" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15800,7 +15800,7 @@
         <v>-3947.8000000000029</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A203" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15872,7 +15872,7 @@
         <v>13603.2</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A204" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15944,7 +15944,7 @@
         <v>14214</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A205" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16016,7 +16016,7 @@
         <v>-2048</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A206" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16088,7 +16088,7 @@
         <v>-247.5</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A207" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16160,7 +16160,7 @@
         <v>8100.5</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A208" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16232,7 +16232,7 @@
         <v>15807</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A209" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16304,7 +16304,7 @@
         <v>22665.1</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A210" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16376,7 +16376,7 @@
         <v>115839</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A211" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16448,7 +16448,7 @@
         <v>34440</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A212" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16520,7 +16520,7 @@
         <v>20040</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A213" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16592,7 +16592,7 @@
         <v>36918</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A214" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16664,7 +16664,7 @@
         <v>19022</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A215" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16736,7 +16736,7 @@
         <v>33999</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A216" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16808,7 +16808,7 @@
         <v>72391.92</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A217" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16880,7 +16880,7 @@
         <v>255945</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A218" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16952,7 +16952,7 @@
         <v>45806</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A219" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17024,7 +17024,7 @@
         <v>34608</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A220" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17096,7 +17096,7 @@
         <v>40295</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A221" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17168,7 +17168,7 @@
         <v>17685</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A222" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17240,7 +17240,7 @@
         <v>53226</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A223" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17312,7 +17312,7 @@
         <v>82875.199999999997</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A224" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17384,7 +17384,7 @@
         <v>269670</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A225" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17456,7 +17456,7 @@
         <v>40104</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A226" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17528,7 +17528,7 @@
         <v>35160.5</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A227" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17600,7 +17600,7 @@
         <v>37570</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A228" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17672,7 +17672,7 @@
         <v>32900</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A229" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17744,7 +17744,7 @@
         <v>98970</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A230" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17816,7 +17816,7 @@
         <v>73397.2</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A231" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17888,7 +17888,7 @@
         <v>478815</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A232" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17960,7 +17960,7 @@
         <v>484910</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A233" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18032,7 +18032,7 @@
         <v>55543</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A234" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18104,7 +18104,7 @@
         <v>22312</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A235" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18176,7 +18176,7 @@
         <v>21910</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A236" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18248,7 +18248,7 @@
         <v>73362</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A237" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18320,7 +18320,7 @@
         <v>75624.600000000006</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A238" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18392,7 +18392,7 @@
         <v>225933</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A239" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18464,7 +18464,7 @@
         <v>132694</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A240" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18536,7 +18536,7 @@
         <v>118145</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A241" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18608,7 +18608,7 @@
         <v>184765</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A242" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18680,7 +18680,7 @@
         <v>364315</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A243" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18752,7 +18752,7 @@
         <v>751955</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A244" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18824,7 +18824,7 @@
         <v>752151.9</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A245" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18896,7 +18896,7 @@
         <v>578521</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A246" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18968,7 +18968,7 @@
         <v>190504</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A247" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19040,7 +19040,7 @@
         <v>231391</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A248" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19112,7 +19112,7 @@
         <v>209206</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A249" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19184,7 +19184,7 @@
         <v>172182</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A250" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19256,7 +19256,7 @@
         <v>139736</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A251" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19328,7 +19328,7 @@
         <v>168788</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A252" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19400,7 +19400,7 @@
         <v>416742</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A253" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19472,7 +19472,7 @@
         <v>46442</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A254" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19544,7 +19544,7 @@
         <v>42692</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A255" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19616,7 +19616,7 @@
         <v>18186</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A256" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19688,7 +19688,7 @@
         <v>43438</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A257" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19760,7 +19760,7 @@
         <v>34095</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A258" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19832,7 +19832,7 @@
         <v>77316.2</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A259" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19904,7 +19904,7 @@
         <v>310090</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A260" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19976,7 +19976,7 @@
         <v>54801</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A261" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20048,7 +20048,7 @@
         <v>67550</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A262" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20120,7 +20120,7 @@
         <v>52669.599999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A263" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20192,7 +20192,7 @@
         <v>35233</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A264" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20264,7 +20264,7 @@
         <v>46033</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A265" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20336,7 +20336,7 @@
         <v>126011.2</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A266" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20408,7 +20408,7 @@
         <v>356953</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A267" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20480,7 +20480,7 @@
         <v>68404</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A268" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20552,7 +20552,7 @@
         <v>49659</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A269" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20624,7 +20624,7 @@
         <v>36923</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A270" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20696,7 +20696,7 @@
         <v>52806</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A271" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20768,7 +20768,7 @@
         <v>65232</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A272" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20840,7 +20840,7 @@
         <v>133239.79999999999</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A273" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20912,7 +20912,7 @@
         <v>311568</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A274" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20984,7 +20984,7 @@
         <v>53180</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A275" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21056,7 +21056,7 @@
         <v>66021</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A276" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21128,7 +21128,7 @@
         <v>368915.35</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A277" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21200,7 +21200,7 @@
         <v>53045</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A278" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21272,7 +21272,7 @@
         <v>38415.33</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A279" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21344,7 +21344,7 @@
         <v>93647.2</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A280" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21416,7 +21416,7 @@
         <v>214806</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A281" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21488,7 +21488,7 @@
         <v>66055</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A282" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21560,7 +21560,7 @@
         <v>56004</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A283" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21632,7 +21632,7 @@
         <v>50604</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A284" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21704,7 +21704,7 @@
         <v>49009</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A285" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21776,7 +21776,7 @@
         <v>107950</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A286" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21848,7 +21848,7 @@
         <v>118696.4</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A287" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21920,7 +21920,7 @@
         <v>316457</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A288" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21992,7 +21992,7 @@
         <v>71792.899999999994</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A289" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22064,7 +22064,7 @@
         <v>49423</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A290" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22136,7 +22136,7 @@
         <v>147520</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A291" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22208,7 +22208,7 @@
         <v>59705</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A292" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22280,7 +22280,7 @@
         <v>52179.5</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A293" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22352,7 +22352,7 @@
         <v>118167.2</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A294" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22424,7 +22424,7 @@
         <v>404478</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A295" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22496,7 +22496,7 @@
         <v>84056</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A296" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22568,7 +22568,7 @@
         <v>72276</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A297" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22640,7 +22640,7 @@
         <v>49450</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A298" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22712,7 +22712,7 @@
         <v>69590</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A299" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22784,7 +22784,7 @@
         <v>75787</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A300" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22856,7 +22856,7 @@
         <v>151068.1</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A301" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22928,7 +22928,7 @@
         <v>391714</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A302" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23000,7 +23000,7 @@
         <v>132715</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A303" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23072,7 +23072,7 @@
         <v>79461</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A304" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23144,7 +23144,7 @@
         <v>52928.24</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A305" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23216,7 +23216,7 @@
         <v>59905</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A306" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23288,7 +23288,7 @@
         <v>99658</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A307" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23360,7 +23360,7 @@
         <v>134926</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A308" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23432,7 +23432,7 @@
         <v>311508</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A309" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23504,7 +23504,7 @@
         <v>119899</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A310" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23576,7 +23576,7 @@
         <v>72464.5</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A311" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23648,7 +23648,7 @@
         <v>52799</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A312" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23720,7 +23720,7 @@
         <v>66659</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A313" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23792,7 +23792,7 @@
         <v>70465</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A314" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23864,7 +23864,7 @@
         <v>116198.2</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A315" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23936,7 +23936,7 @@
         <v>336768</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A316" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24008,7 +24008,7 @@
         <v>196210</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A317" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24080,7 +24080,7 @@
         <v>63539.55</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A318" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24152,7 +24152,7 @@
         <v>66611</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A319" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24224,7 +24224,7 @@
         <v>53665</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A320" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24296,7 +24296,7 @@
         <v>46806</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A321" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24368,7 +24368,7 @@
         <v>94218.9</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A322" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24440,7 +24440,7 @@
         <v>246619</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A323" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24512,7 +24512,7 @@
         <v>90445</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A324" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24584,7 +24584,7 @@
         <v>69218</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A325" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24656,7 +24656,7 @@
         <v>75166</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A326" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24728,7 +24728,7 @@
         <v>32931</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A327" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24800,7 +24800,7 @@
         <v>18530</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A328" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24872,7 +24872,7 @@
         <v>43026</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A329" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24944,7 +24944,7 @@
         <v>44860</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A330" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25016,7 +25016,7 @@
         <v>30495</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A331" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25088,7 +25088,7 @@
         <v>9296.5</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A332" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25160,7 +25160,7 @@
         <v>10698</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A333" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25232,7 +25232,7 @@
         <v>25220</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A334" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25304,7 +25304,7 @@
         <v>16700</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A335" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25376,7 +25376,7 @@
         <v>34361.1</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A336" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25448,7 +25448,7 @@
         <v>40975</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A337" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25520,7 +25520,7 @@
         <v>17282</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A338" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25592,7 +25592,7 @@
         <v>11570</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A339" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25664,7 +25664,7 @@
         <v>18148</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A340" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25736,7 +25736,7 @@
         <v>10890</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A341" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25808,7 +25808,7 @@
         <v>13575</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A342" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25880,7 +25880,7 @@
         <v>32585.199999999997</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A343" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25952,7 +25952,7 @@
         <v>59580</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A344" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26024,7 +26024,7 @@
         <v>42851</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A345" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26096,7 +26096,7 @@
         <v>29902.959999999999</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A346" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26168,7 +26168,7 @@
         <v>19847</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A347" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26240,7 +26240,7 @@
         <v>16535</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A348" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26312,7 +26312,7 @@
         <v>12965</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A349" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26384,7 +26384,7 @@
         <v>16824.800000000003</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A350" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26456,7 +26456,7 @@
         <v>45185</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A351" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26528,7 +26528,7 @@
         <v>35281</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A352" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26600,7 +26600,7 @@
         <v>37577</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A353" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26672,7 +26672,7 @@
         <v>18149</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A354" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26744,7 +26744,7 @@
         <v>19815</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A355" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26816,7 +26816,7 @@
         <v>15166</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A356" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26888,7 +26888,7 @@
         <v>22326.5</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A357" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26960,7 +26960,7 @@
         <v>15299</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A358" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27032,7 +27032,7 @@
         <v>29246</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A359" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27104,7 +27104,7 @@
         <v>22945</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A360" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27176,7 +27176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A361" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27248,7 +27248,7 @@
         <v>11890</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A362" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27320,7 +27320,7 @@
         <v>4574</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A363" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27392,7 +27392,7 @@
         <v>24140</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A364" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27464,7 +27464,7 @@
         <v>52665</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A365" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27536,7 +27536,7 @@
         <v>46920</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A366" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27608,7 +27608,7 @@
         <v>22579</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A367" s="13" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>

--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/5-ITESO/Laboratorio de Análisis Financiero y Diseño de Indicadores/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivannaherrera/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F32CF7A-990E-534B-AD52-BCD1CD287C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C81B104-1D68-4745-8A39-F643CF0E356A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="740" windowWidth="24960" windowHeight="15720" xr2:uid="{9EEB0879-F8BE-F946-8F13-4F3CCEC835FF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9EEB0879-F8BE-F946-8F13-4F3CCEC835FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>año</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>temperatura_promedio</t>
+  </si>
+  <si>
+    <t>nomina</t>
   </si>
 </sst>
 </file>
@@ -322,7 +325,24 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="37">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -859,36 +879,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A8EF3DB4-F2F5-D341-B92D-EFDAAEAE969B}" name="Tabla1" displayName="Tabla1" ref="C1:U367" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
-  <autoFilter ref="C1:U367" xr:uid="{A8EF3DB4-F2F5-D341-B92D-EFDAAEAE969B}"/>
-  <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{3C556853-9CB4-8843-BE67-C1E21A308F8D}" name="fecha" dataDxfId="30"/>
-    <tableColumn id="19" xr3:uid="{5450EAE9-053F-4630-AD82-87D5D2CDBA99}" name="temperatura_promedio" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{60101D9F-ADF9-6147-A5A1-7317309DD6EF}" name="cantidad_adultos" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{57DAD4B7-F56E-EA4C-B302-E58E3E2CED9E}" name="precio_adultos" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{D4BD6134-AF25-6346-9779-ECFB777938A8}" name="total_adultos" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A8EF3DB4-F2F5-D341-B92D-EFDAAEAE969B}" name="Tabla1" displayName="Tabla1" ref="C1:V367" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+  <autoFilter ref="C1:V367" xr:uid="{A8EF3DB4-F2F5-D341-B92D-EFDAAEAE969B}"/>
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{3C556853-9CB4-8843-BE67-C1E21A308F8D}" name="fecha" dataDxfId="31"/>
+    <tableColumn id="19" xr3:uid="{5450EAE9-053F-4630-AD82-87D5D2CDBA99}" name="temperatura_promedio" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{60101D9F-ADF9-6147-A5A1-7317309DD6EF}" name="cantidad_adultos" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{57DAD4B7-F56E-EA4C-B302-E58E3E2CED9E}" name="precio_adultos" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{D4BD6134-AF25-6346-9779-ECFB777938A8}" name="total_adultos" dataDxfId="27">
       <calculatedColumnFormula>Tabla1[[#This Row],[cantidad_adultos]]*Tabla1[[#This Row],[precio_adultos]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{43DC9564-20A9-7549-83BE-9588F4923346}" name="cantidad_niños" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{E9BD31D0-F1CD-FE47-8DFD-BE50DF97C7E9}" name="precio_niños" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{37621434-724B-B840-9135-2B21D9E4BD09}" name="total_niños" dataDxfId="23">
+    <tableColumn id="5" xr3:uid="{43DC9564-20A9-7549-83BE-9588F4923346}" name="cantidad_niños" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{E9BD31D0-F1CD-FE47-8DFD-BE50DF97C7E9}" name="precio_niños" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{37621434-724B-B840-9135-2B21D9E4BD09}" name="total_niños" dataDxfId="24">
       <calculatedColumnFormula>Tabla1[[#This Row],[cantidad_niños]]*Tabla1[[#This Row],[precio_niños]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D4DF7ED3-18E6-9D40-81F4-7F77372E341B}" name="cantidad_familia" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{C9114E39-E3E5-0948-9091-8775567F6BDB}" name="precio_familia" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{6015787E-B74F-AE45-9A12-C9F53C48941E}" name="total_familia" dataDxfId="20">
+    <tableColumn id="8" xr3:uid="{D4DF7ED3-18E6-9D40-81F4-7F77372E341B}" name="cantidad_familia" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{C9114E39-E3E5-0948-9091-8775567F6BDB}" name="precio_familia" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{6015787E-B74F-AE45-9A12-C9F53C48941E}" name="total_familia" dataDxfId="21">
       <calculatedColumnFormula>Tabla1[[#This Row],[cantidad_familia]]*Tabla1[[#This Row],[precio_familia]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{B928A7C5-92EB-B045-B419-C29BFC4BD1B0}" name="cantidad_especial" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{D7E80B1A-6F4E-C94E-BB67-1B90C19B6CC6}" name="precio_especial" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{B648AA8C-77D1-2946-8AED-A8DDE5C9EB02}" name="total_especial" dataDxfId="17">
+    <tableColumn id="11" xr3:uid="{B928A7C5-92EB-B045-B419-C29BFC4BD1B0}" name="cantidad_especial" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{D7E80B1A-6F4E-C94E-BB67-1B90C19B6CC6}" name="precio_especial" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{B648AA8C-77D1-2946-8AED-A8DDE5C9EB02}" name="total_especial" dataDxfId="18">
       <calculatedColumnFormula>Tabla1[[#This Row],[cantidad_especial]]*Tabla1[[#This Row],[precio_especial]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{57EAB7DE-2717-2041-BC4B-20E4C26A98AD}" name="alimento" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{2C639700-CE90-6D43-BE07-6A469325F475}" name="extras" dataDxfId="15"/>
-    <tableColumn id="18" xr3:uid="{DAC9E68A-4CDB-8A4F-B66F-967469DB3AC9}" name="raya" dataDxfId="14"/>
-    <tableColumn id="16" xr3:uid="{10B76853-F3DF-4746-8C6E-ACAD99510170}" name="gastos" dataDxfId="13"/>
-    <tableColumn id="17" xr3:uid="{4C51BDE7-43CF-DF40-946F-176505A6CEEA}" name="neto" dataDxfId="12">
+    <tableColumn id="14" xr3:uid="{57EAB7DE-2717-2041-BC4B-20E4C26A98AD}" name="alimento" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{2C639700-CE90-6D43-BE07-6A469325F475}" name="extras" dataDxfId="16"/>
+    <tableColumn id="18" xr3:uid="{DAC9E68A-4CDB-8A4F-B66F-967469DB3AC9}" name="raya" dataDxfId="15"/>
+    <tableColumn id="20" xr3:uid="{EF8F1C18-2AA4-2A4C-B480-3870C4DC83A6}" name="nomina" dataDxfId="0"/>
+    <tableColumn id="16" xr3:uid="{10B76853-F3DF-4746-8C6E-ACAD99510170}" name="gastos" dataDxfId="14"/>
+    <tableColumn id="17" xr3:uid="{4C51BDE7-43CF-DF40-946F-176505A6CEEA}" name="neto" dataDxfId="13">
       <calculatedColumnFormula>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -897,10 +918,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2E69ABEE-F55B-4D46-AA27-AAFF42367A9D}" name="Tabla2" displayName="Tabla2" ref="B1:B367" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2E69ABEE-F55B-4D46-AA27-AAFF42367A9D}" name="Tabla2" displayName="Tabla2" ref="B1:B367" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="B1:B367" xr:uid="{2E69ABEE-F55B-4D46-AA27-AAFF42367A9D}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{16996AE3-93E2-3742-B4B9-76540E17088D}" name="mes" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{16996AE3-93E2-3742-B4B9-76540E17088D}" name="mes" dataDxfId="7">
       <calculatedColumnFormula>TEXT(Tabla1[[#This Row],[fecha]],"mmmm")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -909,10 +930,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2E750AFD-BAFF-6D4D-914C-E4BCD804F14C}" name="Tabla3" displayName="Tabla3" ref="A1:A367" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2" totalsRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2E750AFD-BAFF-6D4D-914C-E4BCD804F14C}" name="Tabla3" displayName="Tabla3" ref="A1:A367" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="A1:A367" xr:uid="{2E750AFD-BAFF-6D4D-914C-E4BCD804F14C}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{5F04D8AD-9142-9B46-B8C8-9995052D16E6}" name="año" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{5F04D8AD-9142-9B46-B8C8-9995052D16E6}" name="año" dataDxfId="1">
       <calculatedColumnFormula>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1237,11 +1258,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D09F7BD-A8AF-5841-BD0D-2579BBC7CBE0}">
-  <dimension ref="A1:U367"/>
+  <dimension ref="A1:V367"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S48" sqref="S48"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1263,7 +1282,7 @@
     <col min="17" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1322,13 +1341,16 @@
         <v>17</v>
       </c>
       <c r="T1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -1393,14 +1415,17 @@
         <v>0</v>
       </c>
       <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
         <v>3100</v>
       </c>
-      <c r="U2" s="4">
+      <c r="V2" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>29186</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -1465,14 +1490,17 @@
         <v>0</v>
       </c>
       <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
         <v>5450</v>
       </c>
-      <c r="U3" s="4">
+      <c r="V3" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>47832</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -1537,14 +1565,17 @@
         <v>0</v>
       </c>
       <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
         <v>1475</v>
       </c>
-      <c r="U4" s="4">
+      <c r="V4" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>33327</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -1609,14 +1640,17 @@
         <v>0</v>
       </c>
       <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
         <v>1630</v>
       </c>
-      <c r="U5" s="4">
+      <c r="V5" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>35356</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -1681,14 +1715,17 @@
         <v>31695</v>
       </c>
       <c r="T6" s="2">
+        <v>29039.200000000001</v>
+      </c>
+      <c r="U6" s="2">
         <v>33764.199999999997</v>
       </c>
-      <c r="U6" s="4">
+      <c r="V6" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>47842.8</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -1753,14 +1790,17 @@
         <v>0</v>
       </c>
       <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
         <v>6210</v>
       </c>
-      <c r="U7" s="4">
+      <c r="V7" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>99923</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -1825,14 +1865,17 @@
         <v>0</v>
       </c>
       <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
         <v>2049.3000000000002</v>
       </c>
-      <c r="U8" s="4">
+      <c r="V8" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>42283.7</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -1897,14 +1940,17 @@
         <v>0</v>
       </c>
       <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
         <v>4084.9</v>
       </c>
-      <c r="U9" s="4">
+      <c r="V9" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>32459.1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -1969,14 +2015,17 @@
         <v>0</v>
       </c>
       <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
         <v>3449</v>
       </c>
-      <c r="U10" s="4">
+      <c r="V10" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>31423</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2041,14 +2090,17 @@
         <v>0</v>
       </c>
       <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
         <v>3107</v>
       </c>
-      <c r="U11" s="4">
+      <c r="V11" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>41570</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2113,14 +2165,17 @@
         <v>0</v>
       </c>
       <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
         <v>4516.3999999999996</v>
       </c>
-      <c r="U12" s="4">
+      <c r="V12" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>38338.6</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2185,14 +2240,17 @@
         <v>31800</v>
       </c>
       <c r="T13" s="2">
+        <v>28783.4</v>
+      </c>
+      <c r="U13" s="2">
         <v>35753.4</v>
       </c>
-      <c r="U13" s="4">
+      <c r="V13" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>37946.6</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2257,14 +2315,17 @@
         <v>0</v>
       </c>
       <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
         <v>6932</v>
       </c>
-      <c r="U14" s="4">
+      <c r="V14" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>127258</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2329,14 +2390,17 @@
         <v>0</v>
       </c>
       <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
         <v>5566</v>
       </c>
-      <c r="U15" s="4">
+      <c r="V15" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>25663</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2401,14 +2465,17 @@
         <v>0</v>
       </c>
       <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
         <v>3018</v>
       </c>
-      <c r="U16" s="4">
+      <c r="V16" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>42978</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2473,14 +2540,17 @@
         <v>0</v>
       </c>
       <c r="T17" s="2">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
         <v>10721.64</v>
       </c>
-      <c r="U17" s="4">
+      <c r="V17" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>49000.36</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2545,14 +2615,17 @@
         <v>0</v>
       </c>
       <c r="T18" s="2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
         <v>4600</v>
       </c>
-      <c r="U18" s="4">
+      <c r="V18" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>41189</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2617,14 +2690,17 @@
         <v>0</v>
       </c>
       <c r="T19" s="2">
+        <v>0</v>
+      </c>
+      <c r="U19" s="2">
         <v>4480.6000000000004</v>
       </c>
-      <c r="U19" s="4">
+      <c r="V19" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>41653.4</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2689,14 +2765,17 @@
         <v>32164</v>
       </c>
       <c r="T20" s="2">
+        <v>29206.2</v>
+      </c>
+      <c r="U20" s="2">
         <v>43105.2</v>
       </c>
-      <c r="U20" s="4">
+      <c r="V20" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>35300.800000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2761,14 +2840,17 @@
         <v>0</v>
       </c>
       <c r="T21" s="2">
+        <v>0</v>
+      </c>
+      <c r="U21" s="2">
         <v>6400</v>
       </c>
-      <c r="U21" s="4">
+      <c r="V21" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>25784</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2833,14 +2915,17 @@
         <v>0</v>
       </c>
       <c r="T22" s="2">
+        <v>0</v>
+      </c>
+      <c r="U22" s="2">
         <v>2260</v>
       </c>
-      <c r="U22" s="4">
+      <c r="V22" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>36821</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2905,14 +2990,17 @@
         <v>0</v>
       </c>
       <c r="T23" s="2">
+        <v>0</v>
+      </c>
+      <c r="U23" s="2">
         <v>2345</v>
       </c>
-      <c r="U23" s="4">
+      <c r="V23" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>23740</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2977,14 +3065,17 @@
         <v>0</v>
       </c>
       <c r="T24" s="2">
+        <v>0</v>
+      </c>
+      <c r="U24" s="2">
         <v>9369</v>
       </c>
-      <c r="U24" s="4">
+      <c r="V24" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>30356</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3049,14 +3140,17 @@
         <v>0</v>
       </c>
       <c r="T25" s="2">
+        <v>0</v>
+      </c>
+      <c r="U25" s="2">
         <v>2940</v>
       </c>
-      <c r="U25" s="4">
+      <c r="V25" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>30025</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3121,14 +3215,17 @@
         <v>0</v>
       </c>
       <c r="T26" s="2">
+        <v>0</v>
+      </c>
+      <c r="U26" s="2">
         <v>2178</v>
       </c>
-      <c r="U26" s="4">
+      <c r="V26" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>39839</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3193,14 +3290,17 @@
         <v>30833.5</v>
       </c>
       <c r="T27" s="2">
+        <v>28146.6</v>
+      </c>
+      <c r="U27" s="2">
         <v>36677.599999999999</v>
       </c>
-      <c r="U27" s="4">
+      <c r="V27" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>55391.9</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3265,14 +3365,17 @@
         <v>0</v>
       </c>
       <c r="T28" s="2">
+        <v>0</v>
+      </c>
+      <c r="U28" s="2">
         <v>8705</v>
       </c>
-      <c r="U28" s="4">
+      <c r="V28" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>85848</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3337,14 +3440,17 @@
         <v>0</v>
       </c>
       <c r="T29" s="2">
+        <v>0</v>
+      </c>
+      <c r="U29" s="2">
         <v>600</v>
       </c>
-      <c r="U29" s="4">
+      <c r="V29" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>13635</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3411,12 +3517,15 @@
       <c r="T30" s="2">
         <v>0</v>
       </c>
-      <c r="U30" s="4">
+      <c r="U30" s="2">
+        <v>0</v>
+      </c>
+      <c r="V30" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>11529</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3481,14 +3590,17 @@
         <v>0</v>
       </c>
       <c r="T31" s="2">
+        <v>0</v>
+      </c>
+      <c r="U31" s="2">
         <v>2490</v>
       </c>
-      <c r="U31" s="4">
+      <c r="V31" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>4316</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3553,14 +3665,17 @@
         <v>0</v>
       </c>
       <c r="T32" s="2">
+        <v>0</v>
+      </c>
+      <c r="U32" s="2">
         <v>1711</v>
       </c>
-      <c r="U32" s="4">
+      <c r="V32" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>7199</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3627,12 +3742,15 @@
       <c r="T33" s="2">
         <v>0</v>
       </c>
-      <c r="U33" s="4">
+      <c r="U33" s="2">
+        <v>0</v>
+      </c>
+      <c r="V33" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>6080</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3697,14 +3815,17 @@
         <v>30062.5</v>
       </c>
       <c r="T34" s="2">
+        <v>27082.400000000001</v>
+      </c>
+      <c r="U34" s="2">
         <v>34255.4</v>
       </c>
-      <c r="U34" s="4">
+      <c r="V34" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>20869.099999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3769,14 +3890,17 @@
         <v>0</v>
       </c>
       <c r="T35" s="2">
+        <v>0</v>
+      </c>
+      <c r="U35" s="2">
         <v>8011</v>
       </c>
-      <c r="U35" s="4">
+      <c r="V35" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>41459</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3841,14 +3965,17 @@
         <v>0</v>
       </c>
       <c r="T36" s="2">
+        <v>0</v>
+      </c>
+      <c r="U36" s="2">
         <v>2297</v>
       </c>
-      <c r="U36" s="4">
+      <c r="V36" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>14946</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3913,14 +4040,17 @@
         <v>0</v>
       </c>
       <c r="T37" s="2">
+        <v>0</v>
+      </c>
+      <c r="U37" s="2">
         <v>3000</v>
       </c>
-      <c r="U37" s="4">
+      <c r="V37" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>10490</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3985,14 +4115,17 @@
         <v>0</v>
       </c>
       <c r="T38" s="2">
+        <v>0</v>
+      </c>
+      <c r="U38" s="2">
         <v>1255</v>
       </c>
-      <c r="U38" s="4">
+      <c r="V38" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>10690</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4057,14 +4190,17 @@
         <v>0</v>
       </c>
       <c r="T39" s="2">
+        <v>0</v>
+      </c>
+      <c r="U39" s="2">
         <v>1500</v>
       </c>
-      <c r="U39" s="4">
+      <c r="V39" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>9865</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4129,14 +4265,17 @@
         <v>0</v>
       </c>
       <c r="T40" s="2">
+        <v>0</v>
+      </c>
+      <c r="U40" s="2">
         <v>500</v>
       </c>
-      <c r="U40" s="4">
+      <c r="V40" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>8260</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4201,14 +4340,17 @@
         <v>31135.5</v>
       </c>
       <c r="T41" s="2">
+        <v>27695.4</v>
+      </c>
+      <c r="U41" s="2">
         <v>43995.4</v>
       </c>
-      <c r="U41" s="4">
+      <c r="V41" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>10573.099999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4273,14 +4415,17 @@
         <v>0</v>
       </c>
       <c r="T42" s="2">
+        <v>0</v>
+      </c>
+      <c r="U42" s="2">
         <v>19168</v>
       </c>
-      <c r="U42" s="4">
+      <c r="V42" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>41791</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4345,14 +4490,17 @@
         <v>0</v>
       </c>
       <c r="T43" s="2">
+        <v>0</v>
+      </c>
+      <c r="U43" s="2">
         <v>2935</v>
       </c>
-      <c r="U43" s="4">
+      <c r="V43" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>21626</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4419,12 +4567,15 @@
       <c r="T44" s="2">
         <v>0</v>
       </c>
-      <c r="U44" s="4">
+      <c r="U44" s="2">
+        <v>0</v>
+      </c>
+      <c r="V44" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>22357</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4489,14 +4640,17 @@
         <v>0</v>
       </c>
       <c r="T45" s="2">
+        <v>0</v>
+      </c>
+      <c r="U45" s="2">
         <v>6491</v>
       </c>
-      <c r="U45" s="4">
+      <c r="V45" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>17182</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4563,12 +4717,15 @@
       <c r="T46" s="2">
         <v>0</v>
       </c>
-      <c r="U46" s="4">
+      <c r="U46" s="2">
+        <v>0</v>
+      </c>
+      <c r="V46" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>11540</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4633,14 +4790,17 @@
         <v>0</v>
       </c>
       <c r="T47" s="2">
+        <v>0</v>
+      </c>
+      <c r="U47" s="2">
         <v>4851</v>
       </c>
-      <c r="U47" s="4">
+      <c r="V47" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>12679</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4705,14 +4865,17 @@
         <v>31371.5</v>
       </c>
       <c r="T48" s="2">
+        <v>28434.400000000001</v>
+      </c>
+      <c r="U48" s="2">
         <v>31819.4</v>
       </c>
-      <c r="U48" s="4">
+      <c r="V48" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>62755.1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4777,14 +4940,17 @@
         <v>0</v>
       </c>
       <c r="T49" s="2">
+        <v>0</v>
+      </c>
+      <c r="U49" s="2">
         <v>17091</v>
       </c>
-      <c r="U49" s="4">
+      <c r="V49" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>49186</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4849,14 +5015,17 @@
         <v>0</v>
       </c>
       <c r="T50" s="2">
+        <v>0</v>
+      </c>
+      <c r="U50" s="2">
         <v>1870</v>
       </c>
-      <c r="U50" s="4">
+      <c r="V50" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>18222</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4921,14 +5090,17 @@
         <v>0</v>
       </c>
       <c r="T51" s="2">
+        <v>0</v>
+      </c>
+      <c r="U51" s="2">
         <v>500</v>
       </c>
-      <c r="U51" s="4">
+      <c r="V51" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>14945</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4993,14 +5165,17 @@
         <v>0</v>
       </c>
       <c r="T52" s="2">
+        <v>0</v>
+      </c>
+      <c r="U52" s="2">
         <v>3190</v>
       </c>
-      <c r="U52" s="4">
+      <c r="V52" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>14285</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5065,14 +5240,17 @@
         <v>0</v>
       </c>
       <c r="T53" s="2">
+        <v>0</v>
+      </c>
+      <c r="U53" s="2">
         <v>3190</v>
       </c>
-      <c r="U53" s="4">
+      <c r="V53" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>14285</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5137,14 +5315,17 @@
         <v>0</v>
       </c>
       <c r="T54" s="2">
+        <v>0</v>
+      </c>
+      <c r="U54" s="2">
         <v>947</v>
       </c>
-      <c r="U54" s="4">
+      <c r="V54" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>16027</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5209,14 +5390,17 @@
         <v>38188</v>
       </c>
       <c r="T55" s="2">
+        <v>34806.199999999997</v>
+      </c>
+      <c r="U55" s="2">
         <v>38706.199999999997</v>
       </c>
-      <c r="U55" s="4">
+      <c r="V55" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>46527.8</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5281,14 +5465,17 @@
         <v>0</v>
       </c>
       <c r="T56" s="2">
+        <v>0</v>
+      </c>
+      <c r="U56" s="2">
         <v>7316</v>
       </c>
-      <c r="U56" s="4">
+      <c r="V56" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>98184</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5353,14 +5540,17 @@
         <v>0</v>
       </c>
       <c r="T57" s="2">
+        <v>0</v>
+      </c>
+      <c r="U57" s="2">
         <v>1626.5</v>
       </c>
-      <c r="U57" s="4">
+      <c r="V57" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>27087</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5425,14 +5615,17 @@
         <v>0</v>
       </c>
       <c r="T58" s="2">
+        <v>0</v>
+      </c>
+      <c r="U58" s="2">
         <v>375</v>
       </c>
-      <c r="U58" s="4">
+      <c r="V58" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>20495</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5497,14 +5690,17 @@
         <v>0</v>
       </c>
       <c r="T59" s="2">
+        <v>0</v>
+      </c>
+      <c r="U59" s="2">
         <v>8773</v>
       </c>
-      <c r="U59" s="4">
+      <c r="V59" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>6157</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5569,14 +5765,17 @@
         <v>0</v>
       </c>
       <c r="T60" s="2">
+        <v>0</v>
+      </c>
+      <c r="U60" s="2">
         <v>4500</v>
       </c>
-      <c r="U60" s="4">
+      <c r="V60" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>12561</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5641,14 +5840,17 @@
         <v>0</v>
       </c>
       <c r="T61" s="2">
+        <v>0</v>
+      </c>
+      <c r="U61" s="2">
         <v>4940</v>
       </c>
-      <c r="U61" s="4">
+      <c r="V61" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>39588</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5713,14 +5915,17 @@
         <v>27489</v>
       </c>
       <c r="T62" s="2">
+        <v>24895</v>
+      </c>
+      <c r="U62" s="2">
         <v>31051.360000000001</v>
       </c>
-      <c r="U62" s="4">
+      <c r="V62" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>33562.639999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5785,14 +5990,17 @@
         <v>0</v>
       </c>
       <c r="T63" s="2">
+        <v>0</v>
+      </c>
+      <c r="U63" s="2">
         <v>9619</v>
       </c>
-      <c r="U63" s="4">
+      <c r="V63" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>92341</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5857,14 +6065,17 @@
         <v>0</v>
       </c>
       <c r="T64" s="2">
+        <v>0</v>
+      </c>
+      <c r="U64" s="2">
         <v>3838</v>
       </c>
-      <c r="U64" s="4">
+      <c r="V64" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>17112</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5929,14 +6140,17 @@
         <v>0</v>
       </c>
       <c r="T65" s="2">
+        <v>0</v>
+      </c>
+      <c r="U65" s="2">
         <v>4615</v>
       </c>
-      <c r="U65" s="4">
+      <c r="V65" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>14546</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6001,14 +6215,17 @@
         <v>0</v>
       </c>
       <c r="T66" s="2">
+        <v>0</v>
+      </c>
+      <c r="U66" s="2">
         <v>3915.5</v>
       </c>
-      <c r="U66" s="4">
+      <c r="V66" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>7003.5</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6075,12 +6292,15 @@
       <c r="T67" s="2">
         <v>0</v>
       </c>
-      <c r="U67" s="4">
+      <c r="U67" s="2">
+        <v>0</v>
+      </c>
+      <c r="V67" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>9414</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6145,14 +6365,17 @@
         <v>0</v>
       </c>
       <c r="T68" s="2">
+        <v>0</v>
+      </c>
+      <c r="U68" s="2">
         <v>312.5</v>
       </c>
-      <c r="U68" s="4">
+      <c r="V68" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>5643.5</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6217,14 +6440,17 @@
         <v>31571</v>
       </c>
       <c r="T69" s="2">
+        <v>28129.8</v>
+      </c>
+      <c r="U69" s="2">
         <v>31164.799999999999</v>
       </c>
-      <c r="U69" s="4">
+      <c r="V69" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>28232.2</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6289,14 +6515,17 @@
         <v>0</v>
       </c>
       <c r="T70" s="2">
+        <v>0</v>
+      </c>
+      <c r="U70" s="2">
         <v>7547</v>
       </c>
-      <c r="U70" s="4">
+      <c r="V70" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>34059</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6361,14 +6590,17 @@
         <v>0</v>
       </c>
       <c r="T71" s="2">
+        <v>0</v>
+      </c>
+      <c r="U71" s="2">
         <v>6995</v>
       </c>
-      <c r="U71" s="4">
+      <c r="V71" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>8460</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6435,12 +6667,15 @@
       <c r="T72" s="2">
         <v>0</v>
       </c>
-      <c r="U72" s="4">
+      <c r="U72" s="2">
+        <v>0</v>
+      </c>
+      <c r="V72" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>5005</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6505,14 +6740,17 @@
         <v>0</v>
       </c>
       <c r="T73" s="2">
+        <v>0</v>
+      </c>
+      <c r="U73" s="2">
         <v>1204</v>
       </c>
-      <c r="U73" s="4">
+      <c r="V73" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>859</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6577,14 +6815,17 @@
         <v>0</v>
       </c>
       <c r="T74" s="2">
+        <v>0</v>
+      </c>
+      <c r="U74" s="2">
         <v>1416</v>
       </c>
-      <c r="U74" s="4">
+      <c r="V74" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>21039</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6649,14 +6890,17 @@
         <v>0</v>
       </c>
       <c r="T75" s="2">
+        <v>0</v>
+      </c>
+      <c r="U75" s="2">
         <v>595</v>
       </c>
-      <c r="U75" s="4">
+      <c r="V75" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>8934</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6721,14 +6965,17 @@
         <v>31495</v>
       </c>
       <c r="T76" s="2">
+        <v>28526.799999999999</v>
+      </c>
+      <c r="U76" s="2">
         <v>31010.799999999999</v>
       </c>
-      <c r="U76" s="4">
+      <c r="V76" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>19374.2</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6793,14 +7040,17 @@
         <v>0</v>
       </c>
       <c r="T77" s="2">
+        <v>0</v>
+      </c>
+      <c r="U77" s="2">
         <v>4540</v>
       </c>
-      <c r="U77" s="4">
+      <c r="V77" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>36260</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6865,14 +7115,17 @@
         <v>0</v>
       </c>
       <c r="T78" s="2">
+        <v>0</v>
+      </c>
+      <c r="U78" s="2">
         <v>1397</v>
       </c>
-      <c r="U78" s="4">
+      <c r="V78" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>26388</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6937,14 +7190,17 @@
         <v>0</v>
       </c>
       <c r="T79" s="2">
+        <v>0</v>
+      </c>
+      <c r="U79" s="2">
         <v>317</v>
       </c>
-      <c r="U79" s="4">
+      <c r="V79" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>4181</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7009,14 +7265,17 @@
         <v>0</v>
       </c>
       <c r="T80" s="2">
+        <v>0</v>
+      </c>
+      <c r="U80" s="2">
         <v>6434</v>
       </c>
-      <c r="U80" s="4">
+      <c r="V80" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>1723</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7083,12 +7342,15 @@
       <c r="T81" s="2">
         <v>0</v>
       </c>
-      <c r="U81" s="4">
+      <c r="U81" s="2">
+        <v>0</v>
+      </c>
+      <c r="V81" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>2865</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7153,14 +7415,17 @@
         <v>0</v>
       </c>
       <c r="T82" s="2">
+        <v>0</v>
+      </c>
+      <c r="U82" s="2">
         <v>1564</v>
       </c>
-      <c r="U82" s="4">
+      <c r="V82" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>3003</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7225,14 +7490,17 @@
         <v>31315</v>
       </c>
       <c r="T83" s="2">
+        <v>27706</v>
+      </c>
+      <c r="U83" s="2">
         <v>34733</v>
       </c>
-      <c r="U83" s="4">
+      <c r="V83" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>10792</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7297,14 +7565,17 @@
         <v>0</v>
       </c>
       <c r="T84" s="2">
+        <v>0</v>
+      </c>
+      <c r="U84" s="2">
         <v>15412</v>
       </c>
-      <c r="U84" s="4">
+      <c r="V84" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>24958</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7369,14 +7640,17 @@
         <v>0</v>
       </c>
       <c r="T85" s="2">
+        <v>0</v>
+      </c>
+      <c r="U85" s="2">
         <v>1437</v>
       </c>
-      <c r="U85" s="4">
+      <c r="V85" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>19913</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7441,14 +7715,17 @@
         <v>0</v>
       </c>
       <c r="T86" s="2">
+        <v>0</v>
+      </c>
+      <c r="U86" s="2">
         <v>3000</v>
       </c>
-      <c r="U86" s="4">
+      <c r="V86" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>13080</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7513,14 +7790,17 @@
         <v>0</v>
       </c>
       <c r="T87" s="2">
+        <v>0</v>
+      </c>
+      <c r="U87" s="2">
         <v>4230</v>
       </c>
-      <c r="U87" s="4">
+      <c r="V87" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>4316</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7587,12 +7867,15 @@
       <c r="T88" s="2">
         <v>0</v>
       </c>
-      <c r="U88" s="4">
+      <c r="U88" s="2">
+        <v>0</v>
+      </c>
+      <c r="V88" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>9975</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7659,12 +7942,15 @@
       <c r="T89" s="2">
         <v>0</v>
       </c>
-      <c r="U89" s="4">
+      <c r="U89" s="2">
+        <v>0</v>
+      </c>
+      <c r="V89" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>7256</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7729,14 +8015,17 @@
         <v>31793</v>
       </c>
       <c r="T90" s="2">
+        <v>27846</v>
+      </c>
+      <c r="U90" s="2">
         <v>35134</v>
       </c>
-      <c r="U90" s="4">
+      <c r="V90" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>12502</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7801,14 +8090,17 @@
         <v>0</v>
       </c>
       <c r="T91" s="2">
+        <v>0</v>
+      </c>
+      <c r="U91" s="2">
         <v>5577</v>
       </c>
-      <c r="U91" s="4">
+      <c r="V91" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>26223</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7873,14 +8165,17 @@
         <v>0</v>
       </c>
       <c r="T92" s="2">
+        <v>0</v>
+      </c>
+      <c r="U92" s="2">
         <v>7288</v>
       </c>
-      <c r="U92" s="4">
+      <c r="V92" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>8555</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7947,12 +8242,15 @@
       <c r="T93" s="2">
         <v>0</v>
       </c>
-      <c r="U93" s="4">
+      <c r="U93" s="2">
+        <v>0</v>
+      </c>
+      <c r="V93" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>3690</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8017,14 +8315,17 @@
         <v>0</v>
       </c>
       <c r="T94" s="2">
+        <v>0</v>
+      </c>
+      <c r="U94" s="2">
         <v>3871</v>
       </c>
-      <c r="U94" s="4">
+      <c r="V94" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>4374</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8089,14 +8390,17 @@
         <v>0</v>
       </c>
       <c r="T95" s="2">
+        <v>0</v>
+      </c>
+      <c r="U95" s="2">
         <v>1171</v>
       </c>
-      <c r="U95" s="4">
+      <c r="V95" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>12274</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8161,14 +8465,17 @@
         <v>0</v>
       </c>
       <c r="T96" s="2">
+        <v>0</v>
+      </c>
+      <c r="U96" s="2">
         <v>4451.5</v>
       </c>
-      <c r="U96" s="4">
+      <c r="V96" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>4020.5</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8233,14 +8540,17 @@
         <v>36034</v>
       </c>
       <c r="T97" s="2">
+        <v>28187.200000000001</v>
+      </c>
+      <c r="U97" s="2">
         <v>36366.199999999997</v>
       </c>
-      <c r="U97" s="4">
+      <c r="V97" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>8722.8000000000029</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8305,14 +8615,17 @@
         <v>0</v>
       </c>
       <c r="T98" s="2">
+        <v>0</v>
+      </c>
+      <c r="U98" s="2">
         <v>9222</v>
       </c>
-      <c r="U98" s="4">
+      <c r="V98" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>25893</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8377,14 +8690,17 @@
         <v>0</v>
       </c>
       <c r="T99" s="2">
+        <v>0</v>
+      </c>
+      <c r="U99" s="2">
         <v>2657</v>
       </c>
-      <c r="U99" s="4">
+      <c r="V99" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>7894</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8451,12 +8767,15 @@
       <c r="T100" s="2">
         <v>0</v>
       </c>
-      <c r="U100" s="4">
+      <c r="U100" s="2">
+        <v>0</v>
+      </c>
+      <c r="V100" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>8651</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8521,14 +8840,17 @@
         <v>0</v>
       </c>
       <c r="T101" s="2">
+        <v>0</v>
+      </c>
+      <c r="U101" s="2">
         <v>1826</v>
       </c>
-      <c r="U101" s="4">
+      <c r="V101" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>665</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8595,12 +8917,15 @@
       <c r="T102" s="2">
         <v>0</v>
       </c>
-      <c r="U102" s="4">
+      <c r="U102" s="2">
+        <v>0</v>
+      </c>
+      <c r="V102" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>6390</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8667,12 +8992,15 @@
       <c r="T103" s="2">
         <v>0</v>
       </c>
-      <c r="U103" s="4">
+      <c r="U103" s="2">
+        <v>0</v>
+      </c>
+      <c r="V103" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>7710</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8737,14 +9065,17 @@
         <v>31120</v>
       </c>
       <c r="T104" s="2">
+        <v>27696.799999999999</v>
+      </c>
+      <c r="U104" s="2">
         <v>35716.300000000003</v>
       </c>
-      <c r="U104" s="4">
+      <c r="V104" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>11036.699999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8809,14 +9140,17 @@
         <v>0</v>
       </c>
       <c r="T105" s="2">
+        <v>0</v>
+      </c>
+      <c r="U105" s="2">
         <v>16604</v>
       </c>
-      <c r="U105" s="4">
+      <c r="V105" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>29054</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8881,14 +9215,17 @@
         <v>0</v>
       </c>
       <c r="T106" s="2">
+        <v>0</v>
+      </c>
+      <c r="U106" s="2">
         <v>2340</v>
       </c>
-      <c r="U106" s="4">
+      <c r="V106" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>10492</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8953,14 +9290,17 @@
         <v>0</v>
       </c>
       <c r="T107" s="2">
+        <v>0</v>
+      </c>
+      <c r="U107" s="2">
         <v>606</v>
       </c>
-      <c r="U107" s="4">
+      <c r="V107" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>4699</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9025,14 +9365,17 @@
         <v>0</v>
       </c>
       <c r="T108" s="2">
+        <v>0</v>
+      </c>
+      <c r="U108" s="2">
         <v>4872</v>
       </c>
-      <c r="U108" s="4">
+      <c r="V108" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>618</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9099,12 +9442,15 @@
       <c r="T109" s="2">
         <v>0</v>
       </c>
-      <c r="U109" s="4">
+      <c r="U109" s="2">
+        <v>0</v>
+      </c>
+      <c r="V109" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>7510</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9169,14 +9515,17 @@
         <v>0</v>
       </c>
       <c r="T110" s="2">
+        <v>0</v>
+      </c>
+      <c r="U110" s="2">
         <v>2856.3</v>
       </c>
-      <c r="U110" s="4">
+      <c r="V110" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>5421.7</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9241,14 +9590,17 @@
         <v>26636.400000000001</v>
       </c>
       <c r="T111" s="2">
+        <v>22905.200000000001</v>
+      </c>
+      <c r="U111" s="2">
         <v>29410.2</v>
       </c>
-      <c r="U111" s="4">
+      <c r="V111" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>25391.200000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9313,14 +9665,17 @@
         <v>0</v>
       </c>
       <c r="T112" s="2">
+        <v>0</v>
+      </c>
+      <c r="U112" s="2">
         <v>5327</v>
       </c>
-      <c r="U112" s="4">
+      <c r="V112" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>37298</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9385,14 +9740,17 @@
         <v>0</v>
       </c>
       <c r="T113" s="2">
+        <v>0</v>
+      </c>
+      <c r="U113" s="2">
         <v>5455</v>
       </c>
-      <c r="U113" s="4">
+      <c r="V113" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>100439</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9457,14 +9815,17 @@
         <v>0</v>
       </c>
       <c r="T114" s="2">
+        <v>0</v>
+      </c>
+      <c r="U114" s="2">
         <v>4383</v>
       </c>
-      <c r="U114" s="4">
+      <c r="V114" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>-983</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9529,14 +9890,17 @@
         <v>0</v>
       </c>
       <c r="T115" s="2">
+        <v>0</v>
+      </c>
+      <c r="U115" s="2">
         <v>3106</v>
       </c>
-      <c r="U115" s="4">
+      <c r="V115" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>250</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9601,14 +9965,17 @@
         <v>0</v>
       </c>
       <c r="T116" s="2">
+        <v>0</v>
+      </c>
+      <c r="U116" s="2">
         <v>1350</v>
       </c>
-      <c r="U116" s="4">
+      <c r="V116" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>605</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9673,14 +10040,17 @@
         <v>0</v>
       </c>
       <c r="T117" s="2">
+        <v>0</v>
+      </c>
+      <c r="U117" s="2">
         <v>3452</v>
       </c>
-      <c r="U117" s="4">
+      <c r="V117" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>2933</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9745,14 +10115,17 @@
         <v>32998</v>
       </c>
       <c r="T118" s="2">
+        <v>29602.799999999999</v>
+      </c>
+      <c r="U118" s="2">
         <v>36277.800000000003</v>
       </c>
-      <c r="U118" s="4">
+      <c r="V118" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>7198.1999999999971</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9817,14 +10190,17 @@
         <v>0</v>
       </c>
       <c r="T119" s="2">
+        <v>0</v>
+      </c>
+      <c r="U119" s="2">
         <v>19020</v>
       </c>
-      <c r="U119" s="4">
+      <c r="V119" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>11458</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9889,14 +10265,17 @@
         <v>0</v>
       </c>
       <c r="T120" s="2">
+        <v>0</v>
+      </c>
+      <c r="U120" s="2">
         <v>2187</v>
       </c>
-      <c r="U120" s="4">
+      <c r="V120" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>1573</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9963,12 +10342,15 @@
       <c r="T121" s="2">
         <v>0</v>
       </c>
-      <c r="U121" s="4">
+      <c r="U121" s="2">
+        <v>0</v>
+      </c>
+      <c r="V121" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>680</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10033,14 +10415,17 @@
         <v>0</v>
       </c>
       <c r="T122" s="2">
+        <v>0</v>
+      </c>
+      <c r="U122" s="2">
         <v>1240</v>
       </c>
-      <c r="U122" s="4">
+      <c r="V122" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>-1140</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10105,14 +10490,17 @@
         <v>0</v>
       </c>
       <c r="T123" s="2">
+        <v>0</v>
+      </c>
+      <c r="U123" s="2">
         <v>1640</v>
       </c>
-      <c r="U123" s="4">
+      <c r="V123" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>2070</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10177,14 +10565,17 @@
         <v>0</v>
       </c>
       <c r="T124" s="2">
+        <v>0</v>
+      </c>
+      <c r="U124" s="2">
         <v>1041</v>
       </c>
-      <c r="U124" s="4">
+      <c r="V124" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>199</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10249,14 +10640,17 @@
         <v>22076</v>
       </c>
       <c r="T125" s="2">
+        <v>19214</v>
+      </c>
+      <c r="U125" s="2">
         <v>23317</v>
       </c>
-      <c r="U125" s="4">
+      <c r="V125" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>1154</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10321,14 +10715,17 @@
         <v>0</v>
       </c>
       <c r="T126" s="2">
+        <v>0</v>
+      </c>
+      <c r="U126" s="2">
         <v>3660</v>
       </c>
-      <c r="U126" s="4">
+      <c r="V126" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>3280</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10393,14 +10790,17 @@
         <v>0</v>
       </c>
       <c r="T127" s="2">
+        <v>0</v>
+      </c>
+      <c r="U127" s="2">
         <v>1167</v>
       </c>
-      <c r="U127" s="4">
+      <c r="V127" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>-62</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10465,14 +10865,17 @@
         <v>0</v>
       </c>
       <c r="T128" s="2">
+        <v>0</v>
+      </c>
+      <c r="U128" s="2">
         <v>170</v>
       </c>
-      <c r="U128" s="4">
+      <c r="V128" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10539,12 +10942,15 @@
       <c r="T129" s="2">
         <v>0</v>
       </c>
-      <c r="U129" s="4">
+      <c r="U129" s="2">
+        <v>0</v>
+      </c>
+      <c r="V129" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>2632</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10611,12 +11017,15 @@
       <c r="T130" s="2">
         <v>0</v>
       </c>
-      <c r="U130" s="4">
-        <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U130" s="2">
+        <v>0</v>
+      </c>
+      <c r="V130" s="4">
+        <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10683,12 +11092,15 @@
       <c r="T131" s="2">
         <v>0</v>
       </c>
-      <c r="U131" s="4">
-        <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U131" s="2">
+        <v>0</v>
+      </c>
+      <c r="V131" s="4">
+        <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10753,14 +11165,17 @@
         <v>0</v>
       </c>
       <c r="T132" s="2">
+        <v>0</v>
+      </c>
+      <c r="U132" s="2">
         <v>2480</v>
       </c>
-      <c r="U132" s="4">
+      <c r="V132" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>3363</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10825,14 +11240,17 @@
         <v>0</v>
       </c>
       <c r="T133" s="2">
+        <v>0</v>
+      </c>
+      <c r="U133" s="2">
         <v>2480</v>
       </c>
-      <c r="U133" s="4">
+      <c r="V133" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>16213</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10899,12 +11317,15 @@
       <c r="T134" s="2">
         <v>0</v>
       </c>
-      <c r="U134" s="4">
+      <c r="U134" s="2">
+        <v>0</v>
+      </c>
+      <c r="V134" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>696</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10969,14 +11390,17 @@
         <v>0</v>
       </c>
       <c r="T135" s="2">
+        <v>0</v>
+      </c>
+      <c r="U135" s="2">
         <v>560</v>
       </c>
-      <c r="U135" s="4">
+      <c r="V135" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>2725</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11043,12 +11467,15 @@
       <c r="T136" s="2">
         <v>0</v>
       </c>
-      <c r="U136" s="4">
+      <c r="U136" s="2">
+        <v>0</v>
+      </c>
+      <c r="V136" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>772</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11115,12 +11542,15 @@
       <c r="T137" s="2">
         <v>0</v>
       </c>
-      <c r="U137" s="4">
+      <c r="U137" s="2">
+        <v>0</v>
+      </c>
+      <c r="V137" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>770</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11187,12 +11617,15 @@
       <c r="T138" s="2">
         <v>0</v>
       </c>
-      <c r="U138" s="4">
+      <c r="U138" s="2">
+        <v>0</v>
+      </c>
+      <c r="V138" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>960</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11257,14 +11690,17 @@
         <v>0</v>
       </c>
       <c r="T139" s="2">
+        <v>0</v>
+      </c>
+      <c r="U139" s="2">
         <v>225</v>
       </c>
-      <c r="U139" s="4">
+      <c r="V139" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>1591</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A140" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11329,14 +11765,17 @@
         <v>0</v>
       </c>
       <c r="T140" s="2">
+        <v>0</v>
+      </c>
+      <c r="U140" s="2">
         <v>5472.5</v>
       </c>
-      <c r="U140" s="4">
+      <c r="V140" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>8967.5</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11403,12 +11842,15 @@
       <c r="T141" s="2">
         <v>0</v>
       </c>
-      <c r="U141" s="4">
+      <c r="U141" s="2">
+        <v>0</v>
+      </c>
+      <c r="V141" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>961</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11473,14 +11915,17 @@
         <v>0</v>
       </c>
       <c r="T142" s="2">
+        <v>0</v>
+      </c>
+      <c r="U142" s="2">
         <v>1232.5</v>
       </c>
-      <c r="U142" s="4">
+      <c r="V142" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>5537.5</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A143" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11547,12 +11992,15 @@
       <c r="T143" s="2">
         <v>0</v>
       </c>
-      <c r="U143" s="4">
-        <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U143" s="2">
+        <v>0</v>
+      </c>
+      <c r="V143" s="4">
+        <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11619,12 +12067,15 @@
       <c r="T144" s="2">
         <v>0</v>
       </c>
-      <c r="U144" s="4">
+      <c r="U144" s="2">
+        <v>0</v>
+      </c>
+      <c r="V144" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>729</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A145" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11691,12 +12142,15 @@
       <c r="T145" s="2">
         <v>0</v>
       </c>
-      <c r="U145" s="4">
+      <c r="U145" s="2">
+        <v>0</v>
+      </c>
+      <c r="V145" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>502</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A146" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11763,12 +12217,15 @@
       <c r="T146" s="2">
         <v>0</v>
       </c>
-      <c r="U146" s="4">
+      <c r="U146" s="2">
+        <v>0</v>
+      </c>
+      <c r="V146" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A147" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11835,12 +12292,15 @@
       <c r="T147" s="2">
         <v>0</v>
       </c>
-      <c r="U147" s="4">
-        <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U147" s="2">
+        <v>0</v>
+      </c>
+      <c r="V147" s="4">
+        <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A148" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11905,14 +12365,17 @@
         <v>0</v>
       </c>
       <c r="T148" s="2">
+        <v>0</v>
+      </c>
+      <c r="U148" s="2">
         <v>6830</v>
       </c>
-      <c r="U148" s="4">
+      <c r="V148" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>655</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11979,12 +12442,15 @@
       <c r="T149" s="2">
         <v>0</v>
       </c>
-      <c r="U149" s="4">
+      <c r="U149" s="2">
+        <v>0</v>
+      </c>
+      <c r="V149" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>350</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A150" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -12051,12 +12517,15 @@
       <c r="T150" s="2">
         <v>0</v>
       </c>
-      <c r="U150" s="4">
+      <c r="U150" s="2">
+        <v>0</v>
+      </c>
+      <c r="V150" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>880</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A151" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -12123,12 +12592,15 @@
       <c r="T151" s="2">
         <v>0</v>
       </c>
-      <c r="U151" s="4">
+      <c r="U151" s="2">
+        <v>0</v>
+      </c>
+      <c r="V151" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>997</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A152" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -12193,14 +12665,17 @@
         <v>0</v>
       </c>
       <c r="T152" s="2">
+        <v>0</v>
+      </c>
+      <c r="U152" s="2">
         <v>1000</v>
       </c>
-      <c r="U152" s="4">
+      <c r="V152" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>328</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A153" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -12265,14 +12740,17 @@
         <v>16007</v>
       </c>
       <c r="T153" s="2">
+        <v>15463</v>
+      </c>
+      <c r="U153" s="2">
         <v>19355</v>
       </c>
-      <c r="U153" s="4">
+      <c r="V153" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>-2993</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A154" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -12339,12 +12817,15 @@
       <c r="T154" s="2">
         <v>0</v>
       </c>
-      <c r="U154" s="4">
-        <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U154" s="2">
+        <v>0</v>
+      </c>
+      <c r="V154" s="4">
+        <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A155" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -12409,14 +12890,17 @@
         <v>0</v>
       </c>
       <c r="T155" s="2">
+        <v>0</v>
+      </c>
+      <c r="U155" s="2">
         <v>5993</v>
       </c>
-      <c r="U155" s="4">
+      <c r="V155" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>13082</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A156" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -12481,14 +12965,17 @@
         <v>0</v>
       </c>
       <c r="T156" s="2">
+        <v>0</v>
+      </c>
+      <c r="U156" s="2">
         <v>1230</v>
       </c>
-      <c r="U156" s="4">
+      <c r="V156" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>5453</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A157" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -12553,14 +13040,17 @@
         <v>0</v>
       </c>
       <c r="T157" s="2">
+        <v>0</v>
+      </c>
+      <c r="U157" s="2">
         <v>1042</v>
       </c>
-      <c r="U157" s="4">
+      <c r="V157" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>7418</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A158" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -12625,14 +13115,17 @@
         <v>0</v>
       </c>
       <c r="T158" s="2">
+        <v>0</v>
+      </c>
+      <c r="U158" s="2">
         <v>1042</v>
       </c>
-      <c r="U158" s="4">
+      <c r="V158" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>7418</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A159" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -12697,14 +13190,17 @@
         <v>0</v>
       </c>
       <c r="T159" s="2">
+        <v>0</v>
+      </c>
+      <c r="U159" s="2">
         <v>353</v>
       </c>
-      <c r="U159" s="4">
+      <c r="V159" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>-353</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A160" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -12769,14 +13265,17 @@
         <v>19518</v>
       </c>
       <c r="T160" s="2">
+        <v>17430</v>
+      </c>
+      <c r="U160" s="2">
         <v>22470</v>
       </c>
-      <c r="U160" s="4">
+      <c r="V160" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>1393</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A161" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -12841,14 +13340,17 @@
         <v>0</v>
       </c>
       <c r="T161" s="2">
+        <v>0</v>
+      </c>
+      <c r="U161" s="2">
         <v>2400</v>
       </c>
-      <c r="U161" s="4">
+      <c r="V161" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>4824</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A162" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -12915,12 +13417,15 @@
       <c r="T162" s="2">
         <v>0</v>
       </c>
-      <c r="U162" s="4">
+      <c r="U162" s="2">
+        <v>0</v>
+      </c>
+      <c r="V162" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>1184</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A163" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -12985,14 +13490,17 @@
         <v>0</v>
       </c>
       <c r="T163" s="2">
+        <v>0</v>
+      </c>
+      <c r="U163" s="2">
         <v>2000</v>
       </c>
-      <c r="U163" s="4">
+      <c r="V163" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>2090</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A164" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13059,12 +13567,15 @@
       <c r="T164" s="2">
         <v>0</v>
       </c>
-      <c r="U164" s="4">
+      <c r="U164" s="2">
+        <v>0</v>
+      </c>
+      <c r="V164" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>308</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A165" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13131,12 +13642,15 @@
       <c r="T165" s="2">
         <v>0</v>
       </c>
-      <c r="U165" s="4">
+      <c r="U165" s="2">
+        <v>0</v>
+      </c>
+      <c r="V165" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>640</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A166" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13203,12 +13717,15 @@
       <c r="T166" s="2">
         <v>0</v>
       </c>
-      <c r="U166" s="4">
+      <c r="U166" s="2">
+        <v>0</v>
+      </c>
+      <c r="V166" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>793</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A167" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13273,14 +13790,17 @@
         <v>0</v>
       </c>
       <c r="T167" s="2">
+        <v>0</v>
+      </c>
+      <c r="U167" s="2">
         <v>1200</v>
       </c>
-      <c r="U167" s="4">
+      <c r="V167" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>-864</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A168" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13345,14 +13865,17 @@
         <v>0</v>
       </c>
       <c r="T168" s="2">
+        <v>0</v>
+      </c>
+      <c r="U168" s="2">
         <v>11819</v>
       </c>
-      <c r="U168" s="4">
+      <c r="V168" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>6111</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A169" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13417,14 +13940,17 @@
         <v>0</v>
       </c>
       <c r="T169" s="2">
+        <v>0</v>
+      </c>
+      <c r="U169" s="2">
         <v>100</v>
       </c>
-      <c r="U169" s="4">
+      <c r="V169" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>2951</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A170" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13489,14 +14015,17 @@
         <v>0</v>
       </c>
       <c r="T170" s="2">
+        <v>0</v>
+      </c>
+      <c r="U170" s="2">
         <v>1050</v>
       </c>
-      <c r="U170" s="4">
+      <c r="V170" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>4979</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A171" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13561,14 +14090,17 @@
         <v>0</v>
       </c>
       <c r="T171" s="2">
+        <v>0</v>
+      </c>
+      <c r="U171" s="2">
         <v>1012</v>
       </c>
-      <c r="U171" s="4">
+      <c r="V171" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>8128</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A172" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13635,12 +14167,15 @@
       <c r="T172" s="2">
         <v>0</v>
       </c>
-      <c r="U172" s="4">
+      <c r="U172" s="2">
+        <v>0</v>
+      </c>
+      <c r="V172" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>3795</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13707,12 +14242,15 @@
       <c r="T173" s="2">
         <v>0</v>
       </c>
-      <c r="U173" s="4">
+      <c r="U173" s="2">
+        <v>0</v>
+      </c>
+      <c r="V173" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>3504</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A174" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13777,14 +14315,17 @@
         <v>12203</v>
       </c>
       <c r="T174" s="2">
+        <v>8315.2000000000007</v>
+      </c>
+      <c r="U174" s="2">
         <v>9215.2000000000007</v>
       </c>
-      <c r="U174" s="4">
+      <c r="V174" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>10797.8</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A175" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13849,14 +14390,17 @@
         <v>0</v>
       </c>
       <c r="T175" s="2">
+        <v>0</v>
+      </c>
+      <c r="U175" s="2">
         <v>2469</v>
       </c>
-      <c r="U175" s="4">
+      <c r="V175" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>32826</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A176" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13921,14 +14465,17 @@
         <v>0</v>
       </c>
       <c r="T176" s="2">
+        <v>0</v>
+      </c>
+      <c r="U176" s="2">
         <v>4900</v>
       </c>
-      <c r="U176" s="4">
+      <c r="V176" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>3877</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A177" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13993,14 +14540,17 @@
         <v>0</v>
       </c>
       <c r="T177" s="2">
+        <v>0</v>
+      </c>
+      <c r="U177" s="2">
         <v>2280</v>
       </c>
-      <c r="U177" s="4">
+      <c r="V177" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>5090</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A178" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14065,14 +14615,17 @@
         <v>0</v>
       </c>
       <c r="T178" s="2">
+        <v>0</v>
+      </c>
+      <c r="U178" s="2">
         <v>3137</v>
       </c>
-      <c r="U178" s="4">
+      <c r="V178" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>2393</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A179" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14137,14 +14690,17 @@
         <v>0</v>
       </c>
       <c r="T179" s="2">
+        <v>0</v>
+      </c>
+      <c r="U179" s="2">
         <v>954.5</v>
       </c>
-      <c r="U179" s="4">
+      <c r="V179" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>5305.5</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A180" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14211,12 +14767,15 @@
       <c r="T180" s="2">
         <v>0</v>
       </c>
-      <c r="U180" s="4">
+      <c r="U180" s="2">
+        <v>0</v>
+      </c>
+      <c r="V180" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>7250</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A181" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14281,14 +14840,17 @@
         <v>24382</v>
       </c>
       <c r="T181" s="2">
+        <v>20497.2</v>
+      </c>
+      <c r="U181" s="2">
         <v>33570.839999999997</v>
       </c>
-      <c r="U181" s="4">
+      <c r="V181" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>1461.1600000000035</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A182" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14353,14 +14915,17 @@
         <v>22000</v>
       </c>
       <c r="T182" s="2">
+        <v>0</v>
+      </c>
+      <c r="U182" s="2">
         <v>21698</v>
       </c>
-      <c r="U182" s="4">
+      <c r="V182" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>51682</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A183" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14425,14 +14990,17 @@
         <v>0</v>
       </c>
       <c r="T183" s="2">
+        <v>0</v>
+      </c>
+      <c r="U183" s="2">
         <v>2193</v>
       </c>
-      <c r="U183" s="4">
+      <c r="V183" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>5746</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A184" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14497,14 +15065,17 @@
         <v>0</v>
       </c>
       <c r="T184" s="2">
+        <v>0</v>
+      </c>
+      <c r="U184" s="2">
         <v>6700</v>
       </c>
-      <c r="U184" s="4">
+      <c r="V184" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>2340</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A185" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14569,14 +15140,17 @@
         <v>0</v>
       </c>
       <c r="T185" s="2">
+        <v>0</v>
+      </c>
+      <c r="U185" s="2">
         <v>3791</v>
       </c>
-      <c r="U185" s="4">
+      <c r="V185" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>7354</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A186" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14641,14 +15215,17 @@
         <v>0</v>
       </c>
       <c r="T186" s="2">
+        <v>0</v>
+      </c>
+      <c r="U186" s="2">
         <v>295</v>
       </c>
-      <c r="U186" s="4">
+      <c r="V186" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>6600</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A187" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14713,14 +15290,17 @@
         <v>0</v>
       </c>
       <c r="T187" s="2">
+        <v>0</v>
+      </c>
+      <c r="U187" s="2">
         <v>1225.8</v>
       </c>
-      <c r="U187" s="4">
+      <c r="V187" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>3418.2</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A188" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14785,14 +15365,17 @@
         <v>26600</v>
       </c>
       <c r="T188" s="2">
+        <v>27818</v>
+      </c>
+      <c r="U188" s="2">
         <v>41035</v>
       </c>
-      <c r="U188" s="4">
+      <c r="V188" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>2245</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14857,14 +15440,17 @@
         <v>0</v>
       </c>
       <c r="T189" s="2">
+        <v>0</v>
+      </c>
+      <c r="U189" s="2">
         <v>31802</v>
       </c>
-      <c r="U189" s="4">
+      <c r="V189" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>67223</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A190" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14929,14 +15515,17 @@
         <v>0</v>
       </c>
       <c r="T190" s="2">
+        <v>0</v>
+      </c>
+      <c r="U190" s="2">
         <v>3350</v>
       </c>
-      <c r="U190" s="4">
+      <c r="V190" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>93978</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A191" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15003,12 +15592,15 @@
       <c r="T191" s="2">
         <v>0</v>
       </c>
-      <c r="U191" s="4">
+      <c r="U191" s="2">
+        <v>0</v>
+      </c>
+      <c r="V191" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>12790</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A192" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15073,14 +15665,17 @@
         <v>0</v>
       </c>
       <c r="T192" s="2">
+        <v>0</v>
+      </c>
+      <c r="U192" s="2">
         <v>5932</v>
       </c>
-      <c r="U192" s="4">
+      <c r="V192" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>5454</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A193" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15145,14 +15740,17 @@
         <v>0</v>
       </c>
       <c r="T193" s="2">
+        <v>0</v>
+      </c>
+      <c r="U193" s="2">
         <v>3751</v>
       </c>
-      <c r="U193" s="4">
+      <c r="V193" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>5974</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A194" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15217,14 +15815,17 @@
         <v>0</v>
       </c>
       <c r="T194" s="2">
+        <v>0</v>
+      </c>
+      <c r="U194" s="2">
         <v>590.6</v>
       </c>
-      <c r="U194" s="4">
+      <c r="V194" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>11104.4</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A195" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15289,14 +15890,17 @@
         <v>37800</v>
       </c>
       <c r="T195" s="2">
+        <v>37542.199999999997</v>
+      </c>
+      <c r="U195" s="2">
         <v>42138.6</v>
       </c>
-      <c r="U195" s="4">
+      <c r="V195" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>17171.400000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A196" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15361,14 +15965,17 @@
         <v>0</v>
       </c>
       <c r="T196" s="2">
+        <v>0</v>
+      </c>
+      <c r="U196" s="2">
         <v>6904</v>
       </c>
-      <c r="U196" s="4">
+      <c r="V196" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>65091</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A197" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15433,14 +16040,17 @@
         <v>0</v>
       </c>
       <c r="T197" s="2">
+        <v>0</v>
+      </c>
+      <c r="U197" s="2">
         <v>3460</v>
       </c>
-      <c r="U197" s="4">
+      <c r="V197" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>3280</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A198" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15505,14 +16115,17 @@
         <v>0</v>
       </c>
       <c r="T198" s="2">
+        <v>0</v>
+      </c>
+      <c r="U198" s="2">
         <v>1915</v>
       </c>
-      <c r="U198" s="4">
+      <c r="V198" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>3885</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A199" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15577,14 +16190,17 @@
         <v>0</v>
       </c>
       <c r="T199" s="2">
+        <v>0</v>
+      </c>
+      <c r="U199" s="2">
         <v>2452.6</v>
       </c>
-      <c r="U199" s="4">
+      <c r="V199" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>7510.4</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A200" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15651,12 +16267,15 @@
       <c r="T200" s="2">
         <v>0</v>
       </c>
-      <c r="U200" s="4">
+      <c r="U200" s="2">
+        <v>0</v>
+      </c>
+      <c r="V200" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>3181</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A201" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15721,14 +16340,17 @@
         <v>0</v>
       </c>
       <c r="T201" s="2">
+        <v>0</v>
+      </c>
+      <c r="U201" s="2">
         <v>2504.5</v>
       </c>
-      <c r="U201" s="4">
+      <c r="V201" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>-2504.5</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A202" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15793,14 +16415,17 @@
         <v>30426.5</v>
       </c>
       <c r="T202" s="2">
+        <v>30872.799999999999</v>
+      </c>
+      <c r="U202" s="2">
         <v>37177.300000000003</v>
       </c>
-      <c r="U202" s="4">
+      <c r="V202" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>-3947.8000000000029</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A203" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15865,14 +16490,17 @@
         <v>0</v>
       </c>
       <c r="T203" s="2">
+        <v>0</v>
+      </c>
+      <c r="U203" s="2">
         <v>9611.7999999999993</v>
       </c>
-      <c r="U203" s="4">
+      <c r="V203" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>13603.2</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A204" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15939,12 +16567,15 @@
       <c r="T204" s="2">
         <v>0</v>
       </c>
-      <c r="U204" s="4">
+      <c r="U204" s="2">
+        <v>0</v>
+      </c>
+      <c r="V204" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>14214</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A205" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16009,14 +16640,17 @@
         <v>0</v>
       </c>
       <c r="T205" s="2">
+        <v>0</v>
+      </c>
+      <c r="U205" s="2">
         <v>8824</v>
       </c>
-      <c r="U205" s="4">
+      <c r="V205" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>-2048</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A206" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16081,14 +16715,17 @@
         <v>0</v>
       </c>
       <c r="T206" s="2">
+        <v>0</v>
+      </c>
+      <c r="U206" s="2">
         <v>7087.5</v>
       </c>
-      <c r="U206" s="4">
+      <c r="V206" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>-247.5</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A207" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16153,14 +16790,17 @@
         <v>0</v>
       </c>
       <c r="T207" s="2">
+        <v>0</v>
+      </c>
+      <c r="U207" s="2">
         <v>1564.5</v>
       </c>
-      <c r="U207" s="4">
+      <c r="V207" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>8100.5</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A208" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16225,14 +16865,17 @@
         <v>0</v>
       </c>
       <c r="T208" s="2">
+        <v>0</v>
+      </c>
+      <c r="U208" s="2">
         <v>3500</v>
       </c>
-      <c r="U208" s="4">
+      <c r="V208" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>15807</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A209" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16297,14 +16940,17 @@
         <v>32438.5</v>
       </c>
       <c r="T209" s="2">
+        <v>32797.4</v>
+      </c>
+      <c r="U209" s="2">
         <v>40222.400000000001</v>
       </c>
-      <c r="U209" s="4">
+      <c r="V209" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>22665.1</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A210" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16369,14 +17015,17 @@
         <v>0</v>
       </c>
       <c r="T210" s="2">
+        <v>0</v>
+      </c>
+      <c r="U210" s="2">
         <v>22056</v>
       </c>
-      <c r="U210" s="4">
+      <c r="V210" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>115839</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A211" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16441,14 +17090,17 @@
         <v>0</v>
       </c>
       <c r="T211" s="2">
+        <v>0</v>
+      </c>
+      <c r="U211" s="2">
         <v>6430</v>
       </c>
-      <c r="U211" s="4">
+      <c r="V211" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>34440</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A212" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16513,14 +17165,17 @@
         <v>0</v>
       </c>
       <c r="T212" s="2">
+        <v>0</v>
+      </c>
+      <c r="U212" s="2">
         <v>7602</v>
       </c>
-      <c r="U212" s="4">
+      <c r="V212" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>20040</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A213" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16585,14 +17240,17 @@
         <v>0</v>
       </c>
       <c r="T213" s="2">
+        <v>0</v>
+      </c>
+      <c r="U213" s="2">
         <v>5842</v>
       </c>
-      <c r="U213" s="4">
+      <c r="V213" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>36918</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A214" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16657,14 +17315,17 @@
         <v>0</v>
       </c>
       <c r="T214" s="2">
+        <v>0</v>
+      </c>
+      <c r="U214" s="2">
         <v>253</v>
       </c>
-      <c r="U214" s="4">
+      <c r="V214" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>19022</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A215" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16729,14 +17390,17 @@
         <v>0</v>
       </c>
       <c r="T215" s="2">
+        <v>0</v>
+      </c>
+      <c r="U215" s="2">
         <v>1100</v>
       </c>
-      <c r="U215" s="4">
+      <c r="V215" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>33999</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A216" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16801,14 +17465,17 @@
         <v>35276</v>
       </c>
       <c r="T216" s="2">
+        <v>32764.400000000001</v>
+      </c>
+      <c r="U216" s="2">
         <v>38030.080000000002</v>
       </c>
-      <c r="U216" s="4">
+      <c r="V216" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>72391.92</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A217" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16873,14 +17540,17 @@
         <v>0</v>
       </c>
       <c r="T217" s="2">
+        <v>0</v>
+      </c>
+      <c r="U217" s="2">
         <v>11430</v>
       </c>
-      <c r="U217" s="4">
+      <c r="V217" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>255945</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A218" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16945,14 +17615,17 @@
         <v>0</v>
       </c>
       <c r="T218" s="2">
+        <v>0</v>
+      </c>
+      <c r="U218" s="2">
         <v>12314</v>
       </c>
-      <c r="U218" s="4">
+      <c r="V218" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>45806</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A219" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17017,14 +17690,17 @@
         <v>0</v>
       </c>
       <c r="T219" s="2">
+        <v>0</v>
+      </c>
+      <c r="U219" s="2">
         <v>7787</v>
       </c>
-      <c r="U219" s="4">
+      <c r="V219" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>34608</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A220" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17089,14 +17765,17 @@
         <v>0</v>
       </c>
       <c r="T220" s="2">
+        <v>0</v>
+      </c>
+      <c r="U220" s="2">
         <v>8442</v>
       </c>
-      <c r="U220" s="4">
+      <c r="V220" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>40295</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A221" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17161,14 +17840,17 @@
         <v>0</v>
       </c>
       <c r="T221" s="2">
+        <v>0</v>
+      </c>
+      <c r="U221" s="2">
         <v>925</v>
       </c>
-      <c r="U221" s="4">
+      <c r="V221" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>17685</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A222" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17233,14 +17915,17 @@
         <v>0</v>
       </c>
       <c r="T222" s="2">
+        <v>0</v>
+      </c>
+      <c r="U222" s="2">
         <v>849</v>
       </c>
-      <c r="U222" s="4">
+      <c r="V222" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>53226</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A223" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17305,14 +17990,17 @@
         <v>36404</v>
       </c>
       <c r="T223" s="2">
+        <v>33533.800000000003</v>
+      </c>
+      <c r="U223" s="2">
         <v>46178.8</v>
       </c>
-      <c r="U223" s="4">
+      <c r="V223" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>82875.199999999997</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A224" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17377,14 +18065,17 @@
         <v>0</v>
       </c>
       <c r="T224" s="2">
+        <v>0</v>
+      </c>
+      <c r="U224" s="2">
         <v>7740</v>
       </c>
-      <c r="U224" s="4">
+      <c r="V224" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>269670</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A225" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17449,14 +18140,17 @@
         <v>0</v>
       </c>
       <c r="T225" s="2">
+        <v>0</v>
+      </c>
+      <c r="U225" s="2">
         <v>11396</v>
       </c>
-      <c r="U225" s="4">
+      <c r="V225" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>40104</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A226" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17521,14 +18215,17 @@
         <v>0</v>
       </c>
       <c r="T226" s="2">
+        <v>0</v>
+      </c>
+      <c r="U226" s="2">
         <v>8963.5</v>
       </c>
-      <c r="U226" s="4">
+      <c r="V226" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>35160.5</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A227" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17593,14 +18290,17 @@
         <v>0</v>
       </c>
       <c r="T227" s="2">
+        <v>0</v>
+      </c>
+      <c r="U227" s="2">
         <v>8280</v>
       </c>
-      <c r="U227" s="4">
+      <c r="V227" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>37570</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A228" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17665,14 +18365,17 @@
         <v>0</v>
       </c>
       <c r="T228" s="2">
+        <v>0</v>
+      </c>
+      <c r="U228" s="2">
         <v>5850</v>
       </c>
-      <c r="U228" s="4">
+      <c r="V228" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>32900</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A229" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17737,14 +18440,17 @@
         <v>0</v>
       </c>
       <c r="T229" s="2">
+        <v>0</v>
+      </c>
+      <c r="U229" s="2">
         <v>2025</v>
       </c>
-      <c r="U229" s="4">
+      <c r="V229" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>98970</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A230" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17809,14 +18515,17 @@
         <v>36884</v>
       </c>
       <c r="T230" s="2">
+        <v>0</v>
+      </c>
+      <c r="U230" s="2">
         <v>72461.8</v>
       </c>
-      <c r="U230" s="4">
+      <c r="V230" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>73397.2</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A231" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17881,14 +18590,17 @@
         <v>0</v>
       </c>
       <c r="T231" s="2">
+        <v>0</v>
+      </c>
+      <c r="U231" s="2">
         <v>11495</v>
       </c>
-      <c r="U231" s="4">
+      <c r="V231" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>478815</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A232" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17953,14 +18665,17 @@
         <v>0</v>
       </c>
       <c r="T232" s="2">
+        <v>0</v>
+      </c>
+      <c r="U232" s="2">
         <v>25435</v>
       </c>
-      <c r="U232" s="4">
+      <c r="V232" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>484910</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A233" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18025,14 +18740,17 @@
         <v>0</v>
       </c>
       <c r="T233" s="2">
+        <v>0</v>
+      </c>
+      <c r="U233" s="2">
         <v>6854</v>
       </c>
-      <c r="U233" s="4">
+      <c r="V233" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>55543</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A234" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18097,14 +18815,17 @@
         <v>0</v>
       </c>
       <c r="T234" s="2">
+        <v>0</v>
+      </c>
+      <c r="U234" s="2">
         <v>23578</v>
       </c>
-      <c r="U234" s="4">
+      <c r="V234" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>22312</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A235" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18169,14 +18890,17 @@
         <v>0</v>
       </c>
       <c r="T235" s="2">
+        <v>0</v>
+      </c>
+      <c r="U235" s="2">
         <v>13995</v>
       </c>
-      <c r="U235" s="4">
+      <c r="V235" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>21910</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A236" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18241,14 +18965,17 @@
         <v>0</v>
       </c>
       <c r="T236" s="2">
+        <v>0</v>
+      </c>
+      <c r="U236" s="2">
         <v>1584</v>
       </c>
-      <c r="U236" s="4">
+      <c r="V236" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>73362</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A237" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18313,14 +19040,17 @@
         <v>48235.5</v>
       </c>
       <c r="T237" s="2">
+        <v>46502.9</v>
+      </c>
+      <c r="U237" s="2">
         <v>62285.9</v>
       </c>
-      <c r="U237" s="4">
+      <c r="V237" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>75624.600000000006</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A238" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18385,14 +19115,17 @@
         <v>0</v>
       </c>
       <c r="T238" s="2">
+        <v>0</v>
+      </c>
+      <c r="U238" s="2">
         <v>22862</v>
       </c>
-      <c r="U238" s="4">
+      <c r="V238" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>225933</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A239" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18457,14 +19190,17 @@
         <v>0</v>
       </c>
       <c r="T239" s="2">
+        <v>0</v>
+      </c>
+      <c r="U239" s="2">
         <v>6361</v>
       </c>
-      <c r="U239" s="4">
+      <c r="V239" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>132694</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A240" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18529,14 +19265,17 @@
         <v>0</v>
       </c>
       <c r="T240" s="2">
+        <v>0</v>
+      </c>
+      <c r="U240" s="2">
         <v>14965</v>
       </c>
-      <c r="U240" s="4">
+      <c r="V240" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>118145</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A241" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18601,14 +19340,17 @@
         <v>0</v>
       </c>
       <c r="T241" s="2">
+        <v>0</v>
+      </c>
+      <c r="U241" s="2">
         <v>6185</v>
       </c>
-      <c r="U241" s="4">
+      <c r="V241" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>184765</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A242" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18673,14 +19415,17 @@
         <v>0</v>
       </c>
       <c r="T242" s="2">
+        <v>0</v>
+      </c>
+      <c r="U242" s="2">
         <v>11825</v>
       </c>
-      <c r="U242" s="4">
+      <c r="V242" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>364315</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A243" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18745,14 +19490,17 @@
         <v>0</v>
       </c>
       <c r="T243" s="2">
+        <v>0</v>
+      </c>
+      <c r="U243" s="2">
         <v>27100</v>
       </c>
-      <c r="U243" s="4">
+      <c r="V243" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>751955</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A244" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18817,14 +19565,17 @@
         <v>44684.5</v>
       </c>
       <c r="T244" s="2">
+        <v>43132.6</v>
+      </c>
+      <c r="U244" s="2">
         <v>56857.599999999999</v>
       </c>
-      <c r="U244" s="4">
+      <c r="V244" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>752151.9</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A245" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18889,14 +19640,17 @@
         <v>0</v>
       </c>
       <c r="T245" s="2">
+        <v>0</v>
+      </c>
+      <c r="U245" s="2">
         <v>24070</v>
       </c>
-      <c r="U245" s="4">
+      <c r="V245" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>578521</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A246" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18961,14 +19715,17 @@
         <v>0</v>
       </c>
       <c r="T246" s="2">
+        <v>0</v>
+      </c>
+      <c r="U246" s="2">
         <v>26796</v>
       </c>
-      <c r="U246" s="4">
+      <c r="V246" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>190504</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A247" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19033,14 +19790,17 @@
         <v>0</v>
       </c>
       <c r="T247" s="2">
+        <v>0</v>
+      </c>
+      <c r="U247" s="2">
         <v>19299</v>
       </c>
-      <c r="U247" s="4">
+      <c r="V247" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>231391</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A248" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19105,14 +19865,17 @@
         <v>0</v>
       </c>
       <c r="T248" s="2">
+        <v>0</v>
+      </c>
+      <c r="U248" s="2">
         <v>13494</v>
       </c>
-      <c r="U248" s="4">
+      <c r="V248" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>209206</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A249" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19177,14 +19940,17 @@
         <v>0</v>
       </c>
       <c r="T249" s="2">
+        <v>0</v>
+      </c>
+      <c r="U249" s="2">
         <v>7970</v>
       </c>
-      <c r="U249" s="4">
+      <c r="V249" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>172182</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A250" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19249,14 +20015,17 @@
         <v>0</v>
       </c>
       <c r="T250" s="2">
+        <v>0</v>
+      </c>
+      <c r="U250" s="2">
         <v>23019</v>
       </c>
-      <c r="U250" s="4">
+      <c r="V250" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>139736</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A251" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19321,14 +20090,17 @@
         <v>48750</v>
       </c>
       <c r="T251" s="2">
+        <v>49190</v>
+      </c>
+      <c r="U251" s="2">
         <v>60375</v>
       </c>
-      <c r="U251" s="4">
+      <c r="V251" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>168788</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A252" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19393,14 +20165,17 @@
         <v>0</v>
       </c>
       <c r="T252" s="2">
+        <v>0</v>
+      </c>
+      <c r="U252" s="2">
         <v>17903</v>
       </c>
-      <c r="U252" s="4">
+      <c r="V252" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>416742</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A253" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19465,14 +20240,17 @@
         <v>0</v>
       </c>
       <c r="T253" s="2">
+        <v>0</v>
+      </c>
+      <c r="U253" s="2">
         <v>2688</v>
       </c>
-      <c r="U253" s="4">
+      <c r="V253" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>46442</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A254" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19537,14 +20315,17 @@
         <v>0</v>
       </c>
       <c r="T254" s="2">
+        <v>0</v>
+      </c>
+      <c r="U254" s="2">
         <v>4148</v>
       </c>
-      <c r="U254" s="4">
+      <c r="V254" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>42692</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A255" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19609,14 +20390,17 @@
         <v>0</v>
       </c>
       <c r="T255" s="2">
+        <v>0</v>
+      </c>
+      <c r="U255" s="2">
         <v>11339</v>
       </c>
-      <c r="U255" s="4">
+      <c r="V255" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>18186</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A256" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19681,14 +20465,17 @@
         <v>0</v>
       </c>
       <c r="T256" s="2">
+        <v>0</v>
+      </c>
+      <c r="U256" s="2">
         <v>3447</v>
       </c>
-      <c r="U256" s="4">
+      <c r="V256" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>43438</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A257" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19753,14 +20540,17 @@
         <v>0</v>
       </c>
       <c r="T257" s="2">
+        <v>0</v>
+      </c>
+      <c r="U257" s="2">
         <v>2455</v>
       </c>
-      <c r="U257" s="4">
+      <c r="V257" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>34095</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A258" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19825,14 +20615,17 @@
         <v>38664</v>
       </c>
       <c r="T258" s="2">
+        <v>36353.800000000003</v>
+      </c>
+      <c r="U258" s="2">
         <v>45477.8</v>
       </c>
-      <c r="U258" s="4">
+      <c r="V258" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>77316.2</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A259" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19897,14 +20690,17 @@
         <v>0</v>
       </c>
       <c r="T259" s="2">
+        <v>0</v>
+      </c>
+      <c r="U259" s="2">
         <v>10855</v>
       </c>
-      <c r="U259" s="4">
+      <c r="V259" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>310090</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A260" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19969,14 +20765,17 @@
         <v>0</v>
       </c>
       <c r="T260" s="2">
+        <v>0</v>
+      </c>
+      <c r="U260" s="2">
         <v>5509</v>
       </c>
-      <c r="U260" s="4">
+      <c r="V260" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>54801</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A261" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20041,14 +20840,17 @@
         <v>0</v>
       </c>
       <c r="T261" s="2">
+        <v>0</v>
+      </c>
+      <c r="U261" s="2">
         <v>1500</v>
       </c>
-      <c r="U261" s="4">
+      <c r="V261" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>67550</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A262" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20113,14 +20915,17 @@
         <v>0</v>
       </c>
       <c r="T262" s="2">
+        <v>0</v>
+      </c>
+      <c r="U262" s="2">
         <v>8462.4</v>
       </c>
-      <c r="U262" s="4">
+      <c r="V262" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>52669.599999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A263" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20185,14 +20990,17 @@
         <v>0</v>
       </c>
       <c r="T263" s="2">
+        <v>0</v>
+      </c>
+      <c r="U263" s="2">
         <v>2542</v>
       </c>
-      <c r="U263" s="4">
+      <c r="V263" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>35233</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A264" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20257,14 +21065,17 @@
         <v>0</v>
       </c>
       <c r="T264" s="2">
+        <v>0</v>
+      </c>
+      <c r="U264" s="2">
         <v>2642</v>
       </c>
-      <c r="U264" s="4">
+      <c r="V264" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>46033</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A265" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20329,14 +21140,17 @@
         <v>37185</v>
       </c>
       <c r="T265" s="2">
+        <v>35573.800000000003</v>
+      </c>
+      <c r="U265" s="2">
         <v>52673.8</v>
       </c>
-      <c r="U265" s="4">
+      <c r="V265" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>126011.2</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A266" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20401,14 +21215,17 @@
         <v>0</v>
       </c>
       <c r="T266" s="2">
+        <v>0</v>
+      </c>
+      <c r="U266" s="2">
         <v>18717</v>
       </c>
-      <c r="U266" s="4">
+      <c r="V266" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>356953</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A267" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20473,14 +21290,17 @@
         <v>0</v>
       </c>
       <c r="T267" s="2">
+        <v>0</v>
+      </c>
+      <c r="U267" s="2">
         <v>5656</v>
       </c>
-      <c r="U267" s="4">
+      <c r="V267" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>68404</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A268" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20545,14 +21365,17 @@
         <v>0</v>
       </c>
       <c r="T268" s="2">
+        <v>0</v>
+      </c>
+      <c r="U268" s="2">
         <v>8796</v>
       </c>
-      <c r="U268" s="4">
+      <c r="V268" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>49659</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A269" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20617,14 +21440,17 @@
         <v>0</v>
       </c>
       <c r="T269" s="2">
+        <v>0</v>
+      </c>
+      <c r="U269" s="2">
         <v>12287</v>
       </c>
-      <c r="U269" s="4">
+      <c r="V269" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>36923</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A270" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20689,14 +21515,17 @@
         <v>0</v>
       </c>
       <c r="T270" s="2">
+        <v>0</v>
+      </c>
+      <c r="U270" s="2">
         <v>1600</v>
       </c>
-      <c r="U270" s="4">
+      <c r="V270" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>52806</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A271" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20761,14 +21590,17 @@
         <v>0</v>
       </c>
       <c r="T271" s="2">
+        <v>0</v>
+      </c>
+      <c r="U271" s="2">
         <v>3323</v>
       </c>
-      <c r="U271" s="4">
+      <c r="V271" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>65232</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A272" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20833,14 +21665,17 @@
         <v>36933</v>
       </c>
       <c r="T272" s="2">
+        <v>34623.199999999997</v>
+      </c>
+      <c r="U272" s="2">
         <v>42408.2</v>
       </c>
-      <c r="U272" s="4">
+      <c r="V272" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>133239.79999999999</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A273" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20905,14 +21740,17 @@
         <v>0</v>
       </c>
       <c r="T273" s="2">
+        <v>0</v>
+      </c>
+      <c r="U273" s="2">
         <v>20772</v>
       </c>
-      <c r="U273" s="4">
+      <c r="V273" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>311568</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A274" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20977,14 +21815,17 @@
         <v>0</v>
       </c>
       <c r="T274" s="2">
+        <v>0</v>
+      </c>
+      <c r="U274" s="2">
         <v>14695</v>
       </c>
-      <c r="U274" s="4">
+      <c r="V274" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>53180</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A275" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21049,14 +21890,17 @@
         <v>0</v>
       </c>
       <c r="T275" s="2">
+        <v>0</v>
+      </c>
+      <c r="U275" s="2">
         <v>4672</v>
       </c>
-      <c r="U275" s="4">
+      <c r="V275" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>66021</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A276" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21121,14 +21965,17 @@
         <v>0</v>
       </c>
       <c r="T276" s="2">
+        <v>0</v>
+      </c>
+      <c r="U276" s="2">
         <v>19119.650000000001</v>
       </c>
-      <c r="U276" s="4">
+      <c r="V276" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>368915.35</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A277" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21193,14 +22040,17 @@
         <v>0</v>
       </c>
       <c r="T277" s="2">
+        <v>0</v>
+      </c>
+      <c r="U277" s="2">
         <v>1200</v>
       </c>
-      <c r="U277" s="4">
+      <c r="V277" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>53045</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A278" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21265,14 +22115,17 @@
         <v>0</v>
       </c>
       <c r="T278" s="2">
+        <v>0</v>
+      </c>
+      <c r="U278" s="2">
         <v>4704.67</v>
       </c>
-      <c r="U278" s="4">
+      <c r="V278" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>38415.33</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A279" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21337,14 +22190,17 @@
         <v>45772</v>
       </c>
       <c r="T279" s="2">
+        <v>44236.800000000003</v>
+      </c>
+      <c r="U279" s="2">
         <v>56299.8</v>
       </c>
-      <c r="U279" s="4">
+      <c r="V279" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>93647.2</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A280" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21409,14 +22265,17 @@
         <v>0</v>
       </c>
       <c r="T280" s="2">
+        <v>0</v>
+      </c>
+      <c r="U280" s="2">
         <v>13924</v>
       </c>
-      <c r="U280" s="4">
+      <c r="V280" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>214806</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A281" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21481,14 +22340,17 @@
         <v>0</v>
       </c>
       <c r="T281" s="2">
+        <v>0</v>
+      </c>
+      <c r="U281" s="2">
         <v>800</v>
       </c>
-      <c r="U281" s="4">
+      <c r="V281" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>66055</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A282" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21553,14 +22415,17 @@
         <v>0</v>
       </c>
       <c r="T282" s="2">
+        <v>0</v>
+      </c>
+      <c r="U282" s="2">
         <v>3375</v>
       </c>
-      <c r="U282" s="4">
+      <c r="V282" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>56004</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A283" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21625,14 +22490,17 @@
         <v>0</v>
       </c>
       <c r="T283" s="2">
+        <v>0</v>
+      </c>
+      <c r="U283" s="2">
         <v>3375</v>
       </c>
-      <c r="U283" s="4">
+      <c r="V283" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>50604</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A284" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21697,14 +22565,17 @@
         <v>0</v>
       </c>
       <c r="T284" s="2">
+        <v>0</v>
+      </c>
+      <c r="U284" s="2">
         <v>56</v>
       </c>
-      <c r="U284" s="4">
+      <c r="V284" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>49009</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A285" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21769,14 +22640,17 @@
         <v>0</v>
       </c>
       <c r="T285" s="2">
+        <v>0</v>
+      </c>
+      <c r="U285" s="2">
         <v>1300</v>
       </c>
-      <c r="U285" s="4">
+      <c r="V285" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>107950</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A286" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21841,14 +22715,17 @@
         <v>38087</v>
       </c>
       <c r="T286" s="2">
+        <v>36313</v>
+      </c>
+      <c r="U286" s="2">
         <v>56110.6</v>
       </c>
-      <c r="U286" s="4">
+      <c r="V286" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>118696.4</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A287" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21913,14 +22790,17 @@
         <v>0</v>
       </c>
       <c r="T287" s="2">
+        <v>0</v>
+      </c>
+      <c r="U287" s="2">
         <v>28713</v>
       </c>
-      <c r="U287" s="4">
+      <c r="V287" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>316457</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A288" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21985,14 +22865,17 @@
         <v>0</v>
       </c>
       <c r="T288" s="2">
+        <v>0</v>
+      </c>
+      <c r="U288" s="2">
         <v>3753.1</v>
       </c>
-      <c r="U288" s="4">
+      <c r="V288" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>71792.899999999994</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A289" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22057,14 +22940,17 @@
         <v>0</v>
       </c>
       <c r="T289" s="2">
+        <v>0</v>
+      </c>
+      <c r="U289" s="2">
         <v>13942</v>
       </c>
-      <c r="U289" s="4">
+      <c r="V289" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>49423</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A290" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22129,14 +23015,17 @@
         <v>0</v>
       </c>
       <c r="T290" s="2">
+        <v>0</v>
+      </c>
+      <c r="U290" s="2">
         <v>13449</v>
       </c>
-      <c r="U290" s="4">
+      <c r="V290" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>147520</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A291" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22201,14 +23090,17 @@
         <v>0</v>
       </c>
       <c r="T291" s="2">
+        <v>0</v>
+      </c>
+      <c r="U291" s="2">
         <v>4200</v>
       </c>
-      <c r="U291" s="4">
+      <c r="V291" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>59705</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A292" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22273,14 +23165,17 @@
         <v>0</v>
       </c>
       <c r="T292" s="2">
+        <v>0</v>
+      </c>
+      <c r="U292" s="2">
         <v>7816.5</v>
       </c>
-      <c r="U292" s="4">
+      <c r="V292" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>52179.5</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A293" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22345,14 +23240,17 @@
         <v>38454</v>
       </c>
       <c r="T293" s="2">
+        <v>35878.800000000003</v>
+      </c>
+      <c r="U293" s="2">
         <v>42028.800000000003</v>
       </c>
-      <c r="U293" s="4">
+      <c r="V293" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>118167.2</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A294" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22417,14 +23315,17 @@
         <v>0</v>
       </c>
       <c r="T294" s="2">
+        <v>0</v>
+      </c>
+      <c r="U294" s="2">
         <v>14307</v>
       </c>
-      <c r="U294" s="4">
+      <c r="V294" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>404478</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A295" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22489,14 +23390,17 @@
         <v>0</v>
       </c>
       <c r="T295" s="2">
+        <v>0</v>
+      </c>
+      <c r="U295" s="2">
         <v>6280</v>
       </c>
-      <c r="U295" s="4">
+      <c r="V295" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>84056</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A296" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22561,14 +23465,17 @@
         <v>0</v>
       </c>
       <c r="T296" s="2">
+        <v>0</v>
+      </c>
+      <c r="U296" s="2">
         <v>12239</v>
       </c>
-      <c r="U296" s="4">
+      <c r="V296" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>72276</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A297" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22633,14 +23540,17 @@
         <v>0</v>
       </c>
       <c r="T297" s="2">
+        <v>0</v>
+      </c>
+      <c r="U297" s="2">
         <v>8345</v>
       </c>
-      <c r="U297" s="4">
+      <c r="V297" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>49450</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A298" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22707,12 +23617,15 @@
       <c r="T298" s="2">
         <v>0</v>
       </c>
-      <c r="U298" s="4">
+      <c r="U298" s="2">
+        <v>0</v>
+      </c>
+      <c r="V298" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>69590</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A299" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22777,14 +23690,17 @@
         <v>0</v>
       </c>
       <c r="T299" s="2">
+        <v>0</v>
+      </c>
+      <c r="U299" s="2">
         <v>3648</v>
       </c>
-      <c r="U299" s="4">
+      <c r="V299" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>75787</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A300" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22849,14 +23765,17 @@
         <v>38263.5</v>
       </c>
       <c r="T300" s="2">
+        <v>36108.400000000001</v>
+      </c>
+      <c r="U300" s="2">
         <v>49405.4</v>
       </c>
-      <c r="U300" s="4">
+      <c r="V300" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>151068.1</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A301" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22921,14 +23840,17 @@
         <v>0</v>
       </c>
       <c r="T301" s="2">
+        <v>0</v>
+      </c>
+      <c r="U301" s="2">
         <v>20716</v>
       </c>
-      <c r="U301" s="4">
+      <c r="V301" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>391714</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A302" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22993,14 +23915,17 @@
         <v>0</v>
       </c>
       <c r="T302" s="2">
+        <v>0</v>
+      </c>
+      <c r="U302" s="2">
         <v>6395</v>
       </c>
-      <c r="U302" s="4">
+      <c r="V302" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>132715</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A303" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23065,14 +23990,17 @@
         <v>0</v>
       </c>
       <c r="T303" s="2">
+        <v>0</v>
+      </c>
+      <c r="U303" s="2">
         <v>10214</v>
       </c>
-      <c r="U303" s="4">
+      <c r="V303" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>79461</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A304" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23137,14 +24065,17 @@
         <v>0</v>
       </c>
       <c r="T304" s="2">
+        <v>0</v>
+      </c>
+      <c r="U304" s="2">
         <v>15743.76</v>
       </c>
-      <c r="U304" s="4">
+      <c r="V304" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>52928.24</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A305" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23209,14 +24140,17 @@
         <v>0</v>
       </c>
       <c r="T305" s="2">
+        <v>0</v>
+      </c>
+      <c r="U305" s="2">
         <v>2980</v>
       </c>
-      <c r="U305" s="4">
+      <c r="V305" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>59905</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A306" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23281,14 +24215,17 @@
         <v>0</v>
       </c>
       <c r="T306" s="2">
+        <v>0</v>
+      </c>
+      <c r="U306" s="2">
         <v>7412</v>
       </c>
-      <c r="U306" s="4">
+      <c r="V306" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>99658</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A307" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23353,14 +24290,17 @@
         <v>31659</v>
       </c>
       <c r="T307" s="2">
+        <v>0</v>
+      </c>
+      <c r="U307" s="2">
         <v>46863</v>
       </c>
-      <c r="U307" s="4">
+      <c r="V307" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>134926</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A308" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23425,14 +24365,17 @@
         <v>0</v>
       </c>
       <c r="T308" s="2">
+        <v>0</v>
+      </c>
+      <c r="U308" s="2">
         <v>16382</v>
       </c>
-      <c r="U308" s="4">
+      <c r="V308" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>311508</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A309" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23497,14 +24440,17 @@
         <v>0</v>
       </c>
       <c r="T309" s="2">
+        <v>0</v>
+      </c>
+      <c r="U309" s="2">
         <v>10336</v>
       </c>
-      <c r="U309" s="4">
+      <c r="V309" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>119899</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A310" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23569,14 +24515,17 @@
         <v>0</v>
       </c>
       <c r="T310" s="2">
+        <v>0</v>
+      </c>
+      <c r="U310" s="2">
         <v>12920.5</v>
       </c>
-      <c r="U310" s="4">
+      <c r="V310" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>72464.5</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A311" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23641,14 +24590,17 @@
         <v>0</v>
       </c>
       <c r="T311" s="2">
+        <v>0</v>
+      </c>
+      <c r="U311" s="2">
         <v>11936</v>
       </c>
-      <c r="U311" s="4">
+      <c r="V311" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>52799</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A312" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23713,14 +24665,17 @@
         <v>0</v>
       </c>
       <c r="T312" s="2">
+        <v>0</v>
+      </c>
+      <c r="U312" s="2">
         <v>5111</v>
       </c>
-      <c r="U312" s="4">
+      <c r="V312" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>66659</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A313" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23785,14 +24740,17 @@
         <v>0</v>
       </c>
       <c r="T313" s="2">
+        <v>0</v>
+      </c>
+      <c r="U313" s="2">
         <v>5540</v>
       </c>
-      <c r="U313" s="4">
+      <c r="V313" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>70465</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A314" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23857,14 +24815,17 @@
         <v>38154</v>
       </c>
       <c r="T314" s="2">
+        <v>35770.800000000003</v>
+      </c>
+      <c r="U314" s="2">
         <v>41940.800000000003</v>
       </c>
-      <c r="U314" s="4">
+      <c r="V314" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>116198.2</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A315" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23929,14 +24890,17 @@
         <v>0</v>
       </c>
       <c r="T315" s="2">
+        <v>0</v>
+      </c>
+      <c r="U315" s="2">
         <v>8287</v>
       </c>
-      <c r="U315" s="4">
+      <c r="V315" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>336768</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A316" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24001,14 +24965,17 @@
         <v>0</v>
       </c>
       <c r="T316" s="2">
+        <v>0</v>
+      </c>
+      <c r="U316" s="2">
         <v>7605</v>
       </c>
-      <c r="U316" s="4">
+      <c r="V316" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>196210</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A317" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24073,14 +25040,17 @@
         <v>0</v>
       </c>
       <c r="T317" s="2">
+        <v>0</v>
+      </c>
+      <c r="U317" s="2">
         <v>13640.45</v>
       </c>
-      <c r="U317" s="4">
+      <c r="V317" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>63539.55</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A318" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24145,14 +25115,17 @@
         <v>0</v>
       </c>
       <c r="T318" s="2">
+        <v>0</v>
+      </c>
+      <c r="U318" s="2">
         <v>11564</v>
       </c>
-      <c r="U318" s="4">
+      <c r="V318" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>66611</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A319" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24217,14 +25190,17 @@
         <v>0</v>
       </c>
       <c r="T319" s="2">
+        <v>0</v>
+      </c>
+      <c r="U319" s="2">
         <v>2060</v>
       </c>
-      <c r="U319" s="4">
+      <c r="V319" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>53665</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A320" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24289,14 +25265,17 @@
         <v>0</v>
       </c>
       <c r="T320" s="2">
+        <v>0</v>
+      </c>
+      <c r="U320" s="2">
         <v>5864</v>
       </c>
-      <c r="U320" s="4">
+      <c r="V320" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>46806</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A321" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24361,14 +25340,17 @@
         <v>38085.5</v>
       </c>
       <c r="T321" s="2">
+        <v>35740.6</v>
+      </c>
+      <c r="U321" s="2">
         <v>43136.6</v>
       </c>
-      <c r="U321" s="4">
+      <c r="V321" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>94218.9</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A322" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24433,14 +25415,17 @@
         <v>0</v>
       </c>
       <c r="T322" s="2">
+        <v>0</v>
+      </c>
+      <c r="U322" s="2">
         <v>14151</v>
       </c>
-      <c r="U322" s="4">
+      <c r="V322" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>246619</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A323" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24505,14 +25490,17 @@
         <v>0</v>
       </c>
       <c r="T323" s="2">
+        <v>0</v>
+      </c>
+      <c r="U323" s="2">
         <v>5160</v>
       </c>
-      <c r="U323" s="4">
+      <c r="V323" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>90445</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A324" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24577,14 +25565,17 @@
         <v>0</v>
       </c>
       <c r="T324" s="2">
+        <v>0</v>
+      </c>
+      <c r="U324" s="2">
         <v>6722</v>
       </c>
-      <c r="U324" s="4">
+      <c r="V324" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>69218</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A325" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24649,14 +25640,17 @@
         <v>0</v>
       </c>
       <c r="T325" s="2">
+        <v>0</v>
+      </c>
+      <c r="U325" s="2">
         <v>11084</v>
       </c>
-      <c r="U325" s="4">
+      <c r="V325" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>75166</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A326" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24721,14 +25715,17 @@
         <v>0</v>
       </c>
       <c r="T326" s="2">
+        <v>0</v>
+      </c>
+      <c r="U326" s="2">
         <v>740</v>
       </c>
-      <c r="U326" s="4">
+      <c r="V326" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>32931</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A327" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24793,14 +25790,17 @@
         <v>0</v>
       </c>
       <c r="T327" s="2">
+        <v>0</v>
+      </c>
+      <c r="U327" s="2">
         <v>3580</v>
       </c>
-      <c r="U327" s="4">
+      <c r="V327" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>18530</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A328" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24865,14 +25865,17 @@
         <v>38154</v>
       </c>
       <c r="T328" s="2">
+        <v>35406</v>
+      </c>
+      <c r="U328" s="2">
         <v>46393</v>
       </c>
-      <c r="U328" s="4">
+      <c r="V328" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>43026</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A329" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24937,14 +25940,17 @@
         <v>0</v>
       </c>
       <c r="T329" s="2">
+        <v>0</v>
+      </c>
+      <c r="U329" s="2">
         <v>15010</v>
       </c>
-      <c r="U329" s="4">
+      <c r="V329" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>44860</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A330" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25009,14 +26015,17 @@
         <v>0</v>
       </c>
       <c r="T330" s="2">
+        <v>0</v>
+      </c>
+      <c r="U330" s="2">
         <v>600</v>
       </c>
-      <c r="U330" s="4">
+      <c r="V330" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>30495</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A331" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25081,14 +26090,17 @@
         <v>0</v>
       </c>
       <c r="T331" s="2">
+        <v>0</v>
+      </c>
+      <c r="U331" s="2">
         <v>1168.5</v>
       </c>
-      <c r="U331" s="4">
+      <c r="V331" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>9296.5</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A332" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25153,14 +26165,17 @@
         <v>0</v>
       </c>
       <c r="T332" s="2">
+        <v>0</v>
+      </c>
+      <c r="U332" s="2">
         <v>2429</v>
       </c>
-      <c r="U332" s="4">
+      <c r="V332" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>10698</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A333" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25227,12 +26242,15 @@
       <c r="T333" s="2">
         <v>0</v>
       </c>
-      <c r="U333" s="4">
+      <c r="U333" s="2">
+        <v>0</v>
+      </c>
+      <c r="V333" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>25220</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A334" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25297,14 +26315,17 @@
         <v>0</v>
       </c>
       <c r="T334" s="2">
+        <v>0</v>
+      </c>
+      <c r="U334" s="2">
         <v>1190</v>
       </c>
-      <c r="U334" s="4">
+      <c r="V334" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>16700</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A335" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25369,14 +26390,17 @@
         <v>37886.5</v>
       </c>
       <c r="T335" s="2">
+        <v>34261.4</v>
+      </c>
+      <c r="U335" s="2">
         <v>36150.400000000001</v>
       </c>
-      <c r="U335" s="4">
+      <c r="V335" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>34361.1</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A336" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25441,14 +26465,17 @@
         <v>0</v>
       </c>
       <c r="T336" s="2">
+        <v>0</v>
+      </c>
+      <c r="U336" s="2">
         <v>18035</v>
       </c>
-      <c r="U336" s="4">
+      <c r="V336" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>40975</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A337" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25513,14 +26540,17 @@
         <v>0</v>
       </c>
       <c r="T337" s="2">
+        <v>0</v>
+      </c>
+      <c r="U337" s="2">
         <v>3020</v>
       </c>
-      <c r="U337" s="4">
+      <c r="V337" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>17282</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A338" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25587,12 +26617,15 @@
       <c r="T338" s="2">
         <v>0</v>
       </c>
-      <c r="U338" s="4">
+      <c r="U338" s="2">
+        <v>0</v>
+      </c>
+      <c r="V338" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>11570</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A339" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25657,14 +26690,17 @@
         <v>0</v>
       </c>
       <c r="T339" s="2">
+        <v>0</v>
+      </c>
+      <c r="U339" s="2">
         <v>3369</v>
       </c>
-      <c r="U339" s="4">
+      <c r="V339" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>18148</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A340" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25729,14 +26765,17 @@
         <v>0</v>
       </c>
       <c r="T340" s="2">
+        <v>0</v>
+      </c>
+      <c r="U340" s="2">
         <v>1680</v>
       </c>
-      <c r="U340" s="4">
+      <c r="V340" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>10890</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A341" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25801,14 +26840,17 @@
         <v>0</v>
       </c>
       <c r="T341" s="2">
+        <v>0</v>
+      </c>
+      <c r="U341" s="2">
         <v>1420</v>
       </c>
-      <c r="U341" s="4">
+      <c r="V341" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>13575</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A342" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25873,14 +26915,17 @@
         <v>38178</v>
       </c>
       <c r="T342" s="2">
+        <v>34692.800000000003</v>
+      </c>
+      <c r="U342" s="2">
         <v>42247.8</v>
       </c>
-      <c r="U342" s="4">
+      <c r="V342" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>32585.199999999997</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A343" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25945,14 +26990,17 @@
         <v>0</v>
       </c>
       <c r="T343" s="2">
+        <v>0</v>
+      </c>
+      <c r="U343" s="2">
         <v>7790</v>
       </c>
-      <c r="U343" s="4">
+      <c r="V343" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>59580</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A344" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26017,14 +27065,17 @@
         <v>0</v>
       </c>
       <c r="T344" s="2">
+        <v>0</v>
+      </c>
+      <c r="U344" s="2">
         <v>4739</v>
       </c>
-      <c r="U344" s="4">
+      <c r="V344" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>42851</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A345" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26089,14 +27140,17 @@
         <v>0</v>
       </c>
       <c r="T345" s="2">
+        <v>0</v>
+      </c>
+      <c r="U345" s="2">
         <v>6792.04</v>
       </c>
-      <c r="U345" s="4">
+      <c r="V345" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>29902.959999999999</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A346" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26161,14 +27215,17 @@
         <v>0</v>
       </c>
       <c r="T346" s="2">
+        <v>0</v>
+      </c>
+      <c r="U346" s="2">
         <v>6163</v>
       </c>
-      <c r="U346" s="4">
+      <c r="V346" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>19847</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A347" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26233,14 +27290,17 @@
         <v>0</v>
       </c>
       <c r="T347" s="2">
+        <v>0</v>
+      </c>
+      <c r="U347" s="2">
         <v>1920</v>
       </c>
-      <c r="U347" s="4">
+      <c r="V347" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>16535</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A348" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26307,12 +27367,15 @@
       <c r="T348" s="2">
         <v>0</v>
       </c>
-      <c r="U348" s="4">
+      <c r="U348" s="2">
+        <v>0</v>
+      </c>
+      <c r="V348" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>12965</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A349" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26377,14 +27440,17 @@
         <v>36560</v>
       </c>
       <c r="T349" s="2">
+        <v>33151.199999999997</v>
+      </c>
+      <c r="U349" s="2">
         <v>38658.199999999997</v>
       </c>
-      <c r="U349" s="4">
+      <c r="V349" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>16824.800000000003</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A350" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26449,14 +27515,17 @@
         <v>0</v>
       </c>
       <c r="T350" s="2">
+        <v>0</v>
+      </c>
+      <c r="U350" s="2">
         <v>6640</v>
       </c>
-      <c r="U350" s="4">
+      <c r="V350" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>45185</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A351" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26521,14 +27590,17 @@
         <v>0</v>
       </c>
       <c r="T351" s="2">
+        <v>0</v>
+      </c>
+      <c r="U351" s="2">
         <v>839</v>
       </c>
-      <c r="U351" s="4">
+      <c r="V351" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>35281</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A352" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26593,14 +27665,17 @@
         <v>0</v>
       </c>
       <c r="T352" s="2">
+        <v>0</v>
+      </c>
+      <c r="U352" s="2">
         <v>2075</v>
       </c>
-      <c r="U352" s="4">
+      <c r="V352" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>37577</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A353" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26665,14 +27740,17 @@
         <v>0</v>
       </c>
       <c r="T353" s="2">
+        <v>0</v>
+      </c>
+      <c r="U353" s="2">
         <v>4271</v>
       </c>
-      <c r="U353" s="4">
+      <c r="V353" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>18149</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A354" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26739,12 +27817,15 @@
       <c r="T354" s="2">
         <v>0</v>
       </c>
-      <c r="U354" s="4">
+      <c r="U354" s="2">
+        <v>0</v>
+      </c>
+      <c r="V354" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>19815</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A355" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26809,14 +27890,17 @@
         <v>0</v>
       </c>
       <c r="T355" s="2">
+        <v>0</v>
+      </c>
+      <c r="U355" s="2">
         <v>2242</v>
       </c>
-      <c r="U355" s="4">
+      <c r="V355" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>15166</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A356" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26881,14 +27965,17 @@
         <v>33984</v>
       </c>
       <c r="T356" s="2">
+        <v>30219</v>
+      </c>
+      <c r="U356" s="2">
         <v>33482.5</v>
       </c>
-      <c r="U356" s="4">
+      <c r="V356" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>22326.5</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A357" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26953,14 +28040,17 @@
         <v>0</v>
       </c>
       <c r="T357" s="2">
+        <v>0</v>
+      </c>
+      <c r="U357" s="2">
         <v>6761</v>
       </c>
-      <c r="U357" s="4">
+      <c r="V357" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>15299</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A358" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27025,14 +28115,17 @@
         <v>0</v>
       </c>
       <c r="T358" s="2">
+        <v>0</v>
+      </c>
+      <c r="U358" s="2">
         <v>4579</v>
       </c>
-      <c r="U358" s="4">
+      <c r="V358" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>29246</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A359" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27099,12 +28192,15 @@
       <c r="T359" s="2">
         <v>0</v>
       </c>
-      <c r="U359" s="4">
+      <c r="U359" s="2">
+        <v>0</v>
+      </c>
+      <c r="V359" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>22945</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A360" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27171,12 +28267,15 @@
       <c r="T360" s="2">
         <v>0</v>
       </c>
-      <c r="U360" s="4">
-        <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U360" s="2">
+        <v>0</v>
+      </c>
+      <c r="V360" s="4">
+        <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A361" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27241,14 +28340,17 @@
         <v>0</v>
       </c>
       <c r="T361" s="2">
+        <v>0</v>
+      </c>
+      <c r="U361" s="2">
         <v>3380</v>
       </c>
-      <c r="U361" s="4">
+      <c r="V361" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>11890</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A362" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27313,14 +28415,17 @@
         <v>0</v>
       </c>
       <c r="T362" s="2">
+        <v>0</v>
+      </c>
+      <c r="U362" s="2">
         <v>1651</v>
       </c>
-      <c r="U362" s="4">
+      <c r="V362" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>4574</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A363" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27385,14 +28490,17 @@
         <v>35322</v>
       </c>
       <c r="T363" s="2">
+        <v>31347</v>
+      </c>
+      <c r="U363" s="2">
         <v>34992</v>
       </c>
-      <c r="U363" s="4">
+      <c r="V363" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>24140</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A364" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27457,14 +28565,17 @@
         <v>0</v>
       </c>
       <c r="T364" s="2">
+        <v>0</v>
+      </c>
+      <c r="U364" s="2">
         <v>7485</v>
       </c>
-      <c r="U364" s="4">
+      <c r="V364" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>52665</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A365" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27529,14 +28640,17 @@
         <v>0</v>
       </c>
       <c r="T365" s="2">
+        <v>0</v>
+      </c>
+      <c r="U365" s="2">
         <v>1400</v>
       </c>
-      <c r="U365" s="4">
+      <c r="V365" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>46920</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A366" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27601,14 +28715,17 @@
         <v>0</v>
       </c>
       <c r="T366" s="9">
+        <v>0</v>
+      </c>
+      <c r="U366" s="9">
         <v>1141</v>
       </c>
-      <c r="U366" s="10">
+      <c r="V366" s="10">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>22579</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A367" s="13" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27673,9 +28790,12 @@
         <v>0</v>
       </c>
       <c r="T367" s="9">
+        <v>0</v>
+      </c>
+      <c r="U367" s="9">
         <v>14226</v>
       </c>
-      <c r="U367" s="10">
+      <c r="V367" s="10">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>10586</v>
       </c>

--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivannaherrera/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/5-ITESO/Laboratorio de Análisis Financiero y Diseño de Indicadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C81B104-1D68-4745-8A39-F643CF0E356A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96ADFE79-A78A-DC4E-B309-A33032A4C679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9EEB0879-F8BE-F946-8F13-4F3CCEC835FF}"/>
+    <workbookView xWindow="4440" yWindow="740" windowWidth="24960" windowHeight="18000" xr2:uid="{9EEB0879-F8BE-F946-8F13-4F3CCEC835FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="76">
   <si>
     <t>año</t>
   </si>
@@ -103,15 +103,183 @@
   <si>
     <t>nomina</t>
   </si>
+  <si>
+    <t>semana</t>
+  </si>
+  <si>
+    <t>semana 1</t>
+  </si>
+  <si>
+    <t>semana 2</t>
+  </si>
+  <si>
+    <t>semana 3</t>
+  </si>
+  <si>
+    <t>semana 4</t>
+  </si>
+  <si>
+    <t>semana 5</t>
+  </si>
+  <si>
+    <t>semana 6</t>
+  </si>
+  <si>
+    <t>semana 7</t>
+  </si>
+  <si>
+    <t>semana 8</t>
+  </si>
+  <si>
+    <t>semana 9</t>
+  </si>
+  <si>
+    <t>semana 10</t>
+  </si>
+  <si>
+    <t>semana 11</t>
+  </si>
+  <si>
+    <t>semana 12</t>
+  </si>
+  <si>
+    <t>semana 13</t>
+  </si>
+  <si>
+    <t>semana 14</t>
+  </si>
+  <si>
+    <t>semana 15</t>
+  </si>
+  <si>
+    <t>semana 16</t>
+  </si>
+  <si>
+    <t>semana 17</t>
+  </si>
+  <si>
+    <t>semana 18</t>
+  </si>
+  <si>
+    <t>semana 19</t>
+  </si>
+  <si>
+    <t>semana 20</t>
+  </si>
+  <si>
+    <t>semana 21</t>
+  </si>
+  <si>
+    <t>semana 22</t>
+  </si>
+  <si>
+    <t>semana 23</t>
+  </si>
+  <si>
+    <t>semana 24</t>
+  </si>
+  <si>
+    <t>semana 25</t>
+  </si>
+  <si>
+    <t>semana 26</t>
+  </si>
+  <si>
+    <t>semana 27</t>
+  </si>
+  <si>
+    <t>semana 28</t>
+  </si>
+  <si>
+    <t>semana 29</t>
+  </si>
+  <si>
+    <t>semana 30</t>
+  </si>
+  <si>
+    <t>semana 31</t>
+  </si>
+  <si>
+    <t>semana 32</t>
+  </si>
+  <si>
+    <t>semana 33</t>
+  </si>
+  <si>
+    <t>semana 34</t>
+  </si>
+  <si>
+    <t>semana 35</t>
+  </si>
+  <si>
+    <t>semana 36</t>
+  </si>
+  <si>
+    <t>semana 37</t>
+  </si>
+  <si>
+    <t>semana 38</t>
+  </si>
+  <si>
+    <t>semana 39</t>
+  </si>
+  <si>
+    <t>semana 40</t>
+  </si>
+  <si>
+    <t>semana 41</t>
+  </si>
+  <si>
+    <t>semana 42</t>
+  </si>
+  <si>
+    <t>semana 43</t>
+  </si>
+  <si>
+    <t>semana 44</t>
+  </si>
+  <si>
+    <t>semana 45</t>
+  </si>
+  <si>
+    <t>semana 46</t>
+  </si>
+  <si>
+    <t>semana 47</t>
+  </si>
+  <si>
+    <t>semana 48</t>
+  </si>
+  <si>
+    <t>semana 49</t>
+  </si>
+  <si>
+    <t>semana 50</t>
+  </si>
+  <si>
+    <t>semana 51</t>
+  </si>
+  <si>
+    <t>semana 52</t>
+  </si>
+  <si>
+    <t>semana 53</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -325,7 +493,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="38">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -480,6 +648,23 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -879,35 +1064,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A8EF3DB4-F2F5-D341-B92D-EFDAAEAE969B}" name="Tabla1" displayName="Tabla1" ref="C1:V367" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33" totalsRowBorderDxfId="32">
-  <autoFilter ref="C1:V367" xr:uid="{A8EF3DB4-F2F5-D341-B92D-EFDAAEAE969B}"/>
-  <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{3C556853-9CB4-8843-BE67-C1E21A308F8D}" name="fecha" dataDxfId="31"/>
-    <tableColumn id="19" xr3:uid="{5450EAE9-053F-4630-AD82-87D5D2CDBA99}" name="temperatura_promedio" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{60101D9F-ADF9-6147-A5A1-7317309DD6EF}" name="cantidad_adultos" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{57DAD4B7-F56E-EA4C-B302-E58E3E2CED9E}" name="precio_adultos" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{D4BD6134-AF25-6346-9779-ECFB777938A8}" name="total_adultos" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A8EF3DB4-F2F5-D341-B92D-EFDAAEAE969B}" name="Tabla1" displayName="Tabla1" ref="C1:W367" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+  <autoFilter ref="C1:W367" xr:uid="{A8EF3DB4-F2F5-D341-B92D-EFDAAEAE969B}"/>
+  <tableColumns count="21">
+    <tableColumn id="1" xr3:uid="{3C556853-9CB4-8843-BE67-C1E21A308F8D}" name="fecha" dataDxfId="32"/>
+    <tableColumn id="19" xr3:uid="{5450EAE9-053F-4630-AD82-87D5D2CDBA99}" name="temperatura_promedio" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{60101D9F-ADF9-6147-A5A1-7317309DD6EF}" name="cantidad_adultos" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{57DAD4B7-F56E-EA4C-B302-E58E3E2CED9E}" name="precio_adultos" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{D4BD6134-AF25-6346-9779-ECFB777938A8}" name="total_adultos" dataDxfId="28">
       <calculatedColumnFormula>Tabla1[[#This Row],[cantidad_adultos]]*Tabla1[[#This Row],[precio_adultos]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{43DC9564-20A9-7549-83BE-9588F4923346}" name="cantidad_niños" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{E9BD31D0-F1CD-FE47-8DFD-BE50DF97C7E9}" name="precio_niños" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{37621434-724B-B840-9135-2B21D9E4BD09}" name="total_niños" dataDxfId="24">
+    <tableColumn id="5" xr3:uid="{43DC9564-20A9-7549-83BE-9588F4923346}" name="cantidad_niños" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{E9BD31D0-F1CD-FE47-8DFD-BE50DF97C7E9}" name="precio_niños" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{37621434-724B-B840-9135-2B21D9E4BD09}" name="total_niños" dataDxfId="25">
       <calculatedColumnFormula>Tabla1[[#This Row],[cantidad_niños]]*Tabla1[[#This Row],[precio_niños]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D4DF7ED3-18E6-9D40-81F4-7F77372E341B}" name="cantidad_familia" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{C9114E39-E3E5-0948-9091-8775567F6BDB}" name="precio_familia" dataDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{6015787E-B74F-AE45-9A12-C9F53C48941E}" name="total_familia" dataDxfId="21">
+    <tableColumn id="8" xr3:uid="{D4DF7ED3-18E6-9D40-81F4-7F77372E341B}" name="cantidad_familia" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{C9114E39-E3E5-0948-9091-8775567F6BDB}" name="precio_familia" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{6015787E-B74F-AE45-9A12-C9F53C48941E}" name="total_familia" dataDxfId="22">
       <calculatedColumnFormula>Tabla1[[#This Row],[cantidad_familia]]*Tabla1[[#This Row],[precio_familia]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{B928A7C5-92EB-B045-B419-C29BFC4BD1B0}" name="cantidad_especial" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{D7E80B1A-6F4E-C94E-BB67-1B90C19B6CC6}" name="precio_especial" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{B648AA8C-77D1-2946-8AED-A8DDE5C9EB02}" name="total_especial" dataDxfId="18">
+    <tableColumn id="11" xr3:uid="{B928A7C5-92EB-B045-B419-C29BFC4BD1B0}" name="cantidad_especial" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{D7E80B1A-6F4E-C94E-BB67-1B90C19B6CC6}" name="precio_especial" dataDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{B648AA8C-77D1-2946-8AED-A8DDE5C9EB02}" name="total_especial" dataDxfId="19">
       <calculatedColumnFormula>Tabla1[[#This Row],[cantidad_especial]]*Tabla1[[#This Row],[precio_especial]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{57EAB7DE-2717-2041-BC4B-20E4C26A98AD}" name="alimento" dataDxfId="17"/>
-    <tableColumn id="15" xr3:uid="{2C639700-CE90-6D43-BE07-6A469325F475}" name="extras" dataDxfId="16"/>
-    <tableColumn id="18" xr3:uid="{DAC9E68A-4CDB-8A4F-B66F-967469DB3AC9}" name="raya" dataDxfId="15"/>
-    <tableColumn id="20" xr3:uid="{EF8F1C18-2AA4-2A4C-B480-3870C4DC83A6}" name="nomina" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{57EAB7DE-2717-2041-BC4B-20E4C26A98AD}" name="alimento" dataDxfId="18"/>
+    <tableColumn id="15" xr3:uid="{2C639700-CE90-6D43-BE07-6A469325F475}" name="extras" dataDxfId="17"/>
+    <tableColumn id="18" xr3:uid="{DAC9E68A-4CDB-8A4F-B66F-967469DB3AC9}" name="raya" dataDxfId="16"/>
+    <tableColumn id="20" xr3:uid="{EF8F1C18-2AA4-2A4C-B480-3870C4DC83A6}" name="nomina" dataDxfId="15"/>
+    <tableColumn id="21" xr3:uid="{A8F3B3FE-3C05-5643-9EF6-8D210475F2F6}" name="semana" dataDxfId="0"/>
     <tableColumn id="16" xr3:uid="{10B76853-F3DF-4746-8C6E-ACAD99510170}" name="gastos" dataDxfId="14"/>
     <tableColumn id="17" xr3:uid="{4C51BDE7-43CF-DF40-946F-176505A6CEEA}" name="neto" dataDxfId="13">
       <calculatedColumnFormula>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</calculatedColumnFormula>
@@ -1258,9 +1444,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D09F7BD-A8AF-5841-BD0D-2579BBC7CBE0}">
-  <dimension ref="A1:V367"/>
+  <dimension ref="A1:W367"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="N325" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V352" sqref="V352"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1282,7 +1470,7 @@
     <col min="17" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1344,13 +1532,16 @@
         <v>21</v>
       </c>
       <c r="U1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -1417,15 +1608,18 @@
       <c r="T2" s="2">
         <v>0</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="2">
         <v>3100</v>
       </c>
-      <c r="V2" s="4">
+      <c r="W2" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>29186</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -1492,15 +1686,18 @@
       <c r="T3" s="2">
         <v>0</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="2">
         <v>5450</v>
       </c>
-      <c r="V3" s="4">
+      <c r="W3" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>47832</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -1567,15 +1764,18 @@
       <c r="T4" s="2">
         <v>0</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V4" s="2">
         <v>1475</v>
       </c>
-      <c r="V4" s="4">
+      <c r="W4" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>33327</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -1642,15 +1842,18 @@
       <c r="T5" s="2">
         <v>0</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V5" s="2">
         <v>1630</v>
       </c>
-      <c r="V5" s="4">
+      <c r="W5" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>35356</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -1717,15 +1920,18 @@
       <c r="T6" s="2">
         <v>29039.200000000001</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V6" s="2">
         <v>33764.199999999997</v>
       </c>
-      <c r="V6" s="4">
+      <c r="W6" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>47842.8</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -1792,15 +1998,18 @@
       <c r="T7" s="2">
         <v>0</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V7" s="2">
         <v>6210</v>
       </c>
-      <c r="V7" s="4">
+      <c r="W7" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>99923</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -1867,15 +2076,18 @@
       <c r="T8" s="2">
         <v>0</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V8" s="2">
         <v>2049.3000000000002</v>
       </c>
-      <c r="V8" s="4">
+      <c r="W8" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>42283.7</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -1942,15 +2154,18 @@
       <c r="T9" s="2">
         <v>0</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V9" s="2">
         <v>4084.9</v>
       </c>
-      <c r="V9" s="4">
+      <c r="W9" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>32459.1</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2017,15 +2232,18 @@
       <c r="T10" s="2">
         <v>0</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V10" s="2">
         <v>3449</v>
       </c>
-      <c r="V10" s="4">
+      <c r="W10" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>31423</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2092,15 +2310,18 @@
       <c r="T11" s="2">
         <v>0</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V11" s="2">
         <v>3107</v>
       </c>
-      <c r="V11" s="4">
+      <c r="W11" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>41570</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2167,15 +2388,18 @@
       <c r="T12" s="2">
         <v>0</v>
       </c>
-      <c r="U12" s="2">
+      <c r="U12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V12" s="2">
         <v>4516.3999999999996</v>
       </c>
-      <c r="V12" s="4">
+      <c r="W12" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>38338.6</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2242,15 +2466,18 @@
       <c r="T13" s="2">
         <v>28783.4</v>
       </c>
-      <c r="U13" s="2">
+      <c r="U13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V13" s="2">
         <v>35753.4</v>
       </c>
-      <c r="V13" s="4">
+      <c r="W13" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>37946.6</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2317,15 +2544,18 @@
       <c r="T14" s="2">
         <v>0</v>
       </c>
-      <c r="U14" s="2">
+      <c r="U14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V14" s="2">
         <v>6932</v>
       </c>
-      <c r="V14" s="4">
+      <c r="W14" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>127258</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2392,15 +2622,18 @@
       <c r="T15" s="2">
         <v>0</v>
       </c>
-      <c r="U15" s="2">
+      <c r="U15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V15" s="2">
         <v>5566</v>
       </c>
-      <c r="V15" s="4">
+      <c r="W15" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>25663</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2467,15 +2700,18 @@
       <c r="T16" s="2">
         <v>0</v>
       </c>
-      <c r="U16" s="2">
+      <c r="U16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V16" s="2">
         <v>3018</v>
       </c>
-      <c r="V16" s="4">
+      <c r="W16" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>42978</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2542,15 +2778,18 @@
       <c r="T17" s="2">
         <v>0</v>
       </c>
-      <c r="U17" s="2">
+      <c r="U17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V17" s="2">
         <v>10721.64</v>
       </c>
-      <c r="V17" s="4">
+      <c r="W17" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>49000.36</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2617,15 +2856,18 @@
       <c r="T18" s="2">
         <v>0</v>
       </c>
-      <c r="U18" s="2">
+      <c r="U18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V18" s="2">
         <v>4600</v>
       </c>
-      <c r="V18" s="4">
+      <c r="W18" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>41189</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2692,15 +2934,18 @@
       <c r="T19" s="2">
         <v>0</v>
       </c>
-      <c r="U19" s="2">
+      <c r="U19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V19" s="2">
         <v>4480.6000000000004</v>
       </c>
-      <c r="V19" s="4">
+      <c r="W19" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>41653.4</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2767,15 +3012,18 @@
       <c r="T20" s="2">
         <v>29206.2</v>
       </c>
-      <c r="U20" s="2">
+      <c r="U20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V20" s="2">
         <v>43105.2</v>
       </c>
-      <c r="V20" s="4">
+      <c r="W20" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>35300.800000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2842,15 +3090,18 @@
       <c r="T21" s="2">
         <v>0</v>
       </c>
-      <c r="U21" s="2">
+      <c r="U21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V21" s="2">
         <v>6400</v>
       </c>
-      <c r="V21" s="4">
+      <c r="W21" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>25784</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2917,15 +3168,18 @@
       <c r="T22" s="2">
         <v>0</v>
       </c>
-      <c r="U22" s="2">
+      <c r="U22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V22" s="2">
         <v>2260</v>
       </c>
-      <c r="V22" s="4">
+      <c r="W22" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>36821</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -2992,15 +3246,18 @@
       <c r="T23" s="2">
         <v>0</v>
       </c>
-      <c r="U23" s="2">
+      <c r="U23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V23" s="2">
         <v>2345</v>
       </c>
-      <c r="V23" s="4">
+      <c r="W23" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>23740</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3067,15 +3324,18 @@
       <c r="T24" s="2">
         <v>0</v>
       </c>
-      <c r="U24" s="2">
+      <c r="U24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V24" s="2">
         <v>9369</v>
       </c>
-      <c r="V24" s="4">
+      <c r="W24" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>30356</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3142,15 +3402,18 @@
       <c r="T25" s="2">
         <v>0</v>
       </c>
-      <c r="U25" s="2">
+      <c r="U25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V25" s="2">
         <v>2940</v>
       </c>
-      <c r="V25" s="4">
+      <c r="W25" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>30025</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3217,15 +3480,18 @@
       <c r="T26" s="2">
         <v>0</v>
       </c>
-      <c r="U26" s="2">
+      <c r="U26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="2">
         <v>2178</v>
       </c>
-      <c r="V26" s="4">
+      <c r="W26" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>39839</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3292,15 +3558,18 @@
       <c r="T27" s="2">
         <v>28146.6</v>
       </c>
-      <c r="U27" s="2">
+      <c r="U27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V27" s="2">
         <v>36677.599999999999</v>
       </c>
-      <c r="V27" s="4">
+      <c r="W27" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>55391.9</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3367,15 +3636,18 @@
       <c r="T28" s="2">
         <v>0</v>
       </c>
-      <c r="U28" s="2">
+      <c r="U28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="2">
         <v>8705</v>
       </c>
-      <c r="V28" s="4">
+      <c r="W28" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>85848</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3442,15 +3714,18 @@
       <c r="T29" s="2">
         <v>0</v>
       </c>
-      <c r="U29" s="2">
+      <c r="U29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V29" s="2">
         <v>600</v>
       </c>
-      <c r="V29" s="4">
+      <c r="W29" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>13635</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3517,15 +3792,18 @@
       <c r="T30" s="2">
         <v>0</v>
       </c>
-      <c r="U30" s="2">
-        <v>0</v>
-      </c>
-      <c r="V30" s="4">
+      <c r="U30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V30" s="2">
+        <v>0</v>
+      </c>
+      <c r="W30" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>11529</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3592,15 +3870,18 @@
       <c r="T31" s="2">
         <v>0</v>
       </c>
-      <c r="U31" s="2">
+      <c r="U31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V31" s="2">
         <v>2490</v>
       </c>
-      <c r="V31" s="4">
+      <c r="W31" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>4316</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3667,15 +3948,18 @@
       <c r="T32" s="2">
         <v>0</v>
       </c>
-      <c r="U32" s="2">
+      <c r="U32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V32" s="2">
         <v>1711</v>
       </c>
-      <c r="V32" s="4">
+      <c r="W32" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>7199</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3742,15 +4026,18 @@
       <c r="T33" s="2">
         <v>0</v>
       </c>
-      <c r="U33" s="2">
-        <v>0</v>
-      </c>
-      <c r="V33" s="4">
+      <c r="U33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V33" s="2">
+        <v>0</v>
+      </c>
+      <c r="W33" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>6080</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3817,15 +4104,18 @@
       <c r="T34" s="2">
         <v>27082.400000000001</v>
       </c>
-      <c r="U34" s="2">
+      <c r="U34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V34" s="2">
         <v>34255.4</v>
       </c>
-      <c r="V34" s="4">
+      <c r="W34" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>20869.099999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3892,15 +4182,18 @@
       <c r="T35" s="2">
         <v>0</v>
       </c>
-      <c r="U35" s="2">
+      <c r="U35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V35" s="2">
         <v>8011</v>
       </c>
-      <c r="V35" s="4">
+      <c r="W35" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>41459</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -3967,15 +4260,18 @@
       <c r="T36" s="2">
         <v>0</v>
       </c>
-      <c r="U36" s="2">
+      <c r="U36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V36" s="2">
         <v>2297</v>
       </c>
-      <c r="V36" s="4">
+      <c r="W36" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>14946</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4042,15 +4338,18 @@
       <c r="T37" s="2">
         <v>0</v>
       </c>
-      <c r="U37" s="2">
+      <c r="U37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V37" s="2">
         <v>3000</v>
       </c>
-      <c r="V37" s="4">
+      <c r="W37" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>10490</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4117,15 +4416,18 @@
       <c r="T38" s="2">
         <v>0</v>
       </c>
-      <c r="U38" s="2">
+      <c r="U38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V38" s="2">
         <v>1255</v>
       </c>
-      <c r="V38" s="4">
+      <c r="W38" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>10690</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4192,15 +4494,18 @@
       <c r="T39" s="2">
         <v>0</v>
       </c>
-      <c r="U39" s="2">
+      <c r="U39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V39" s="2">
         <v>1500</v>
       </c>
-      <c r="V39" s="4">
+      <c r="W39" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>9865</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4267,15 +4572,18 @@
       <c r="T40" s="2">
         <v>0</v>
       </c>
-      <c r="U40" s="2">
+      <c r="U40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V40" s="2">
         <v>500</v>
       </c>
-      <c r="V40" s="4">
+      <c r="W40" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>8260</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4342,15 +4650,18 @@
       <c r="T41" s="2">
         <v>27695.4</v>
       </c>
-      <c r="U41" s="2">
+      <c r="U41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V41" s="2">
         <v>43995.4</v>
       </c>
-      <c r="V41" s="4">
+      <c r="W41" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>10573.099999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4417,15 +4728,18 @@
       <c r="T42" s="2">
         <v>0</v>
       </c>
-      <c r="U42" s="2">
+      <c r="U42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V42" s="2">
         <v>19168</v>
       </c>
-      <c r="V42" s="4">
+      <c r="W42" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>41791</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4492,15 +4806,18 @@
       <c r="T43" s="2">
         <v>0</v>
       </c>
-      <c r="U43" s="2">
+      <c r="U43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V43" s="2">
         <v>2935</v>
       </c>
-      <c r="V43" s="4">
+      <c r="W43" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>21626</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4567,15 +4884,18 @@
       <c r="T44" s="2">
         <v>0</v>
       </c>
-      <c r="U44" s="2">
-        <v>0</v>
-      </c>
-      <c r="V44" s="4">
+      <c r="U44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V44" s="2">
+        <v>0</v>
+      </c>
+      <c r="W44" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>22357</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4642,15 +4962,18 @@
       <c r="T45" s="2">
         <v>0</v>
       </c>
-      <c r="U45" s="2">
+      <c r="U45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V45" s="2">
         <v>6491</v>
       </c>
-      <c r="V45" s="4">
+      <c r="W45" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>17182</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4717,15 +5040,18 @@
       <c r="T46" s="2">
         <v>0</v>
       </c>
-      <c r="U46" s="2">
-        <v>0</v>
-      </c>
-      <c r="V46" s="4">
+      <c r="U46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V46" s="2">
+        <v>0</v>
+      </c>
+      <c r="W46" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>11540</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4792,15 +5118,18 @@
       <c r="T47" s="2">
         <v>0</v>
       </c>
-      <c r="U47" s="2">
+      <c r="U47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V47" s="2">
         <v>4851</v>
       </c>
-      <c r="V47" s="4">
+      <c r="W47" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>12679</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4867,15 +5196,18 @@
       <c r="T48" s="2">
         <v>28434.400000000001</v>
       </c>
-      <c r="U48" s="2">
+      <c r="U48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V48" s="2">
         <v>31819.4</v>
       </c>
-      <c r="V48" s="4">
+      <c r="W48" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>62755.1</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -4942,15 +5274,18 @@
       <c r="T49" s="2">
         <v>0</v>
       </c>
-      <c r="U49" s="2">
+      <c r="U49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V49" s="2">
         <v>17091</v>
       </c>
-      <c r="V49" s="4">
+      <c r="W49" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>49186</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5017,15 +5352,18 @@
       <c r="T50" s="2">
         <v>0</v>
       </c>
-      <c r="U50" s="2">
+      <c r="U50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V50" s="2">
         <v>1870</v>
       </c>
-      <c r="V50" s="4">
+      <c r="W50" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>18222</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5092,15 +5430,18 @@
       <c r="T51" s="2">
         <v>0</v>
       </c>
-      <c r="U51" s="2">
+      <c r="U51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V51" s="2">
         <v>500</v>
       </c>
-      <c r="V51" s="4">
+      <c r="W51" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>14945</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5167,15 +5508,18 @@
       <c r="T52" s="2">
         <v>0</v>
       </c>
-      <c r="U52" s="2">
+      <c r="U52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V52" s="2">
         <v>3190</v>
       </c>
-      <c r="V52" s="4">
+      <c r="W52" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>14285</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5242,15 +5586,18 @@
       <c r="T53" s="2">
         <v>0</v>
       </c>
-      <c r="U53" s="2">
+      <c r="U53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V53" s="2">
         <v>3190</v>
       </c>
-      <c r="V53" s="4">
+      <c r="W53" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>14285</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5317,15 +5664,18 @@
       <c r="T54" s="2">
         <v>0</v>
       </c>
-      <c r="U54" s="2">
+      <c r="U54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V54" s="2">
         <v>947</v>
       </c>
-      <c r="V54" s="4">
+      <c r="W54" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>16027</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5392,15 +5742,18 @@
       <c r="T55" s="2">
         <v>34806.199999999997</v>
       </c>
-      <c r="U55" s="2">
+      <c r="U55" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V55" s="2">
         <v>38706.199999999997</v>
       </c>
-      <c r="V55" s="4">
+      <c r="W55" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>46527.8</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5467,15 +5820,18 @@
       <c r="T56" s="2">
         <v>0</v>
       </c>
-      <c r="U56" s="2">
+      <c r="U56" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V56" s="2">
         <v>7316</v>
       </c>
-      <c r="V56" s="4">
+      <c r="W56" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>98184</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5542,15 +5898,18 @@
       <c r="T57" s="2">
         <v>0</v>
       </c>
-      <c r="U57" s="2">
+      <c r="U57" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V57" s="2">
         <v>1626.5</v>
       </c>
-      <c r="V57" s="4">
+      <c r="W57" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>27087</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5617,15 +5976,18 @@
       <c r="T58" s="2">
         <v>0</v>
       </c>
-      <c r="U58" s="2">
+      <c r="U58" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V58" s="2">
         <v>375</v>
       </c>
-      <c r="V58" s="4">
+      <c r="W58" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>20495</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5692,15 +6054,18 @@
       <c r="T59" s="2">
         <v>0</v>
       </c>
-      <c r="U59" s="2">
+      <c r="U59" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V59" s="2">
         <v>8773</v>
       </c>
-      <c r="V59" s="4">
+      <c r="W59" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>6157</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5767,15 +6132,18 @@
       <c r="T60" s="2">
         <v>0</v>
       </c>
-      <c r="U60" s="2">
+      <c r="U60" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V60" s="2">
         <v>4500</v>
       </c>
-      <c r="V60" s="4">
+      <c r="W60" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>12561</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5842,15 +6210,18 @@
       <c r="T61" s="2">
         <v>0</v>
       </c>
-      <c r="U61" s="2">
+      <c r="U61" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V61" s="2">
         <v>4940</v>
       </c>
-      <c r="V61" s="4">
+      <c r="W61" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>39588</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5917,15 +6288,18 @@
       <c r="T62" s="2">
         <v>24895</v>
       </c>
-      <c r="U62" s="2">
+      <c r="U62" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V62" s="2">
         <v>31051.360000000001</v>
       </c>
-      <c r="V62" s="4">
+      <c r="W62" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>33562.639999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -5992,15 +6366,18 @@
       <c r="T63" s="2">
         <v>0</v>
       </c>
-      <c r="U63" s="2">
+      <c r="U63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V63" s="2">
         <v>9619</v>
       </c>
-      <c r="V63" s="4">
+      <c r="W63" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>92341</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6067,15 +6444,18 @@
       <c r="T64" s="2">
         <v>0</v>
       </c>
-      <c r="U64" s="2">
+      <c r="U64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V64" s="2">
         <v>3838</v>
       </c>
-      <c r="V64" s="4">
+      <c r="W64" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>17112</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6142,15 +6522,18 @@
       <c r="T65" s="2">
         <v>0</v>
       </c>
-      <c r="U65" s="2">
+      <c r="U65" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V65" s="2">
         <v>4615</v>
       </c>
-      <c r="V65" s="4">
+      <c r="W65" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>14546</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6217,15 +6600,18 @@
       <c r="T66" s="2">
         <v>0</v>
       </c>
-      <c r="U66" s="2">
+      <c r="U66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V66" s="2">
         <v>3915.5</v>
       </c>
-      <c r="V66" s="4">
+      <c r="W66" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>7003.5</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6292,15 +6678,18 @@
       <c r="T67" s="2">
         <v>0</v>
       </c>
-      <c r="U67" s="2">
-        <v>0</v>
-      </c>
-      <c r="V67" s="4">
+      <c r="U67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V67" s="2">
+        <v>0</v>
+      </c>
+      <c r="W67" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>9414</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6367,15 +6756,18 @@
       <c r="T68" s="2">
         <v>0</v>
       </c>
-      <c r="U68" s="2">
+      <c r="U68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V68" s="2">
         <v>312.5</v>
       </c>
-      <c r="V68" s="4">
+      <c r="W68" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>5643.5</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6442,15 +6834,18 @@
       <c r="T69" s="2">
         <v>28129.8</v>
       </c>
-      <c r="U69" s="2">
+      <c r="U69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V69" s="2">
         <v>31164.799999999999</v>
       </c>
-      <c r="V69" s="4">
+      <c r="W69" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>28232.2</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6517,15 +6912,18 @@
       <c r="T70" s="2">
         <v>0</v>
       </c>
-      <c r="U70" s="2">
+      <c r="U70" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V70" s="2">
         <v>7547</v>
       </c>
-      <c r="V70" s="4">
+      <c r="W70" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>34059</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6592,15 +6990,18 @@
       <c r="T71" s="2">
         <v>0</v>
       </c>
-      <c r="U71" s="2">
+      <c r="U71" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V71" s="2">
         <v>6995</v>
       </c>
-      <c r="V71" s="4">
+      <c r="W71" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>8460</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6667,15 +7068,18 @@
       <c r="T72" s="2">
         <v>0</v>
       </c>
-      <c r="U72" s="2">
-        <v>0</v>
-      </c>
-      <c r="V72" s="4">
+      <c r="U72" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V72" s="2">
+        <v>0</v>
+      </c>
+      <c r="W72" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>5005</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6742,15 +7146,18 @@
       <c r="T73" s="2">
         <v>0</v>
       </c>
-      <c r="U73" s="2">
+      <c r="U73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V73" s="2">
         <v>1204</v>
       </c>
-      <c r="V73" s="4">
+      <c r="W73" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>859</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6817,15 +7224,18 @@
       <c r="T74" s="2">
         <v>0</v>
       </c>
-      <c r="U74" s="2">
+      <c r="U74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V74" s="2">
         <v>1416</v>
       </c>
-      <c r="V74" s="4">
+      <c r="W74" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>21039</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6892,15 +7302,18 @@
       <c r="T75" s="2">
         <v>0</v>
       </c>
-      <c r="U75" s="2">
+      <c r="U75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V75" s="2">
         <v>595</v>
       </c>
-      <c r="V75" s="4">
+      <c r="W75" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>8934</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -6967,15 +7380,18 @@
       <c r="T76" s="2">
         <v>28526.799999999999</v>
       </c>
-      <c r="U76" s="2">
+      <c r="U76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V76" s="2">
         <v>31010.799999999999</v>
       </c>
-      <c r="V76" s="4">
+      <c r="W76" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>19374.2</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7042,15 +7458,18 @@
       <c r="T77" s="2">
         <v>0</v>
       </c>
-      <c r="U77" s="2">
+      <c r="U77" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V77" s="2">
         <v>4540</v>
       </c>
-      <c r="V77" s="4">
+      <c r="W77" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>36260</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7117,15 +7536,18 @@
       <c r="T78" s="2">
         <v>0</v>
       </c>
-      <c r="U78" s="2">
+      <c r="U78" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V78" s="2">
         <v>1397</v>
       </c>
-      <c r="V78" s="4">
+      <c r="W78" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>26388</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7192,15 +7614,18 @@
       <c r="T79" s="2">
         <v>0</v>
       </c>
-      <c r="U79" s="2">
+      <c r="U79" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V79" s="2">
         <v>317</v>
       </c>
-      <c r="V79" s="4">
+      <c r="W79" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>4181</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7267,15 +7692,18 @@
       <c r="T80" s="2">
         <v>0</v>
       </c>
-      <c r="U80" s="2">
+      <c r="U80" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V80" s="2">
         <v>6434</v>
       </c>
-      <c r="V80" s="4">
+      <c r="W80" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>1723</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7342,15 +7770,18 @@
       <c r="T81" s="2">
         <v>0</v>
       </c>
-      <c r="U81" s="2">
-        <v>0</v>
-      </c>
-      <c r="V81" s="4">
+      <c r="U81" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V81" s="2">
+        <v>0</v>
+      </c>
+      <c r="W81" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>2865</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7417,15 +7848,18 @@
       <c r="T82" s="2">
         <v>0</v>
       </c>
-      <c r="U82" s="2">
+      <c r="U82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V82" s="2">
         <v>1564</v>
       </c>
-      <c r="V82" s="4">
+      <c r="W82" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>3003</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7492,15 +7926,18 @@
       <c r="T83" s="2">
         <v>27706</v>
       </c>
-      <c r="U83" s="2">
+      <c r="U83" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V83" s="2">
         <v>34733</v>
       </c>
-      <c r="V83" s="4">
+      <c r="W83" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>10792</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7567,15 +8004,18 @@
       <c r="T84" s="2">
         <v>0</v>
       </c>
-      <c r="U84" s="2">
+      <c r="U84" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V84" s="2">
         <v>15412</v>
       </c>
-      <c r="V84" s="4">
+      <c r="W84" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>24958</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7642,15 +8082,18 @@
       <c r="T85" s="2">
         <v>0</v>
       </c>
-      <c r="U85" s="2">
+      <c r="U85" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V85" s="2">
         <v>1437</v>
       </c>
-      <c r="V85" s="4">
+      <c r="W85" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>19913</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7717,15 +8160,18 @@
       <c r="T86" s="2">
         <v>0</v>
       </c>
-      <c r="U86" s="2">
+      <c r="U86" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V86" s="2">
         <v>3000</v>
       </c>
-      <c r="V86" s="4">
+      <c r="W86" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>13080</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7792,15 +8238,18 @@
       <c r="T87" s="2">
         <v>0</v>
       </c>
-      <c r="U87" s="2">
+      <c r="U87" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V87" s="2">
         <v>4230</v>
       </c>
-      <c r="V87" s="4">
+      <c r="W87" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>4316</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7867,15 +8316,18 @@
       <c r="T88" s="2">
         <v>0</v>
       </c>
-      <c r="U88" s="2">
-        <v>0</v>
-      </c>
-      <c r="V88" s="4">
+      <c r="U88" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V88" s="2">
+        <v>0</v>
+      </c>
+      <c r="W88" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>9975</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -7942,15 +8394,18 @@
       <c r="T89" s="2">
         <v>0</v>
       </c>
-      <c r="U89" s="2">
-        <v>0</v>
-      </c>
-      <c r="V89" s="4">
+      <c r="U89" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V89" s="2">
+        <v>0</v>
+      </c>
+      <c r="W89" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>7256</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8017,15 +8472,18 @@
       <c r="T90" s="2">
         <v>27846</v>
       </c>
-      <c r="U90" s="2">
+      <c r="U90" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V90" s="2">
         <v>35134</v>
       </c>
-      <c r="V90" s="4">
+      <c r="W90" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>12502</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8092,15 +8550,18 @@
       <c r="T91" s="2">
         <v>0</v>
       </c>
-      <c r="U91" s="2">
+      <c r="U91" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V91" s="2">
         <v>5577</v>
       </c>
-      <c r="V91" s="4">
+      <c r="W91" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>26223</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8167,15 +8628,18 @@
       <c r="T92" s="2">
         <v>0</v>
       </c>
-      <c r="U92" s="2">
+      <c r="U92" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V92" s="2">
         <v>7288</v>
       </c>
-      <c r="V92" s="4">
+      <c r="W92" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>8555</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8242,15 +8706,18 @@
       <c r="T93" s="2">
         <v>0</v>
       </c>
-      <c r="U93" s="2">
-        <v>0</v>
-      </c>
-      <c r="V93" s="4">
+      <c r="U93" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V93" s="2">
+        <v>0</v>
+      </c>
+      <c r="W93" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>3690</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8317,15 +8784,18 @@
       <c r="T94" s="2">
         <v>0</v>
       </c>
-      <c r="U94" s="2">
+      <c r="U94" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V94" s="2">
         <v>3871</v>
       </c>
-      <c r="V94" s="4">
+      <c r="W94" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>4374</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8392,15 +8862,18 @@
       <c r="T95" s="2">
         <v>0</v>
       </c>
-      <c r="U95" s="2">
+      <c r="U95" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V95" s="2">
         <v>1171</v>
       </c>
-      <c r="V95" s="4">
+      <c r="W95" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>12274</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8467,15 +8940,18 @@
       <c r="T96" s="2">
         <v>0</v>
       </c>
-      <c r="U96" s="2">
+      <c r="U96" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V96" s="2">
         <v>4451.5</v>
       </c>
-      <c r="V96" s="4">
+      <c r="W96" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>4020.5</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8542,15 +9018,18 @@
       <c r="T97" s="2">
         <v>28187.200000000001</v>
       </c>
-      <c r="U97" s="2">
+      <c r="U97" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V97" s="2">
         <v>36366.199999999997</v>
       </c>
-      <c r="V97" s="4">
+      <c r="W97" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>8722.8000000000029</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8617,15 +9096,18 @@
       <c r="T98" s="2">
         <v>0</v>
       </c>
-      <c r="U98" s="2">
+      <c r="U98" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V98" s="2">
         <v>9222</v>
       </c>
-      <c r="V98" s="4">
+      <c r="W98" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>25893</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8692,15 +9174,18 @@
       <c r="T99" s="2">
         <v>0</v>
       </c>
-      <c r="U99" s="2">
+      <c r="U99" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V99" s="2">
         <v>2657</v>
       </c>
-      <c r="V99" s="4">
+      <c r="W99" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>7894</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8767,15 +9252,18 @@
       <c r="T100" s="2">
         <v>0</v>
       </c>
-      <c r="U100" s="2">
-        <v>0</v>
-      </c>
-      <c r="V100" s="4">
+      <c r="U100" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V100" s="2">
+        <v>0</v>
+      </c>
+      <c r="W100" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>8651</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8842,15 +9330,18 @@
       <c r="T101" s="2">
         <v>0</v>
       </c>
-      <c r="U101" s="2">
+      <c r="U101" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V101" s="2">
         <v>1826</v>
       </c>
-      <c r="V101" s="4">
+      <c r="W101" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>665</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8917,15 +9408,18 @@
       <c r="T102" s="2">
         <v>0</v>
       </c>
-      <c r="U102" s="2">
-        <v>0</v>
-      </c>
-      <c r="V102" s="4">
+      <c r="U102" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V102" s="2">
+        <v>0</v>
+      </c>
+      <c r="W102" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>6390</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -8992,15 +9486,18 @@
       <c r="T103" s="2">
         <v>0</v>
       </c>
-      <c r="U103" s="2">
-        <v>0</v>
-      </c>
-      <c r="V103" s="4">
+      <c r="U103" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V103" s="2">
+        <v>0</v>
+      </c>
+      <c r="W103" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>7710</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9067,15 +9564,18 @@
       <c r="T104" s="2">
         <v>27696.799999999999</v>
       </c>
-      <c r="U104" s="2">
+      <c r="U104" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V104" s="2">
         <v>35716.300000000003</v>
       </c>
-      <c r="V104" s="4">
+      <c r="W104" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>11036.699999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9142,15 +9642,18 @@
       <c r="T105" s="2">
         <v>0</v>
       </c>
-      <c r="U105" s="2">
+      <c r="U105" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V105" s="2">
         <v>16604</v>
       </c>
-      <c r="V105" s="4">
+      <c r="W105" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>29054</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9217,15 +9720,18 @@
       <c r="T106" s="2">
         <v>0</v>
       </c>
-      <c r="U106" s="2">
+      <c r="U106" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V106" s="2">
         <v>2340</v>
       </c>
-      <c r="V106" s="4">
+      <c r="W106" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>10492</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9292,15 +9798,18 @@
       <c r="T107" s="2">
         <v>0</v>
       </c>
-      <c r="U107" s="2">
+      <c r="U107" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V107" s="2">
         <v>606</v>
       </c>
-      <c r="V107" s="4">
+      <c r="W107" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>4699</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9367,15 +9876,18 @@
       <c r="T108" s="2">
         <v>0</v>
       </c>
-      <c r="U108" s="2">
+      <c r="U108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V108" s="2">
         <v>4872</v>
       </c>
-      <c r="V108" s="4">
+      <c r="W108" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>618</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9442,15 +9954,18 @@
       <c r="T109" s="2">
         <v>0</v>
       </c>
-      <c r="U109" s="2">
-        <v>0</v>
-      </c>
-      <c r="V109" s="4">
+      <c r="U109" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V109" s="2">
+        <v>0</v>
+      </c>
+      <c r="W109" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>7510</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9517,15 +10032,18 @@
       <c r="T110" s="2">
         <v>0</v>
       </c>
-      <c r="U110" s="2">
+      <c r="U110" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V110" s="2">
         <v>2856.3</v>
       </c>
-      <c r="V110" s="4">
+      <c r="W110" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>5421.7</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9592,15 +10110,18 @@
       <c r="T111" s="2">
         <v>22905.200000000001</v>
       </c>
-      <c r="U111" s="2">
+      <c r="U111" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V111" s="2">
         <v>29410.2</v>
       </c>
-      <c r="V111" s="4">
+      <c r="W111" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>25391.200000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9667,15 +10188,18 @@
       <c r="T112" s="2">
         <v>0</v>
       </c>
-      <c r="U112" s="2">
+      <c r="U112" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V112" s="2">
         <v>5327</v>
       </c>
-      <c r="V112" s="4">
+      <c r="W112" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>37298</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9742,15 +10266,18 @@
       <c r="T113" s="2">
         <v>0</v>
       </c>
-      <c r="U113" s="2">
+      <c r="U113" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V113" s="2">
         <v>5455</v>
       </c>
-      <c r="V113" s="4">
+      <c r="W113" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>100439</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9817,15 +10344,18 @@
       <c r="T114" s="2">
         <v>0</v>
       </c>
-      <c r="U114" s="2">
+      <c r="U114" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V114" s="2">
         <v>4383</v>
       </c>
-      <c r="V114" s="4">
+      <c r="W114" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>-983</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9892,15 +10422,18 @@
       <c r="T115" s="2">
         <v>0</v>
       </c>
-      <c r="U115" s="2">
+      <c r="U115" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V115" s="2">
         <v>3106</v>
       </c>
-      <c r="V115" s="4">
+      <c r="W115" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>250</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -9967,15 +10500,18 @@
       <c r="T116" s="2">
         <v>0</v>
       </c>
-      <c r="U116" s="2">
+      <c r="U116" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V116" s="2">
         <v>1350</v>
       </c>
-      <c r="V116" s="4">
+      <c r="W116" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>605</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10042,15 +10578,18 @@
       <c r="T117" s="2">
         <v>0</v>
       </c>
-      <c r="U117" s="2">
+      <c r="U117" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V117" s="2">
         <v>3452</v>
       </c>
-      <c r="V117" s="4">
+      <c r="W117" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>2933</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10117,15 +10656,18 @@
       <c r="T118" s="2">
         <v>29602.799999999999</v>
       </c>
-      <c r="U118" s="2">
+      <c r="U118" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V118" s="2">
         <v>36277.800000000003</v>
       </c>
-      <c r="V118" s="4">
+      <c r="W118" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>7198.1999999999971</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10192,15 +10734,18 @@
       <c r="T119" s="2">
         <v>0</v>
       </c>
-      <c r="U119" s="2">
+      <c r="U119" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V119" s="2">
         <v>19020</v>
       </c>
-      <c r="V119" s="4">
+      <c r="W119" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>11458</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10267,15 +10812,18 @@
       <c r="T120" s="2">
         <v>0</v>
       </c>
-      <c r="U120" s="2">
+      <c r="U120" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V120" s="2">
         <v>2187</v>
       </c>
-      <c r="V120" s="4">
+      <c r="W120" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>1573</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10342,15 +10890,18 @@
       <c r="T121" s="2">
         <v>0</v>
       </c>
-      <c r="U121" s="2">
-        <v>0</v>
-      </c>
-      <c r="V121" s="4">
+      <c r="U121" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V121" s="2">
+        <v>0</v>
+      </c>
+      <c r="W121" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>680</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10417,15 +10968,18 @@
       <c r="T122" s="2">
         <v>0</v>
       </c>
-      <c r="U122" s="2">
+      <c r="U122" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V122" s="2">
         <v>1240</v>
       </c>
-      <c r="V122" s="4">
+      <c r="W122" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>-1140</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10492,15 +11046,18 @@
       <c r="T123" s="2">
         <v>0</v>
       </c>
-      <c r="U123" s="2">
+      <c r="U123" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V123" s="2">
         <v>1640</v>
       </c>
-      <c r="V123" s="4">
+      <c r="W123" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>2070</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10567,15 +11124,18 @@
       <c r="T124" s="2">
         <v>0</v>
       </c>
-      <c r="U124" s="2">
+      <c r="U124" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V124" s="2">
         <v>1041</v>
       </c>
-      <c r="V124" s="4">
+      <c r="W124" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>199</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10642,15 +11202,18 @@
       <c r="T125" s="2">
         <v>19214</v>
       </c>
-      <c r="U125" s="2">
+      <c r="U125" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V125" s="2">
         <v>23317</v>
       </c>
-      <c r="V125" s="4">
+      <c r="W125" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>1154</v>
       </c>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10717,15 +11280,18 @@
       <c r="T126" s="2">
         <v>0</v>
       </c>
-      <c r="U126" s="2">
+      <c r="U126" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V126" s="2">
         <v>3660</v>
       </c>
-      <c r="V126" s="4">
+      <c r="W126" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>3280</v>
       </c>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10792,15 +11358,18 @@
       <c r="T127" s="2">
         <v>0</v>
       </c>
-      <c r="U127" s="2">
+      <c r="U127" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V127" s="2">
         <v>1167</v>
       </c>
-      <c r="V127" s="4">
+      <c r="W127" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>-62</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10867,15 +11436,18 @@
       <c r="T128" s="2">
         <v>0</v>
       </c>
-      <c r="U128" s="2">
+      <c r="U128" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V128" s="2">
         <v>170</v>
       </c>
-      <c r="V128" s="4">
+      <c r="W128" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -10942,15 +11514,18 @@
       <c r="T129" s="2">
         <v>0</v>
       </c>
-      <c r="U129" s="2">
-        <v>0</v>
-      </c>
-      <c r="V129" s="4">
+      <c r="U129" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V129" s="2">
+        <v>0</v>
+      </c>
+      <c r="W129" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>2632</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11017,15 +11592,18 @@
       <c r="T130" s="2">
         <v>0</v>
       </c>
-      <c r="U130" s="2">
-        <v>0</v>
-      </c>
-      <c r="V130" s="4">
-        <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U130" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V130" s="2">
+        <v>0</v>
+      </c>
+      <c r="W130" s="4">
+        <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11092,15 +11670,18 @@
       <c r="T131" s="2">
         <v>0</v>
       </c>
-      <c r="U131" s="2">
-        <v>0</v>
-      </c>
-      <c r="V131" s="4">
-        <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U131" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V131" s="2">
+        <v>0</v>
+      </c>
+      <c r="W131" s="4">
+        <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11167,15 +11748,18 @@
       <c r="T132" s="2">
         <v>0</v>
       </c>
-      <c r="U132" s="2">
+      <c r="U132" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V132" s="2">
         <v>2480</v>
       </c>
-      <c r="V132" s="4">
+      <c r="W132" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>3363</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11242,15 +11826,18 @@
       <c r="T133" s="2">
         <v>0</v>
       </c>
-      <c r="U133" s="2">
+      <c r="U133" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V133" s="2">
         <v>2480</v>
       </c>
-      <c r="V133" s="4">
+      <c r="W133" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>16213</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11317,15 +11904,18 @@
       <c r="T134" s="2">
         <v>0</v>
       </c>
-      <c r="U134" s="2">
-        <v>0</v>
-      </c>
-      <c r="V134" s="4">
+      <c r="U134" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V134" s="2">
+        <v>0</v>
+      </c>
+      <c r="W134" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>696</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11392,15 +11982,18 @@
       <c r="T135" s="2">
         <v>0</v>
       </c>
-      <c r="U135" s="2">
+      <c r="U135" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V135" s="2">
         <v>560</v>
       </c>
-      <c r="V135" s="4">
+      <c r="W135" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>2725</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11467,15 +12060,18 @@
       <c r="T136" s="2">
         <v>0</v>
       </c>
-      <c r="U136" s="2">
-        <v>0</v>
-      </c>
-      <c r="V136" s="4">
+      <c r="U136" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V136" s="2">
+        <v>0</v>
+      </c>
+      <c r="W136" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>772</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11542,15 +12138,18 @@
       <c r="T137" s="2">
         <v>0</v>
       </c>
-      <c r="U137" s="2">
-        <v>0</v>
-      </c>
-      <c r="V137" s="4">
+      <c r="U137" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V137" s="2">
+        <v>0</v>
+      </c>
+      <c r="W137" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>770</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11617,15 +12216,18 @@
       <c r="T138" s="2">
         <v>0</v>
       </c>
-      <c r="U138" s="2">
-        <v>0</v>
-      </c>
-      <c r="V138" s="4">
+      <c r="U138" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V138" s="2">
+        <v>0</v>
+      </c>
+      <c r="W138" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>960</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11692,15 +12294,18 @@
       <c r="T139" s="2">
         <v>0</v>
       </c>
-      <c r="U139" s="2">
+      <c r="U139" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V139" s="2">
         <v>225</v>
       </c>
-      <c r="V139" s="4">
+      <c r="W139" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>1591</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11767,15 +12372,18 @@
       <c r="T140" s="2">
         <v>0</v>
       </c>
-      <c r="U140" s="2">
+      <c r="U140" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V140" s="2">
         <v>5472.5</v>
       </c>
-      <c r="V140" s="4">
+      <c r="W140" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>8967.5</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11842,15 +12450,18 @@
       <c r="T141" s="2">
         <v>0</v>
       </c>
-      <c r="U141" s="2">
-        <v>0</v>
-      </c>
-      <c r="V141" s="4">
+      <c r="U141" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V141" s="2">
+        <v>0</v>
+      </c>
+      <c r="W141" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>961</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11917,15 +12528,18 @@
       <c r="T142" s="2">
         <v>0</v>
       </c>
-      <c r="U142" s="2">
+      <c r="U142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V142" s="2">
         <v>1232.5</v>
       </c>
-      <c r="V142" s="4">
+      <c r="W142" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>5537.5</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -11992,15 +12606,18 @@
       <c r="T143" s="2">
         <v>0</v>
       </c>
-      <c r="U143" s="2">
-        <v>0</v>
-      </c>
-      <c r="V143" s="4">
-        <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U143" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V143" s="2">
+        <v>0</v>
+      </c>
+      <c r="W143" s="4">
+        <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -12067,15 +12684,18 @@
       <c r="T144" s="2">
         <v>0</v>
       </c>
-      <c r="U144" s="2">
-        <v>0</v>
-      </c>
-      <c r="V144" s="4">
+      <c r="U144" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V144" s="2">
+        <v>0</v>
+      </c>
+      <c r="W144" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>729</v>
       </c>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -12142,15 +12762,18 @@
       <c r="T145" s="2">
         <v>0</v>
       </c>
-      <c r="U145" s="2">
-        <v>0</v>
-      </c>
-      <c r="V145" s="4">
+      <c r="U145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V145" s="2">
+        <v>0</v>
+      </c>
+      <c r="W145" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>502</v>
       </c>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -12217,15 +12840,18 @@
       <c r="T146" s="2">
         <v>0</v>
       </c>
-      <c r="U146" s="2">
-        <v>0</v>
-      </c>
-      <c r="V146" s="4">
+      <c r="U146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V146" s="2">
+        <v>0</v>
+      </c>
+      <c r="W146" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -12292,15 +12918,18 @@
       <c r="T147" s="2">
         <v>0</v>
       </c>
-      <c r="U147" s="2">
-        <v>0</v>
-      </c>
-      <c r="V147" s="4">
-        <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U147" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V147" s="2">
+        <v>0</v>
+      </c>
+      <c r="W147" s="4">
+        <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -12367,15 +12996,18 @@
       <c r="T148" s="2">
         <v>0</v>
       </c>
-      <c r="U148" s="2">
+      <c r="U148" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V148" s="2">
         <v>6830</v>
       </c>
-      <c r="V148" s="4">
+      <c r="W148" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>655</v>
       </c>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -12442,15 +13074,18 @@
       <c r="T149" s="2">
         <v>0</v>
       </c>
-      <c r="U149" s="2">
-        <v>0</v>
-      </c>
-      <c r="V149" s="4">
+      <c r="U149" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V149" s="2">
+        <v>0</v>
+      </c>
+      <c r="W149" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>350</v>
       </c>
     </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -12517,15 +13152,18 @@
       <c r="T150" s="2">
         <v>0</v>
       </c>
-      <c r="U150" s="2">
-        <v>0</v>
-      </c>
-      <c r="V150" s="4">
+      <c r="U150" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V150" s="2">
+        <v>0</v>
+      </c>
+      <c r="W150" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>880</v>
       </c>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -12592,15 +13230,18 @@
       <c r="T151" s="2">
         <v>0</v>
       </c>
-      <c r="U151" s="2">
-        <v>0</v>
-      </c>
-      <c r="V151" s="4">
+      <c r="U151" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V151" s="2">
+        <v>0</v>
+      </c>
+      <c r="W151" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>997</v>
       </c>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -12667,15 +13308,18 @@
       <c r="T152" s="2">
         <v>0</v>
       </c>
-      <c r="U152" s="2">
+      <c r="U152" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V152" s="2">
         <v>1000</v>
       </c>
-      <c r="V152" s="4">
+      <c r="W152" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>328</v>
       </c>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -12742,15 +13386,18 @@
       <c r="T153" s="2">
         <v>15463</v>
       </c>
-      <c r="U153" s="2">
+      <c r="U153" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V153" s="2">
         <v>19355</v>
       </c>
-      <c r="V153" s="4">
+      <c r="W153" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>-2993</v>
       </c>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2023</v>
@@ -12817,15 +13464,18 @@
       <c r="T154" s="2">
         <v>0</v>
       </c>
-      <c r="U154" s="2">
-        <v>0</v>
-      </c>
-      <c r="V154" s="4">
-        <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U154" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V154" s="2">
+        <v>0</v>
+      </c>
+      <c r="W154" s="4">
+        <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A155" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -12892,15 +13542,18 @@
       <c r="T155" s="2">
         <v>0</v>
       </c>
-      <c r="U155" s="2">
+      <c r="U155" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V155" s="2">
         <v>5993</v>
       </c>
-      <c r="V155" s="4">
+      <c r="W155" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>13082</v>
       </c>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -12967,15 +13620,18 @@
       <c r="T156" s="2">
         <v>0</v>
       </c>
-      <c r="U156" s="2">
+      <c r="U156" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V156" s="2">
         <v>1230</v>
       </c>
-      <c r="V156" s="4">
+      <c r="W156" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>5453</v>
       </c>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A157" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13042,15 +13698,18 @@
       <c r="T157" s="2">
         <v>0</v>
       </c>
-      <c r="U157" s="2">
+      <c r="U157" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V157" s="2">
         <v>1042</v>
       </c>
-      <c r="V157" s="4">
+      <c r="W157" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>7418</v>
       </c>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13117,15 +13776,18 @@
       <c r="T158" s="2">
         <v>0</v>
       </c>
-      <c r="U158" s="2">
+      <c r="U158" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V158" s="2">
         <v>1042</v>
       </c>
-      <c r="V158" s="4">
+      <c r="W158" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>7418</v>
       </c>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13192,15 +13854,18 @@
       <c r="T159" s="2">
         <v>0</v>
       </c>
-      <c r="U159" s="2">
+      <c r="U159" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V159" s="2">
         <v>353</v>
       </c>
-      <c r="V159" s="4">
+      <c r="W159" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>-353</v>
       </c>
     </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13267,15 +13932,18 @@
       <c r="T160" s="2">
         <v>17430</v>
       </c>
-      <c r="U160" s="2">
+      <c r="U160" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V160" s="2">
         <v>22470</v>
       </c>
-      <c r="V160" s="4">
+      <c r="W160" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>1393</v>
       </c>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A161" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13342,15 +14010,18 @@
       <c r="T161" s="2">
         <v>0</v>
       </c>
-      <c r="U161" s="2">
+      <c r="U161" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V161" s="2">
         <v>2400</v>
       </c>
-      <c r="V161" s="4">
+      <c r="W161" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>4824</v>
       </c>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13417,15 +14088,18 @@
       <c r="T162" s="2">
         <v>0</v>
       </c>
-      <c r="U162" s="2">
-        <v>0</v>
-      </c>
-      <c r="V162" s="4">
+      <c r="U162" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V162" s="2">
+        <v>0</v>
+      </c>
+      <c r="W162" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>1184</v>
       </c>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A163" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13492,15 +14166,18 @@
       <c r="T163" s="2">
         <v>0</v>
       </c>
-      <c r="U163" s="2">
+      <c r="U163" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V163" s="2">
         <v>2000</v>
       </c>
-      <c r="V163" s="4">
+      <c r="W163" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>2090</v>
       </c>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13567,15 +14244,18 @@
       <c r="T164" s="2">
         <v>0</v>
       </c>
-      <c r="U164" s="2">
-        <v>0</v>
-      </c>
-      <c r="V164" s="4">
+      <c r="U164" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V164" s="2">
+        <v>0</v>
+      </c>
+      <c r="W164" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>308</v>
       </c>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A165" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13642,15 +14322,18 @@
       <c r="T165" s="2">
         <v>0</v>
       </c>
-      <c r="U165" s="2">
-        <v>0</v>
-      </c>
-      <c r="V165" s="4">
+      <c r="U165" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V165" s="2">
+        <v>0</v>
+      </c>
+      <c r="W165" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>640</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A166" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13717,15 +14400,18 @@
       <c r="T166" s="2">
         <v>0</v>
       </c>
-      <c r="U166" s="2">
-        <v>0</v>
-      </c>
-      <c r="V166" s="4">
+      <c r="U166" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V166" s="2">
+        <v>0</v>
+      </c>
+      <c r="W166" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>793</v>
       </c>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A167" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13792,15 +14478,18 @@
       <c r="T167" s="2">
         <v>0</v>
       </c>
-      <c r="U167" s="2">
+      <c r="U167" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V167" s="2">
         <v>1200</v>
       </c>
-      <c r="V167" s="4">
+      <c r="W167" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>-864</v>
       </c>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A168" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13867,15 +14556,18 @@
       <c r="T168" s="2">
         <v>0</v>
       </c>
-      <c r="U168" s="2">
+      <c r="U168" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V168" s="2">
         <v>11819</v>
       </c>
-      <c r="V168" s="4">
+      <c r="W168" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>6111</v>
       </c>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A169" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -13942,15 +14634,18 @@
       <c r="T169" s="2">
         <v>0</v>
       </c>
-      <c r="U169" s="2">
+      <c r="U169" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V169" s="2">
         <v>100</v>
       </c>
-      <c r="V169" s="4">
+      <c r="W169" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>2951</v>
       </c>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A170" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14017,15 +14712,18 @@
       <c r="T170" s="2">
         <v>0</v>
       </c>
-      <c r="U170" s="2">
+      <c r="U170" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V170" s="2">
         <v>1050</v>
       </c>
-      <c r="V170" s="4">
+      <c r="W170" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>4979</v>
       </c>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A171" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14092,15 +14790,18 @@
       <c r="T171" s="2">
         <v>0</v>
       </c>
-      <c r="U171" s="2">
+      <c r="U171" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V171" s="2">
         <v>1012</v>
       </c>
-      <c r="V171" s="4">
+      <c r="W171" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>8128</v>
       </c>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A172" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14167,15 +14868,18 @@
       <c r="T172" s="2">
         <v>0</v>
       </c>
-      <c r="U172" s="2">
-        <v>0</v>
-      </c>
-      <c r="V172" s="4">
+      <c r="U172" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V172" s="2">
+        <v>0</v>
+      </c>
+      <c r="W172" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>3795</v>
       </c>
     </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14242,15 +14946,18 @@
       <c r="T173" s="2">
         <v>0</v>
       </c>
-      <c r="U173" s="2">
-        <v>0</v>
-      </c>
-      <c r="V173" s="4">
+      <c r="U173" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V173" s="2">
+        <v>0</v>
+      </c>
+      <c r="W173" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>3504</v>
       </c>
     </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A174" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14317,15 +15024,18 @@
       <c r="T174" s="2">
         <v>8315.2000000000007</v>
       </c>
-      <c r="U174" s="2">
+      <c r="U174" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V174" s="2">
         <v>9215.2000000000007</v>
       </c>
-      <c r="V174" s="4">
+      <c r="W174" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>10797.8</v>
       </c>
     </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A175" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14392,15 +15102,18 @@
       <c r="T175" s="2">
         <v>0</v>
       </c>
-      <c r="U175" s="2">
+      <c r="U175" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V175" s="2">
         <v>2469</v>
       </c>
-      <c r="V175" s="4">
+      <c r="W175" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>32826</v>
       </c>
     </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A176" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14467,15 +15180,18 @@
       <c r="T176" s="2">
         <v>0</v>
       </c>
-      <c r="U176" s="2">
+      <c r="U176" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V176" s="2">
         <v>4900</v>
       </c>
-      <c r="V176" s="4">
+      <c r="W176" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>3877</v>
       </c>
     </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A177" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14542,15 +15258,18 @@
       <c r="T177" s="2">
         <v>0</v>
       </c>
-      <c r="U177" s="2">
+      <c r="U177" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V177" s="2">
         <v>2280</v>
       </c>
-      <c r="V177" s="4">
+      <c r="W177" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>5090</v>
       </c>
     </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A178" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14617,15 +15336,18 @@
       <c r="T178" s="2">
         <v>0</v>
       </c>
-      <c r="U178" s="2">
+      <c r="U178" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V178" s="2">
         <v>3137</v>
       </c>
-      <c r="V178" s="4">
+      <c r="W178" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>2393</v>
       </c>
     </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A179" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14692,15 +15414,18 @@
       <c r="T179" s="2">
         <v>0</v>
       </c>
-      <c r="U179" s="2">
+      <c r="U179" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V179" s="2">
         <v>954.5</v>
       </c>
-      <c r="V179" s="4">
+      <c r="W179" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>5305.5</v>
       </c>
     </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A180" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14767,15 +15492,18 @@
       <c r="T180" s="2">
         <v>0</v>
       </c>
-      <c r="U180" s="2">
-        <v>0</v>
-      </c>
-      <c r="V180" s="4">
+      <c r="U180" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V180" s="2">
+        <v>0</v>
+      </c>
+      <c r="W180" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>7250</v>
       </c>
     </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A181" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14842,15 +15570,18 @@
       <c r="T181" s="2">
         <v>20497.2</v>
       </c>
-      <c r="U181" s="2">
+      <c r="U181" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V181" s="2">
         <v>33570.839999999997</v>
       </c>
-      <c r="V181" s="4">
+      <c r="W181" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>1461.1600000000035</v>
       </c>
     </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A182" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14917,15 +15648,18 @@
       <c r="T182" s="2">
         <v>0</v>
       </c>
-      <c r="U182" s="2">
+      <c r="U182" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V182" s="2">
         <v>21698</v>
       </c>
-      <c r="V182" s="4">
+      <c r="W182" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>51682</v>
       </c>
     </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A183" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -14992,15 +15726,18 @@
       <c r="T183" s="2">
         <v>0</v>
       </c>
-      <c r="U183" s="2">
+      <c r="U183" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V183" s="2">
         <v>2193</v>
       </c>
-      <c r="V183" s="4">
+      <c r="W183" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>5746</v>
       </c>
     </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A184" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15067,15 +15804,18 @@
       <c r="T184" s="2">
         <v>0</v>
       </c>
-      <c r="U184" s="2">
+      <c r="U184" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V184" s="2">
         <v>6700</v>
       </c>
-      <c r="V184" s="4">
+      <c r="W184" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>2340</v>
       </c>
     </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A185" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15142,15 +15882,18 @@
       <c r="T185" s="2">
         <v>0</v>
       </c>
-      <c r="U185" s="2">
+      <c r="U185" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V185" s="2">
         <v>3791</v>
       </c>
-      <c r="V185" s="4">
+      <c r="W185" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>7354</v>
       </c>
     </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A186" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15217,15 +15960,18 @@
       <c r="T186" s="2">
         <v>0</v>
       </c>
-      <c r="U186" s="2">
+      <c r="U186" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V186" s="2">
         <v>295</v>
       </c>
-      <c r="V186" s="4">
+      <c r="W186" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>6600</v>
       </c>
     </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A187" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15292,15 +16038,18 @@
       <c r="T187" s="2">
         <v>0</v>
       </c>
-      <c r="U187" s="2">
+      <c r="U187" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V187" s="2">
         <v>1225.8</v>
       </c>
-      <c r="V187" s="4">
+      <c r="W187" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>3418.2</v>
       </c>
     </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A188" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15367,15 +16116,18 @@
       <c r="T188" s="2">
         <v>27818</v>
       </c>
-      <c r="U188" s="2">
+      <c r="U188" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V188" s="2">
         <v>41035</v>
       </c>
-      <c r="V188" s="4">
+      <c r="W188" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>2245</v>
       </c>
     </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15442,15 +16194,18 @@
       <c r="T189" s="2">
         <v>0</v>
       </c>
-      <c r="U189" s="2">
+      <c r="U189" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V189" s="2">
         <v>31802</v>
       </c>
-      <c r="V189" s="4">
+      <c r="W189" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>67223</v>
       </c>
     </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A190" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15517,15 +16272,18 @@
       <c r="T190" s="2">
         <v>0</v>
       </c>
-      <c r="U190" s="2">
+      <c r="U190" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V190" s="2">
         <v>3350</v>
       </c>
-      <c r="V190" s="4">
+      <c r="W190" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>93978</v>
       </c>
     </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A191" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15592,15 +16350,18 @@
       <c r="T191" s="2">
         <v>0</v>
       </c>
-      <c r="U191" s="2">
-        <v>0</v>
-      </c>
-      <c r="V191" s="4">
+      <c r="U191" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V191" s="2">
+        <v>0</v>
+      </c>
+      <c r="W191" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>12790</v>
       </c>
     </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A192" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15667,15 +16428,18 @@
       <c r="T192" s="2">
         <v>0</v>
       </c>
-      <c r="U192" s="2">
+      <c r="U192" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V192" s="2">
         <v>5932</v>
       </c>
-      <c r="V192" s="4">
+      <c r="W192" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>5454</v>
       </c>
     </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A193" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15742,15 +16506,18 @@
       <c r="T193" s="2">
         <v>0</v>
       </c>
-      <c r="U193" s="2">
+      <c r="U193" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V193" s="2">
         <v>3751</v>
       </c>
-      <c r="V193" s="4">
+      <c r="W193" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>5974</v>
       </c>
     </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A194" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15817,15 +16584,18 @@
       <c r="T194" s="2">
         <v>0</v>
       </c>
-      <c r="U194" s="2">
+      <c r="U194" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V194" s="2">
         <v>590.6</v>
       </c>
-      <c r="V194" s="4">
+      <c r="W194" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>11104.4</v>
       </c>
     </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A195" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15892,15 +16662,18 @@
       <c r="T195" s="2">
         <v>37542.199999999997</v>
       </c>
-      <c r="U195" s="2">
+      <c r="U195" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V195" s="2">
         <v>42138.6</v>
       </c>
-      <c r="V195" s="4">
+      <c r="W195" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>17171.400000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A196" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -15967,15 +16740,18 @@
       <c r="T196" s="2">
         <v>0</v>
       </c>
-      <c r="U196" s="2">
+      <c r="U196" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V196" s="2">
         <v>6904</v>
       </c>
-      <c r="V196" s="4">
+      <c r="W196" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>65091</v>
       </c>
     </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A197" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16042,15 +16818,18 @@
       <c r="T197" s="2">
         <v>0</v>
       </c>
-      <c r="U197" s="2">
+      <c r="U197" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V197" s="2">
         <v>3460</v>
       </c>
-      <c r="V197" s="4">
+      <c r="W197" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>3280</v>
       </c>
     </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A198" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16117,15 +16896,18 @@
       <c r="T198" s="2">
         <v>0</v>
       </c>
-      <c r="U198" s="2">
+      <c r="U198" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V198" s="2">
         <v>1915</v>
       </c>
-      <c r="V198" s="4">
+      <c r="W198" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>3885</v>
       </c>
     </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A199" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16192,15 +16974,18 @@
       <c r="T199" s="2">
         <v>0</v>
       </c>
-      <c r="U199" s="2">
+      <c r="U199" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V199" s="2">
         <v>2452.6</v>
       </c>
-      <c r="V199" s="4">
+      <c r="W199" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>7510.4</v>
       </c>
     </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A200" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16267,15 +17052,18 @@
       <c r="T200" s="2">
         <v>0</v>
       </c>
-      <c r="U200" s="2">
-        <v>0</v>
-      </c>
-      <c r="V200" s="4">
+      <c r="U200" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V200" s="2">
+        <v>0</v>
+      </c>
+      <c r="W200" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>3181</v>
       </c>
     </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A201" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16342,15 +17130,18 @@
       <c r="T201" s="2">
         <v>0</v>
       </c>
-      <c r="U201" s="2">
+      <c r="U201" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V201" s="2">
         <v>2504.5</v>
       </c>
-      <c r="V201" s="4">
+      <c r="W201" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>-2504.5</v>
       </c>
     </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A202" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16417,15 +17208,18 @@
       <c r="T202" s="2">
         <v>30872.799999999999</v>
       </c>
-      <c r="U202" s="2">
+      <c r="U202" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V202" s="2">
         <v>37177.300000000003</v>
       </c>
-      <c r="V202" s="4">
+      <c r="W202" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>-3947.8000000000029</v>
       </c>
     </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A203" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16492,15 +17286,18 @@
       <c r="T203" s="2">
         <v>0</v>
       </c>
-      <c r="U203" s="2">
+      <c r="U203" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V203" s="2">
         <v>9611.7999999999993</v>
       </c>
-      <c r="V203" s="4">
+      <c r="W203" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>13603.2</v>
       </c>
     </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A204" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16567,15 +17364,18 @@
       <c r="T204" s="2">
         <v>0</v>
       </c>
-      <c r="U204" s="2">
-        <v>0</v>
-      </c>
-      <c r="V204" s="4">
+      <c r="U204" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V204" s="2">
+        <v>0</v>
+      </c>
+      <c r="W204" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>14214</v>
       </c>
     </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A205" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16642,15 +17442,18 @@
       <c r="T205" s="2">
         <v>0</v>
       </c>
-      <c r="U205" s="2">
+      <c r="U205" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V205" s="2">
         <v>8824</v>
       </c>
-      <c r="V205" s="4">
+      <c r="W205" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>-2048</v>
       </c>
     </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A206" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16717,15 +17520,18 @@
       <c r="T206" s="2">
         <v>0</v>
       </c>
-      <c r="U206" s="2">
+      <c r="U206" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V206" s="2">
         <v>7087.5</v>
       </c>
-      <c r="V206" s="4">
+      <c r="W206" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>-247.5</v>
       </c>
     </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A207" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16792,15 +17598,18 @@
       <c r="T207" s="2">
         <v>0</v>
       </c>
-      <c r="U207" s="2">
+      <c r="U207" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V207" s="2">
         <v>1564.5</v>
       </c>
-      <c r="V207" s="4">
+      <c r="W207" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>8100.5</v>
       </c>
     </row>
-    <row r="208" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A208" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16867,15 +17676,18 @@
       <c r="T208" s="2">
         <v>0</v>
       </c>
-      <c r="U208" s="2">
+      <c r="U208" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V208" s="2">
         <v>3500</v>
       </c>
-      <c r="V208" s="4">
+      <c r="W208" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>15807</v>
       </c>
     </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A209" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -16942,15 +17754,18 @@
       <c r="T209" s="2">
         <v>32797.4</v>
       </c>
-      <c r="U209" s="2">
+      <c r="U209" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V209" s="2">
         <v>40222.400000000001</v>
       </c>
-      <c r="V209" s="4">
+      <c r="W209" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>22665.1</v>
       </c>
     </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A210" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17017,15 +17832,18 @@
       <c r="T210" s="2">
         <v>0</v>
       </c>
-      <c r="U210" s="2">
+      <c r="U210" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V210" s="2">
         <v>22056</v>
       </c>
-      <c r="V210" s="4">
+      <c r="W210" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>115839</v>
       </c>
     </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A211" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17092,15 +17910,18 @@
       <c r="T211" s="2">
         <v>0</v>
       </c>
-      <c r="U211" s="2">
+      <c r="U211" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V211" s="2">
         <v>6430</v>
       </c>
-      <c r="V211" s="4">
+      <c r="W211" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>34440</v>
       </c>
     </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A212" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17167,15 +17988,18 @@
       <c r="T212" s="2">
         <v>0</v>
       </c>
-      <c r="U212" s="2">
+      <c r="U212" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V212" s="2">
         <v>7602</v>
       </c>
-      <c r="V212" s="4">
+      <c r="W212" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>20040</v>
       </c>
     </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A213" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17242,15 +18066,18 @@
       <c r="T213" s="2">
         <v>0</v>
       </c>
-      <c r="U213" s="2">
+      <c r="U213" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V213" s="2">
         <v>5842</v>
       </c>
-      <c r="V213" s="4">
+      <c r="W213" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>36918</v>
       </c>
     </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A214" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17317,15 +18144,18 @@
       <c r="T214" s="2">
         <v>0</v>
       </c>
-      <c r="U214" s="2">
+      <c r="U214" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V214" s="2">
         <v>253</v>
       </c>
-      <c r="V214" s="4">
+      <c r="W214" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>19022</v>
       </c>
     </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A215" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17392,15 +18222,18 @@
       <c r="T215" s="2">
         <v>0</v>
       </c>
-      <c r="U215" s="2">
+      <c r="U215" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V215" s="2">
         <v>1100</v>
       </c>
-      <c r="V215" s="4">
+      <c r="W215" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>33999</v>
       </c>
     </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A216" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17467,15 +18300,18 @@
       <c r="T216" s="2">
         <v>32764.400000000001</v>
       </c>
-      <c r="U216" s="2">
+      <c r="U216" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V216" s="2">
         <v>38030.080000000002</v>
       </c>
-      <c r="V216" s="4">
+      <c r="W216" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>72391.92</v>
       </c>
     </row>
-    <row r="217" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A217" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17542,15 +18378,18 @@
       <c r="T217" s="2">
         <v>0</v>
       </c>
-      <c r="U217" s="2">
+      <c r="U217" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V217" s="2">
         <v>11430</v>
       </c>
-      <c r="V217" s="4">
+      <c r="W217" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>255945</v>
       </c>
     </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A218" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17617,15 +18456,18 @@
       <c r="T218" s="2">
         <v>0</v>
       </c>
-      <c r="U218" s="2">
+      <c r="U218" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V218" s="2">
         <v>12314</v>
       </c>
-      <c r="V218" s="4">
+      <c r="W218" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>45806</v>
       </c>
     </row>
-    <row r="219" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A219" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17692,15 +18534,18 @@
       <c r="T219" s="2">
         <v>0</v>
       </c>
-      <c r="U219" s="2">
+      <c r="U219" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V219" s="2">
         <v>7787</v>
       </c>
-      <c r="V219" s="4">
+      <c r="W219" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>34608</v>
       </c>
     </row>
-    <row r="220" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A220" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17767,15 +18612,18 @@
       <c r="T220" s="2">
         <v>0</v>
       </c>
-      <c r="U220" s="2">
+      <c r="U220" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V220" s="2">
         <v>8442</v>
       </c>
-      <c r="V220" s="4">
+      <c r="W220" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>40295</v>
       </c>
     </row>
-    <row r="221" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A221" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17842,15 +18690,18 @@
       <c r="T221" s="2">
         <v>0</v>
       </c>
-      <c r="U221" s="2">
+      <c r="U221" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V221" s="2">
         <v>925</v>
       </c>
-      <c r="V221" s="4">
+      <c r="W221" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>17685</v>
       </c>
     </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A222" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17917,15 +18768,18 @@
       <c r="T222" s="2">
         <v>0</v>
       </c>
-      <c r="U222" s="2">
+      <c r="U222" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V222" s="2">
         <v>849</v>
       </c>
-      <c r="V222" s="4">
+      <c r="W222" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>53226</v>
       </c>
     </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A223" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -17992,15 +18846,18 @@
       <c r="T223" s="2">
         <v>33533.800000000003</v>
       </c>
-      <c r="U223" s="2">
+      <c r="U223" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V223" s="2">
         <v>46178.8</v>
       </c>
-      <c r="V223" s="4">
+      <c r="W223" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>82875.199999999997</v>
       </c>
     </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A224" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18067,15 +18924,18 @@
       <c r="T224" s="2">
         <v>0</v>
       </c>
-      <c r="U224" s="2">
+      <c r="U224" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V224" s="2">
         <v>7740</v>
       </c>
-      <c r="V224" s="4">
+      <c r="W224" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>269670</v>
       </c>
     </row>
-    <row r="225" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A225" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18142,15 +19002,18 @@
       <c r="T225" s="2">
         <v>0</v>
       </c>
-      <c r="U225" s="2">
+      <c r="U225" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V225" s="2">
         <v>11396</v>
       </c>
-      <c r="V225" s="4">
+      <c r="W225" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>40104</v>
       </c>
     </row>
-    <row r="226" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A226" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18217,15 +19080,18 @@
       <c r="T226" s="2">
         <v>0</v>
       </c>
-      <c r="U226" s="2">
+      <c r="U226" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V226" s="2">
         <v>8963.5</v>
       </c>
-      <c r="V226" s="4">
+      <c r="W226" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>35160.5</v>
       </c>
     </row>
-    <row r="227" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A227" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18292,15 +19158,18 @@
       <c r="T227" s="2">
         <v>0</v>
       </c>
-      <c r="U227" s="2">
+      <c r="U227" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V227" s="2">
         <v>8280</v>
       </c>
-      <c r="V227" s="4">
+      <c r="W227" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>37570</v>
       </c>
     </row>
-    <row r="228" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A228" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18367,15 +19236,18 @@
       <c r="T228" s="2">
         <v>0</v>
       </c>
-      <c r="U228" s="2">
+      <c r="U228" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V228" s="2">
         <v>5850</v>
       </c>
-      <c r="V228" s="4">
+      <c r="W228" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>32900</v>
       </c>
     </row>
-    <row r="229" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A229" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18442,15 +19314,18 @@
       <c r="T229" s="2">
         <v>0</v>
       </c>
-      <c r="U229" s="2">
+      <c r="U229" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V229" s="2">
         <v>2025</v>
       </c>
-      <c r="V229" s="4">
+      <c r="W229" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>98970</v>
       </c>
     </row>
-    <row r="230" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A230" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18517,15 +19392,18 @@
       <c r="T230" s="2">
         <v>0</v>
       </c>
-      <c r="U230" s="2">
+      <c r="U230" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V230" s="2">
         <v>72461.8</v>
       </c>
-      <c r="V230" s="4">
+      <c r="W230" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>73397.2</v>
       </c>
     </row>
-    <row r="231" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A231" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18592,15 +19470,18 @@
       <c r="T231" s="2">
         <v>0</v>
       </c>
-      <c r="U231" s="2">
+      <c r="U231" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V231" s="2">
         <v>11495</v>
       </c>
-      <c r="V231" s="4">
+      <c r="W231" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>478815</v>
       </c>
     </row>
-    <row r="232" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A232" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18667,15 +19548,18 @@
       <c r="T232" s="2">
         <v>0</v>
       </c>
-      <c r="U232" s="2">
+      <c r="U232" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V232" s="2">
         <v>25435</v>
       </c>
-      <c r="V232" s="4">
+      <c r="W232" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>484910</v>
       </c>
     </row>
-    <row r="233" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A233" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18742,15 +19626,18 @@
       <c r="T233" s="2">
         <v>0</v>
       </c>
-      <c r="U233" s="2">
+      <c r="U233" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V233" s="2">
         <v>6854</v>
       </c>
-      <c r="V233" s="4">
+      <c r="W233" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>55543</v>
       </c>
     </row>
-    <row r="234" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A234" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18817,15 +19704,18 @@
       <c r="T234" s="2">
         <v>0</v>
       </c>
-      <c r="U234" s="2">
+      <c r="U234" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V234" s="2">
         <v>23578</v>
       </c>
-      <c r="V234" s="4">
+      <c r="W234" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>22312</v>
       </c>
     </row>
-    <row r="235" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A235" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18892,15 +19782,18 @@
       <c r="T235" s="2">
         <v>0</v>
       </c>
-      <c r="U235" s="2">
+      <c r="U235" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V235" s="2">
         <v>13995</v>
       </c>
-      <c r="V235" s="4">
+      <c r="W235" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>21910</v>
       </c>
     </row>
-    <row r="236" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A236" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -18967,15 +19860,18 @@
       <c r="T236" s="2">
         <v>0</v>
       </c>
-      <c r="U236" s="2">
+      <c r="U236" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V236" s="2">
         <v>1584</v>
       </c>
-      <c r="V236" s="4">
+      <c r="W236" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>73362</v>
       </c>
     </row>
-    <row r="237" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A237" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19042,15 +19938,18 @@
       <c r="T237" s="2">
         <v>46502.9</v>
       </c>
-      <c r="U237" s="2">
+      <c r="U237" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V237" s="2">
         <v>62285.9</v>
       </c>
-      <c r="V237" s="4">
+      <c r="W237" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>75624.600000000006</v>
       </c>
     </row>
-    <row r="238" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A238" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19117,15 +20016,18 @@
       <c r="T238" s="2">
         <v>0</v>
       </c>
-      <c r="U238" s="2">
+      <c r="U238" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="V238" s="2">
         <v>22862</v>
       </c>
-      <c r="V238" s="4">
+      <c r="W238" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>225933</v>
       </c>
     </row>
-    <row r="239" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A239" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19192,15 +20094,18 @@
       <c r="T239" s="2">
         <v>0</v>
       </c>
-      <c r="U239" s="2">
+      <c r="U239" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="V239" s="2">
         <v>6361</v>
       </c>
-      <c r="V239" s="4">
+      <c r="W239" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>132694</v>
       </c>
     </row>
-    <row r="240" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A240" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19267,15 +20172,18 @@
       <c r="T240" s="2">
         <v>0</v>
       </c>
-      <c r="U240" s="2">
+      <c r="U240" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="V240" s="2">
         <v>14965</v>
       </c>
-      <c r="V240" s="4">
+      <c r="W240" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>118145</v>
       </c>
     </row>
-    <row r="241" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A241" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19342,15 +20250,18 @@
       <c r="T241" s="2">
         <v>0</v>
       </c>
-      <c r="U241" s="2">
+      <c r="U241" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="V241" s="2">
         <v>6185</v>
       </c>
-      <c r="V241" s="4">
+      <c r="W241" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>184765</v>
       </c>
     </row>
-    <row r="242" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A242" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19417,15 +20328,18 @@
       <c r="T242" s="2">
         <v>0</v>
       </c>
-      <c r="U242" s="2">
+      <c r="U242" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="V242" s="2">
         <v>11825</v>
       </c>
-      <c r="V242" s="4">
+      <c r="W242" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>364315</v>
       </c>
     </row>
-    <row r="243" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A243" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19492,15 +20406,18 @@
       <c r="T243" s="2">
         <v>0</v>
       </c>
-      <c r="U243" s="2">
+      <c r="U243" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="V243" s="2">
         <v>27100</v>
       </c>
-      <c r="V243" s="4">
+      <c r="W243" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>751955</v>
       </c>
     </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A244" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19567,15 +20484,18 @@
       <c r="T244" s="2">
         <v>43132.6</v>
       </c>
-      <c r="U244" s="2">
+      <c r="U244" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="V244" s="2">
         <v>56857.599999999999</v>
       </c>
-      <c r="V244" s="4">
+      <c r="W244" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>752151.9</v>
       </c>
     </row>
-    <row r="245" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A245" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19642,15 +20562,18 @@
       <c r="T245" s="2">
         <v>0</v>
       </c>
-      <c r="U245" s="2">
+      <c r="U245" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V245" s="2">
         <v>24070</v>
       </c>
-      <c r="V245" s="4">
+      <c r="W245" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>578521</v>
       </c>
     </row>
-    <row r="246" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A246" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19717,15 +20640,18 @@
       <c r="T246" s="2">
         <v>0</v>
       </c>
-      <c r="U246" s="2">
+      <c r="U246" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V246" s="2">
         <v>26796</v>
       </c>
-      <c r="V246" s="4">
+      <c r="W246" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>190504</v>
       </c>
     </row>
-    <row r="247" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A247" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19792,15 +20718,18 @@
       <c r="T247" s="2">
         <v>0</v>
       </c>
-      <c r="U247" s="2">
+      <c r="U247" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V247" s="2">
         <v>19299</v>
       </c>
-      <c r="V247" s="4">
+      <c r="W247" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>231391</v>
       </c>
     </row>
-    <row r="248" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A248" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19867,15 +20796,18 @@
       <c r="T248" s="2">
         <v>0</v>
       </c>
-      <c r="U248" s="2">
+      <c r="U248" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V248" s="2">
         <v>13494</v>
       </c>
-      <c r="V248" s="4">
+      <c r="W248" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>209206</v>
       </c>
     </row>
-    <row r="249" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A249" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -19942,15 +20874,18 @@
       <c r="T249" s="2">
         <v>0</v>
       </c>
-      <c r="U249" s="2">
+      <c r="U249" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V249" s="2">
         <v>7970</v>
       </c>
-      <c r="V249" s="4">
+      <c r="W249" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>172182</v>
       </c>
     </row>
-    <row r="250" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A250" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20017,15 +20952,18 @@
       <c r="T250" s="2">
         <v>0</v>
       </c>
-      <c r="U250" s="2">
+      <c r="U250" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V250" s="2">
         <v>23019</v>
       </c>
-      <c r="V250" s="4">
+      <c r="W250" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>139736</v>
       </c>
     </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A251" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20092,15 +21030,18 @@
       <c r="T251" s="2">
         <v>49190</v>
       </c>
-      <c r="U251" s="2">
+      <c r="U251" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V251" s="2">
         <v>60375</v>
       </c>
-      <c r="V251" s="4">
+      <c r="W251" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>168788</v>
       </c>
     </row>
-    <row r="252" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A252" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20167,15 +21108,18 @@
       <c r="T252" s="2">
         <v>0</v>
       </c>
-      <c r="U252" s="2">
+      <c r="U252" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V252" s="2">
         <v>17903</v>
       </c>
-      <c r="V252" s="4">
+      <c r="W252" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>416742</v>
       </c>
     </row>
-    <row r="253" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A253" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20242,15 +21186,18 @@
       <c r="T253" s="2">
         <v>0</v>
       </c>
-      <c r="U253" s="2">
+      <c r="U253" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V253" s="2">
         <v>2688</v>
       </c>
-      <c r="V253" s="4">
+      <c r="W253" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>46442</v>
       </c>
     </row>
-    <row r="254" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A254" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20317,15 +21264,18 @@
       <c r="T254" s="2">
         <v>0</v>
       </c>
-      <c r="U254" s="2">
+      <c r="U254" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V254" s="2">
         <v>4148</v>
       </c>
-      <c r="V254" s="4">
+      <c r="W254" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>42692</v>
       </c>
     </row>
-    <row r="255" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A255" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20392,15 +21342,18 @@
       <c r="T255" s="2">
         <v>0</v>
       </c>
-      <c r="U255" s="2">
+      <c r="U255" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V255" s="2">
         <v>11339</v>
       </c>
-      <c r="V255" s="4">
+      <c r="W255" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>18186</v>
       </c>
     </row>
-    <row r="256" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A256" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20467,15 +21420,18 @@
       <c r="T256" s="2">
         <v>0</v>
       </c>
-      <c r="U256" s="2">
+      <c r="U256" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V256" s="2">
         <v>3447</v>
       </c>
-      <c r="V256" s="4">
+      <c r="W256" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>43438</v>
       </c>
     </row>
-    <row r="257" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A257" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20542,15 +21498,18 @@
       <c r="T257" s="2">
         <v>0</v>
       </c>
-      <c r="U257" s="2">
+      <c r="U257" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V257" s="2">
         <v>2455</v>
       </c>
-      <c r="V257" s="4">
+      <c r="W257" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>34095</v>
       </c>
     </row>
-    <row r="258" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A258" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20617,15 +21576,18 @@
       <c r="T258" s="2">
         <v>36353.800000000003</v>
       </c>
-      <c r="U258" s="2">
+      <c r="U258" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V258" s="2">
         <v>45477.8</v>
       </c>
-      <c r="V258" s="4">
+      <c r="W258" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>77316.2</v>
       </c>
     </row>
-    <row r="259" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A259" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20692,15 +21654,18 @@
       <c r="T259" s="2">
         <v>0</v>
       </c>
-      <c r="U259" s="2">
+      <c r="U259" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="V259" s="2">
         <v>10855</v>
       </c>
-      <c r="V259" s="4">
+      <c r="W259" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>310090</v>
       </c>
     </row>
-    <row r="260" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A260" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20767,15 +21732,18 @@
       <c r="T260" s="2">
         <v>0</v>
       </c>
-      <c r="U260" s="2">
+      <c r="U260" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="V260" s="2">
         <v>5509</v>
       </c>
-      <c r="V260" s="4">
+      <c r="W260" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>54801</v>
       </c>
     </row>
-    <row r="261" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A261" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20842,15 +21810,18 @@
       <c r="T261" s="2">
         <v>0</v>
       </c>
-      <c r="U261" s="2">
+      <c r="U261" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="V261" s="2">
         <v>1500</v>
       </c>
-      <c r="V261" s="4">
+      <c r="W261" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>67550</v>
       </c>
     </row>
-    <row r="262" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A262" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20917,15 +21888,18 @@
       <c r="T262" s="2">
         <v>0</v>
       </c>
-      <c r="U262" s="2">
+      <c r="U262" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="V262" s="2">
         <v>8462.4</v>
       </c>
-      <c r="V262" s="4">
+      <c r="W262" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>52669.599999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A263" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -20992,15 +21966,18 @@
       <c r="T263" s="2">
         <v>0</v>
       </c>
-      <c r="U263" s="2">
+      <c r="U263" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="V263" s="2">
         <v>2542</v>
       </c>
-      <c r="V263" s="4">
+      <c r="W263" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>35233</v>
       </c>
     </row>
-    <row r="264" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A264" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21067,15 +22044,18 @@
       <c r="T264" s="2">
         <v>0</v>
       </c>
-      <c r="U264" s="2">
+      <c r="U264" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="V264" s="2">
         <v>2642</v>
       </c>
-      <c r="V264" s="4">
+      <c r="W264" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>46033</v>
       </c>
     </row>
-    <row r="265" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A265" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21142,15 +22122,18 @@
       <c r="T265" s="2">
         <v>35573.800000000003</v>
       </c>
-      <c r="U265" s="2">
+      <c r="U265" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="V265" s="2">
         <v>52673.8</v>
       </c>
-      <c r="V265" s="4">
+      <c r="W265" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>126011.2</v>
       </c>
     </row>
-    <row r="266" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A266" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21217,15 +22200,18 @@
       <c r="T266" s="2">
         <v>0</v>
       </c>
-      <c r="U266" s="2">
+      <c r="U266" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V266" s="2">
         <v>18717</v>
       </c>
-      <c r="V266" s="4">
+      <c r="W266" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>356953</v>
       </c>
     </row>
-    <row r="267" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A267" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21292,15 +22278,18 @@
       <c r="T267" s="2">
         <v>0</v>
       </c>
-      <c r="U267" s="2">
+      <c r="U267" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V267" s="2">
         <v>5656</v>
       </c>
-      <c r="V267" s="4">
+      <c r="W267" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>68404</v>
       </c>
     </row>
-    <row r="268" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A268" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21367,15 +22356,18 @@
       <c r="T268" s="2">
         <v>0</v>
       </c>
-      <c r="U268" s="2">
+      <c r="U268" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V268" s="2">
         <v>8796</v>
       </c>
-      <c r="V268" s="4">
+      <c r="W268" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>49659</v>
       </c>
     </row>
-    <row r="269" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A269" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21442,15 +22434,18 @@
       <c r="T269" s="2">
         <v>0</v>
       </c>
-      <c r="U269" s="2">
+      <c r="U269" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V269" s="2">
         <v>12287</v>
       </c>
-      <c r="V269" s="4">
+      <c r="W269" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>36923</v>
       </c>
     </row>
-    <row r="270" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A270" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21517,15 +22512,18 @@
       <c r="T270" s="2">
         <v>0</v>
       </c>
-      <c r="U270" s="2">
+      <c r="U270" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V270" s="2">
         <v>1600</v>
       </c>
-      <c r="V270" s="4">
+      <c r="W270" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>52806</v>
       </c>
     </row>
-    <row r="271" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A271" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21592,15 +22590,18 @@
       <c r="T271" s="2">
         <v>0</v>
       </c>
-      <c r="U271" s="2">
+      <c r="U271" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V271" s="2">
         <v>3323</v>
       </c>
-      <c r="V271" s="4">
+      <c r="W271" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>65232</v>
       </c>
     </row>
-    <row r="272" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A272" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21667,15 +22668,18 @@
       <c r="T272" s="2">
         <v>34623.199999999997</v>
       </c>
-      <c r="U272" s="2">
+      <c r="U272" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V272" s="2">
         <v>42408.2</v>
       </c>
-      <c r="V272" s="4">
+      <c r="W272" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>133239.79999999999</v>
       </c>
     </row>
-    <row r="273" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A273" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21742,15 +22746,18 @@
       <c r="T273" s="2">
         <v>0</v>
       </c>
-      <c r="U273" s="2">
+      <c r="U273" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V273" s="2">
         <v>20772</v>
       </c>
-      <c r="V273" s="4">
+      <c r="W273" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>311568</v>
       </c>
     </row>
-    <row r="274" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A274" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21817,15 +22824,18 @@
       <c r="T274" s="2">
         <v>0</v>
       </c>
-      <c r="U274" s="2">
+      <c r="U274" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V274" s="2">
         <v>14695</v>
       </c>
-      <c r="V274" s="4">
+      <c r="W274" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>53180</v>
       </c>
     </row>
-    <row r="275" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A275" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21892,15 +22902,18 @@
       <c r="T275" s="2">
         <v>0</v>
       </c>
-      <c r="U275" s="2">
+      <c r="U275" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V275" s="2">
         <v>4672</v>
       </c>
-      <c r="V275" s="4">
+      <c r="W275" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>66021</v>
       </c>
     </row>
-    <row r="276" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A276" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -21967,15 +22980,18 @@
       <c r="T276" s="2">
         <v>0</v>
       </c>
-      <c r="U276" s="2">
+      <c r="U276" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V276" s="2">
         <v>19119.650000000001</v>
       </c>
-      <c r="V276" s="4">
+      <c r="W276" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>368915.35</v>
       </c>
     </row>
-    <row r="277" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A277" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22042,15 +23058,18 @@
       <c r="T277" s="2">
         <v>0</v>
       </c>
-      <c r="U277" s="2">
+      <c r="U277" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V277" s="2">
         <v>1200</v>
       </c>
-      <c r="V277" s="4">
+      <c r="W277" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>53045</v>
       </c>
     </row>
-    <row r="278" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A278" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22117,15 +23136,18 @@
       <c r="T278" s="2">
         <v>0</v>
       </c>
-      <c r="U278" s="2">
+      <c r="U278" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V278" s="2">
         <v>4704.67</v>
       </c>
-      <c r="V278" s="4">
+      <c r="W278" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>38415.33</v>
       </c>
     </row>
-    <row r="279" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A279" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22192,15 +23214,18 @@
       <c r="T279" s="2">
         <v>44236.800000000003</v>
       </c>
-      <c r="U279" s="2">
+      <c r="U279" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V279" s="2">
         <v>56299.8</v>
       </c>
-      <c r="V279" s="4">
+      <c r="W279" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>93647.2</v>
       </c>
     </row>
-    <row r="280" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A280" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22267,15 +23292,18 @@
       <c r="T280" s="2">
         <v>0</v>
       </c>
-      <c r="U280" s="2">
+      <c r="U280" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V280" s="2">
         <v>13924</v>
       </c>
-      <c r="V280" s="4">
+      <c r="W280" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>214806</v>
       </c>
     </row>
-    <row r="281" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A281" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22342,15 +23370,18 @@
       <c r="T281" s="2">
         <v>0</v>
       </c>
-      <c r="U281" s="2">
+      <c r="U281" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V281" s="2">
         <v>800</v>
       </c>
-      <c r="V281" s="4">
+      <c r="W281" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>66055</v>
       </c>
     </row>
-    <row r="282" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A282" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22417,15 +23448,18 @@
       <c r="T282" s="2">
         <v>0</v>
       </c>
-      <c r="U282" s="2">
+      <c r="U282" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V282" s="2">
         <v>3375</v>
       </c>
-      <c r="V282" s="4">
+      <c r="W282" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>56004</v>
       </c>
     </row>
-    <row r="283" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A283" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22492,15 +23526,18 @@
       <c r="T283" s="2">
         <v>0</v>
       </c>
-      <c r="U283" s="2">
+      <c r="U283" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V283" s="2">
         <v>3375</v>
       </c>
-      <c r="V283" s="4">
+      <c r="W283" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>50604</v>
       </c>
     </row>
-    <row r="284" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A284" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22567,15 +23604,18 @@
       <c r="T284" s="2">
         <v>0</v>
       </c>
-      <c r="U284" s="2">
+      <c r="U284" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V284" s="2">
         <v>56</v>
       </c>
-      <c r="V284" s="4">
+      <c r="W284" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>49009</v>
       </c>
     </row>
-    <row r="285" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A285" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22642,15 +23682,18 @@
       <c r="T285" s="2">
         <v>0</v>
       </c>
-      <c r="U285" s="2">
+      <c r="U285" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V285" s="2">
         <v>1300</v>
       </c>
-      <c r="V285" s="4">
+      <c r="W285" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>107950</v>
       </c>
     </row>
-    <row r="286" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A286" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22717,15 +23760,18 @@
       <c r="T286" s="2">
         <v>36313</v>
       </c>
-      <c r="U286" s="2">
+      <c r="U286" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V286" s="2">
         <v>56110.6</v>
       </c>
-      <c r="V286" s="4">
+      <c r="W286" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>118696.4</v>
       </c>
     </row>
-    <row r="287" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A287" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22792,15 +23838,18 @@
       <c r="T287" s="2">
         <v>0</v>
       </c>
-      <c r="U287" s="2">
+      <c r="U287" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V287" s="2">
         <v>28713</v>
       </c>
-      <c r="V287" s="4">
+      <c r="W287" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>316457</v>
       </c>
     </row>
-    <row r="288" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A288" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22867,15 +23916,18 @@
       <c r="T288" s="2">
         <v>0</v>
       </c>
-      <c r="U288" s="2">
+      <c r="U288" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V288" s="2">
         <v>3753.1</v>
       </c>
-      <c r="V288" s="4">
+      <c r="W288" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>71792.899999999994</v>
       </c>
     </row>
-    <row r="289" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A289" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -22942,15 +23994,18 @@
       <c r="T289" s="2">
         <v>0</v>
       </c>
-      <c r="U289" s="2">
+      <c r="U289" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V289" s="2">
         <v>13942</v>
       </c>
-      <c r="V289" s="4">
+      <c r="W289" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>49423</v>
       </c>
     </row>
-    <row r="290" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A290" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23017,15 +24072,18 @@
       <c r="T290" s="2">
         <v>0</v>
       </c>
-      <c r="U290" s="2">
+      <c r="U290" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V290" s="2">
         <v>13449</v>
       </c>
-      <c r="V290" s="4">
+      <c r="W290" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>147520</v>
       </c>
     </row>
-    <row r="291" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A291" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23092,15 +24150,18 @@
       <c r="T291" s="2">
         <v>0</v>
       </c>
-      <c r="U291" s="2">
+      <c r="U291" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V291" s="2">
         <v>4200</v>
       </c>
-      <c r="V291" s="4">
+      <c r="W291" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>59705</v>
       </c>
     </row>
-    <row r="292" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A292" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23167,15 +24228,18 @@
       <c r="T292" s="2">
         <v>0</v>
       </c>
-      <c r="U292" s="2">
+      <c r="U292" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V292" s="2">
         <v>7816.5</v>
       </c>
-      <c r="V292" s="4">
+      <c r="W292" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>52179.5</v>
       </c>
     </row>
-    <row r="293" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A293" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23242,15 +24306,18 @@
       <c r="T293" s="2">
         <v>35878.800000000003</v>
       </c>
-      <c r="U293" s="2">
+      <c r="U293" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V293" s="2">
         <v>42028.800000000003</v>
       </c>
-      <c r="V293" s="4">
+      <c r="W293" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>118167.2</v>
       </c>
     </row>
-    <row r="294" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A294" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23317,15 +24384,18 @@
       <c r="T294" s="2">
         <v>0</v>
       </c>
-      <c r="U294" s="2">
+      <c r="U294" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V294" s="2">
         <v>14307</v>
       </c>
-      <c r="V294" s="4">
+      <c r="W294" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>404478</v>
       </c>
     </row>
-    <row r="295" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A295" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23392,15 +24462,18 @@
       <c r="T295" s="2">
         <v>0</v>
       </c>
-      <c r="U295" s="2">
+      <c r="U295" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V295" s="2">
         <v>6280</v>
       </c>
-      <c r="V295" s="4">
+      <c r="W295" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>84056</v>
       </c>
     </row>
-    <row r="296" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A296" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23467,15 +24540,18 @@
       <c r="T296" s="2">
         <v>0</v>
       </c>
-      <c r="U296" s="2">
+      <c r="U296" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V296" s="2">
         <v>12239</v>
       </c>
-      <c r="V296" s="4">
+      <c r="W296" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>72276</v>
       </c>
     </row>
-    <row r="297" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A297" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23542,15 +24618,18 @@
       <c r="T297" s="2">
         <v>0</v>
       </c>
-      <c r="U297" s="2">
+      <c r="U297" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V297" s="2">
         <v>8345</v>
       </c>
-      <c r="V297" s="4">
+      <c r="W297" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>49450</v>
       </c>
     </row>
-    <row r="298" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A298" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23617,15 +24696,18 @@
       <c r="T298" s="2">
         <v>0</v>
       </c>
-      <c r="U298" s="2">
-        <v>0</v>
-      </c>
-      <c r="V298" s="4">
+      <c r="U298" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V298" s="2">
+        <v>0</v>
+      </c>
+      <c r="W298" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>69590</v>
       </c>
     </row>
-    <row r="299" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A299" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23692,15 +24774,18 @@
       <c r="T299" s="2">
         <v>0</v>
       </c>
-      <c r="U299" s="2">
+      <c r="U299" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V299" s="2">
         <v>3648</v>
       </c>
-      <c r="V299" s="4">
+      <c r="W299" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>75787</v>
       </c>
     </row>
-    <row r="300" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A300" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23767,15 +24852,18 @@
       <c r="T300" s="2">
         <v>36108.400000000001</v>
       </c>
-      <c r="U300" s="2">
+      <c r="U300" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V300" s="2">
         <v>49405.4</v>
       </c>
-      <c r="V300" s="4">
+      <c r="W300" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>151068.1</v>
       </c>
     </row>
-    <row r="301" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A301" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23842,15 +24930,18 @@
       <c r="T301" s="2">
         <v>0</v>
       </c>
-      <c r="U301" s="2">
+      <c r="U301" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V301" s="2">
         <v>20716</v>
       </c>
-      <c r="V301" s="4">
+      <c r="W301" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>391714</v>
       </c>
     </row>
-    <row r="302" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A302" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23917,15 +25008,18 @@
       <c r="T302" s="2">
         <v>0</v>
       </c>
-      <c r="U302" s="2">
+      <c r="U302" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V302" s="2">
         <v>6395</v>
       </c>
-      <c r="V302" s="4">
+      <c r="W302" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>132715</v>
       </c>
     </row>
-    <row r="303" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A303" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -23992,15 +25086,18 @@
       <c r="T303" s="2">
         <v>0</v>
       </c>
-      <c r="U303" s="2">
+      <c r="U303" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V303" s="2">
         <v>10214</v>
       </c>
-      <c r="V303" s="4">
+      <c r="W303" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>79461</v>
       </c>
     </row>
-    <row r="304" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A304" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24067,15 +25164,18 @@
       <c r="T304" s="2">
         <v>0</v>
       </c>
-      <c r="U304" s="2">
+      <c r="U304" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V304" s="2">
         <v>15743.76</v>
       </c>
-      <c r="V304" s="4">
+      <c r="W304" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>52928.24</v>
       </c>
     </row>
-    <row r="305" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A305" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24142,15 +25242,18 @@
       <c r="T305" s="2">
         <v>0</v>
       </c>
-      <c r="U305" s="2">
+      <c r="U305" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V305" s="2">
         <v>2980</v>
       </c>
-      <c r="V305" s="4">
+      <c r="W305" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>59905</v>
       </c>
     </row>
-    <row r="306" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A306" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24217,15 +25320,18 @@
       <c r="T306" s="2">
         <v>0</v>
       </c>
-      <c r="U306" s="2">
+      <c r="U306" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V306" s="2">
         <v>7412</v>
       </c>
-      <c r="V306" s="4">
+      <c r="W306" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>99658</v>
       </c>
     </row>
-    <row r="307" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A307" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24292,15 +25398,18 @@
       <c r="T307" s="2">
         <v>0</v>
       </c>
-      <c r="U307" s="2">
+      <c r="U307" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V307" s="2">
         <v>46863</v>
       </c>
-      <c r="V307" s="4">
+      <c r="W307" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>134926</v>
       </c>
     </row>
-    <row r="308" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A308" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24367,15 +25476,18 @@
       <c r="T308" s="2">
         <v>0</v>
       </c>
-      <c r="U308" s="2">
+      <c r="U308" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V308" s="2">
         <v>16382</v>
       </c>
-      <c r="V308" s="4">
+      <c r="W308" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>311508</v>
       </c>
     </row>
-    <row r="309" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A309" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24442,15 +25554,18 @@
       <c r="T309" s="2">
         <v>0</v>
       </c>
-      <c r="U309" s="2">
+      <c r="U309" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V309" s="2">
         <v>10336</v>
       </c>
-      <c r="V309" s="4">
+      <c r="W309" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>119899</v>
       </c>
     </row>
-    <row r="310" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A310" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24517,15 +25632,18 @@
       <c r="T310" s="2">
         <v>0</v>
       </c>
-      <c r="U310" s="2">
+      <c r="U310" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V310" s="2">
         <v>12920.5</v>
       </c>
-      <c r="V310" s="4">
+      <c r="W310" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>72464.5</v>
       </c>
     </row>
-    <row r="311" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A311" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24592,15 +25710,18 @@
       <c r="T311" s="2">
         <v>0</v>
       </c>
-      <c r="U311" s="2">
+      <c r="U311" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V311" s="2">
         <v>11936</v>
       </c>
-      <c r="V311" s="4">
+      <c r="W311" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>52799</v>
       </c>
     </row>
-    <row r="312" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A312" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24667,15 +25788,18 @@
       <c r="T312" s="2">
         <v>0</v>
       </c>
-      <c r="U312" s="2">
+      <c r="U312" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V312" s="2">
         <v>5111</v>
       </c>
-      <c r="V312" s="4">
+      <c r="W312" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>66659</v>
       </c>
     </row>
-    <row r="313" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A313" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24742,15 +25866,18 @@
       <c r="T313" s="2">
         <v>0</v>
       </c>
-      <c r="U313" s="2">
+      <c r="U313" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V313" s="2">
         <v>5540</v>
       </c>
-      <c r="V313" s="4">
+      <c r="W313" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>70465</v>
       </c>
     </row>
-    <row r="314" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A314" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24817,15 +25944,18 @@
       <c r="T314" s="2">
         <v>35770.800000000003</v>
       </c>
-      <c r="U314" s="2">
+      <c r="U314" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V314" s="2">
         <v>41940.800000000003</v>
       </c>
-      <c r="V314" s="4">
+      <c r="W314" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>116198.2</v>
       </c>
     </row>
-    <row r="315" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A315" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24892,15 +26022,18 @@
       <c r="T315" s="2">
         <v>0</v>
       </c>
-      <c r="U315" s="2">
+      <c r="U315" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V315" s="2">
         <v>8287</v>
       </c>
-      <c r="V315" s="4">
+      <c r="W315" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>336768</v>
       </c>
     </row>
-    <row r="316" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A316" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -24967,15 +26100,18 @@
       <c r="T316" s="2">
         <v>0</v>
       </c>
-      <c r="U316" s="2">
+      <c r="U316" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V316" s="2">
         <v>7605</v>
       </c>
-      <c r="V316" s="4">
+      <c r="W316" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>196210</v>
       </c>
     </row>
-    <row r="317" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A317" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25042,15 +26178,18 @@
       <c r="T317" s="2">
         <v>0</v>
       </c>
-      <c r="U317" s="2">
+      <c r="U317" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V317" s="2">
         <v>13640.45</v>
       </c>
-      <c r="V317" s="4">
+      <c r="W317" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>63539.55</v>
       </c>
     </row>
-    <row r="318" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A318" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25117,15 +26256,18 @@
       <c r="T318" s="2">
         <v>0</v>
       </c>
-      <c r="U318" s="2">
+      <c r="U318" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V318" s="2">
         <v>11564</v>
       </c>
-      <c r="V318" s="4">
+      <c r="W318" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>66611</v>
       </c>
     </row>
-    <row r="319" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A319" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25192,15 +26334,18 @@
       <c r="T319" s="2">
         <v>0</v>
       </c>
-      <c r="U319" s="2">
+      <c r="U319" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V319" s="2">
         <v>2060</v>
       </c>
-      <c r="V319" s="4">
+      <c r="W319" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>53665</v>
       </c>
     </row>
-    <row r="320" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A320" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25267,15 +26412,18 @@
       <c r="T320" s="2">
         <v>0</v>
       </c>
-      <c r="U320" s="2">
+      <c r="U320" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V320" s="2">
         <v>5864</v>
       </c>
-      <c r="V320" s="4">
+      <c r="W320" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>46806</v>
       </c>
     </row>
-    <row r="321" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A321" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25342,15 +26490,18 @@
       <c r="T321" s="2">
         <v>35740.6</v>
       </c>
-      <c r="U321" s="2">
+      <c r="U321" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V321" s="2">
         <v>43136.6</v>
       </c>
-      <c r="V321" s="4">
+      <c r="W321" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>94218.9</v>
       </c>
     </row>
-    <row r="322" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A322" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25417,15 +26568,18 @@
       <c r="T322" s="2">
         <v>0</v>
       </c>
-      <c r="U322" s="2">
+      <c r="U322" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V322" s="2">
         <v>14151</v>
       </c>
-      <c r="V322" s="4">
+      <c r="W322" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>246619</v>
       </c>
     </row>
-    <row r="323" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A323" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25492,15 +26646,18 @@
       <c r="T323" s="2">
         <v>0</v>
       </c>
-      <c r="U323" s="2">
+      <c r="U323" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V323" s="2">
         <v>5160</v>
       </c>
-      <c r="V323" s="4">
+      <c r="W323" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>90445</v>
       </c>
     </row>
-    <row r="324" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A324" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25567,15 +26724,18 @@
       <c r="T324" s="2">
         <v>0</v>
       </c>
-      <c r="U324" s="2">
+      <c r="U324" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V324" s="2">
         <v>6722</v>
       </c>
-      <c r="V324" s="4">
+      <c r="W324" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>69218</v>
       </c>
     </row>
-    <row r="325" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A325" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25642,15 +26802,18 @@
       <c r="T325" s="2">
         <v>0</v>
       </c>
-      <c r="U325" s="2">
+      <c r="U325" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V325" s="2">
         <v>11084</v>
       </c>
-      <c r="V325" s="4">
+      <c r="W325" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>75166</v>
       </c>
     </row>
-    <row r="326" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A326" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25717,15 +26880,18 @@
       <c r="T326" s="2">
         <v>0</v>
       </c>
-      <c r="U326" s="2">
+      <c r="U326" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V326" s="2">
         <v>740</v>
       </c>
-      <c r="V326" s="4">
+      <c r="W326" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>32931</v>
       </c>
     </row>
-    <row r="327" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A327" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25792,15 +26958,18 @@
       <c r="T327" s="2">
         <v>0</v>
       </c>
-      <c r="U327" s="2">
+      <c r="U327" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V327" s="2">
         <v>3580</v>
       </c>
-      <c r="V327" s="4">
+      <c r="W327" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>18530</v>
       </c>
     </row>
-    <row r="328" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A328" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25867,15 +27036,18 @@
       <c r="T328" s="2">
         <v>35406</v>
       </c>
-      <c r="U328" s="2">
+      <c r="U328" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V328" s="2">
         <v>46393</v>
       </c>
-      <c r="V328" s="4">
+      <c r="W328" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>43026</v>
       </c>
     </row>
-    <row r="329" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A329" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -25942,15 +27114,18 @@
       <c r="T329" s="2">
         <v>0</v>
       </c>
-      <c r="U329" s="2">
+      <c r="U329" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="V329" s="2">
         <v>15010</v>
       </c>
-      <c r="V329" s="4">
+      <c r="W329" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>44860</v>
       </c>
     </row>
-    <row r="330" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A330" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26017,15 +27192,18 @@
       <c r="T330" s="2">
         <v>0</v>
       </c>
-      <c r="U330" s="2">
+      <c r="U330" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="V330" s="2">
         <v>600</v>
       </c>
-      <c r="V330" s="4">
+      <c r="W330" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>30495</v>
       </c>
     </row>
-    <row r="331" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A331" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26092,15 +27270,18 @@
       <c r="T331" s="2">
         <v>0</v>
       </c>
-      <c r="U331" s="2">
+      <c r="U331" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="V331" s="2">
         <v>1168.5</v>
       </c>
-      <c r="V331" s="4">
+      <c r="W331" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>9296.5</v>
       </c>
     </row>
-    <row r="332" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A332" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26167,15 +27348,18 @@
       <c r="T332" s="2">
         <v>0</v>
       </c>
-      <c r="U332" s="2">
+      <c r="U332" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="V332" s="2">
         <v>2429</v>
       </c>
-      <c r="V332" s="4">
+      <c r="W332" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>10698</v>
       </c>
     </row>
-    <row r="333" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A333" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26242,15 +27426,18 @@
       <c r="T333" s="2">
         <v>0</v>
       </c>
-      <c r="U333" s="2">
-        <v>0</v>
-      </c>
-      <c r="V333" s="4">
+      <c r="U333" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="V333" s="2">
+        <v>0</v>
+      </c>
+      <c r="W333" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>25220</v>
       </c>
     </row>
-    <row r="334" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A334" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26317,15 +27504,18 @@
       <c r="T334" s="2">
         <v>0</v>
       </c>
-      <c r="U334" s="2">
+      <c r="U334" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="V334" s="2">
         <v>1190</v>
       </c>
-      <c r="V334" s="4">
+      <c r="W334" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>16700</v>
       </c>
     </row>
-    <row r="335" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A335" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26392,15 +27582,18 @@
       <c r="T335" s="2">
         <v>34261.4</v>
       </c>
-      <c r="U335" s="2">
+      <c r="U335" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="V335" s="2">
         <v>36150.400000000001</v>
       </c>
-      <c r="V335" s="4">
+      <c r="W335" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>34361.1</v>
       </c>
     </row>
-    <row r="336" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A336" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26467,15 +27660,18 @@
       <c r="T336" s="2">
         <v>0</v>
       </c>
-      <c r="U336" s="2">
+      <c r="U336" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V336" s="2">
         <v>18035</v>
       </c>
-      <c r="V336" s="4">
+      <c r="W336" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>40975</v>
       </c>
     </row>
-    <row r="337" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A337" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26542,15 +27738,18 @@
       <c r="T337" s="2">
         <v>0</v>
       </c>
-      <c r="U337" s="2">
+      <c r="U337" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V337" s="2">
         <v>3020</v>
       </c>
-      <c r="V337" s="4">
+      <c r="W337" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>17282</v>
       </c>
     </row>
-    <row r="338" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A338" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26617,15 +27816,18 @@
       <c r="T338" s="2">
         <v>0</v>
       </c>
-      <c r="U338" s="2">
-        <v>0</v>
-      </c>
-      <c r="V338" s="4">
+      <c r="U338" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V338" s="2">
+        <v>0</v>
+      </c>
+      <c r="W338" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>11570</v>
       </c>
     </row>
-    <row r="339" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A339" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26692,15 +27894,18 @@
       <c r="T339" s="2">
         <v>0</v>
       </c>
-      <c r="U339" s="2">
+      <c r="U339" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V339" s="2">
         <v>3369</v>
       </c>
-      <c r="V339" s="4">
+      <c r="W339" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>18148</v>
       </c>
     </row>
-    <row r="340" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A340" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26767,15 +27972,18 @@
       <c r="T340" s="2">
         <v>0</v>
       </c>
-      <c r="U340" s="2">
+      <c r="U340" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V340" s="2">
         <v>1680</v>
       </c>
-      <c r="V340" s="4">
+      <c r="W340" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>10890</v>
       </c>
     </row>
-    <row r="341" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A341" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26842,15 +28050,18 @@
       <c r="T341" s="2">
         <v>0</v>
       </c>
-      <c r="U341" s="2">
+      <c r="U341" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V341" s="2">
         <v>1420</v>
       </c>
-      <c r="V341" s="4">
+      <c r="W341" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>13575</v>
       </c>
     </row>
-    <row r="342" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A342" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26917,15 +28128,18 @@
       <c r="T342" s="2">
         <v>34692.800000000003</v>
       </c>
-      <c r="U342" s="2">
+      <c r="U342" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V342" s="2">
         <v>42247.8</v>
       </c>
-      <c r="V342" s="4">
+      <c r="W342" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>32585.199999999997</v>
       </c>
     </row>
-    <row r="343" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A343" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -26992,15 +28206,18 @@
       <c r="T343" s="2">
         <v>0</v>
       </c>
-      <c r="U343" s="2">
+      <c r="U343" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="V343" s="2">
         <v>7790</v>
       </c>
-      <c r="V343" s="4">
+      <c r="W343" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>59580</v>
       </c>
     </row>
-    <row r="344" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A344" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27067,15 +28284,18 @@
       <c r="T344" s="2">
         <v>0</v>
       </c>
-      <c r="U344" s="2">
+      <c r="U344" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="V344" s="2">
         <v>4739</v>
       </c>
-      <c r="V344" s="4">
+      <c r="W344" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>42851</v>
       </c>
     </row>
-    <row r="345" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A345" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27142,15 +28362,18 @@
       <c r="T345" s="2">
         <v>0</v>
       </c>
-      <c r="U345" s="2">
+      <c r="U345" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="V345" s="2">
         <v>6792.04</v>
       </c>
-      <c r="V345" s="4">
+      <c r="W345" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>29902.959999999999</v>
       </c>
     </row>
-    <row r="346" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A346" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27217,15 +28440,18 @@
       <c r="T346" s="2">
         <v>0</v>
       </c>
-      <c r="U346" s="2">
+      <c r="U346" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="V346" s="2">
         <v>6163</v>
       </c>
-      <c r="V346" s="4">
+      <c r="W346" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>19847</v>
       </c>
     </row>
-    <row r="347" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A347" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27292,15 +28518,18 @@
       <c r="T347" s="2">
         <v>0</v>
       </c>
-      <c r="U347" s="2">
+      <c r="U347" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="V347" s="2">
         <v>1920</v>
       </c>
-      <c r="V347" s="4">
+      <c r="W347" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>16535</v>
       </c>
     </row>
-    <row r="348" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A348" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27367,15 +28596,18 @@
       <c r="T348" s="2">
         <v>0</v>
       </c>
-      <c r="U348" s="2">
-        <v>0</v>
-      </c>
-      <c r="V348" s="4">
+      <c r="U348" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="V348" s="2">
+        <v>0</v>
+      </c>
+      <c r="W348" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>12965</v>
       </c>
     </row>
-    <row r="349" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A349" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27442,15 +28674,18 @@
       <c r="T349" s="2">
         <v>33151.199999999997</v>
       </c>
-      <c r="U349" s="2">
+      <c r="U349" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="V349" s="2">
         <v>38658.199999999997</v>
       </c>
-      <c r="V349" s="4">
+      <c r="W349" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>16824.800000000003</v>
       </c>
     </row>
-    <row r="350" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A350" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27517,15 +28752,18 @@
       <c r="T350" s="2">
         <v>0</v>
       </c>
-      <c r="U350" s="2">
+      <c r="U350" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V350" s="2">
         <v>6640</v>
       </c>
-      <c r="V350" s="4">
+      <c r="W350" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>45185</v>
       </c>
     </row>
-    <row r="351" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A351" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27592,15 +28830,18 @@
       <c r="T351" s="2">
         <v>0</v>
       </c>
-      <c r="U351" s="2">
+      <c r="U351" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V351" s="2">
         <v>839</v>
       </c>
-      <c r="V351" s="4">
+      <c r="W351" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>35281</v>
       </c>
     </row>
-    <row r="352" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A352" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27667,15 +28908,18 @@
       <c r="T352" s="2">
         <v>0</v>
       </c>
-      <c r="U352" s="2">
+      <c r="U352" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V352" s="2">
         <v>2075</v>
       </c>
-      <c r="V352" s="4">
+      <c r="W352" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>37577</v>
       </c>
     </row>
-    <row r="353" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A353" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27742,15 +28986,18 @@
       <c r="T353" s="2">
         <v>0</v>
       </c>
-      <c r="U353" s="2">
+      <c r="U353" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V353" s="2">
         <v>4271</v>
       </c>
-      <c r="V353" s="4">
+      <c r="W353" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>18149</v>
       </c>
     </row>
-    <row r="354" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A354" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27817,15 +29064,18 @@
       <c r="T354" s="2">
         <v>0</v>
       </c>
-      <c r="U354" s="2">
-        <v>0</v>
-      </c>
-      <c r="V354" s="4">
+      <c r="U354" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V354" s="2">
+        <v>0</v>
+      </c>
+      <c r="W354" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>19815</v>
       </c>
     </row>
-    <row r="355" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A355" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27892,15 +29142,18 @@
       <c r="T355" s="2">
         <v>0</v>
       </c>
-      <c r="U355" s="2">
+      <c r="U355" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V355" s="2">
         <v>2242</v>
       </c>
-      <c r="V355" s="4">
+      <c r="W355" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>15166</v>
       </c>
     </row>
-    <row r="356" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A356" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -27967,15 +29220,18 @@
       <c r="T356" s="2">
         <v>30219</v>
       </c>
-      <c r="U356" s="2">
+      <c r="U356" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V356" s="2">
         <v>33482.5</v>
       </c>
-      <c r="V356" s="4">
+      <c r="W356" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>22326.5</v>
       </c>
     </row>
-    <row r="357" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A357" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -28042,15 +29298,18 @@
       <c r="T357" s="2">
         <v>0</v>
       </c>
-      <c r="U357" s="2">
+      <c r="U357" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V357" s="2">
         <v>6761</v>
       </c>
-      <c r="V357" s="4">
+      <c r="W357" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>15299</v>
       </c>
     </row>
-    <row r="358" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A358" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -28117,15 +29376,18 @@
       <c r="T358" s="2">
         <v>0</v>
       </c>
-      <c r="U358" s="2">
+      <c r="U358" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V358" s="2">
         <v>4579</v>
       </c>
-      <c r="V358" s="4">
+      <c r="W358" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>29246</v>
       </c>
     </row>
-    <row r="359" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A359" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -28192,15 +29454,18 @@
       <c r="T359" s="2">
         <v>0</v>
       </c>
-      <c r="U359" s="2">
-        <v>0</v>
-      </c>
-      <c r="V359" s="4">
+      <c r="U359" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V359" s="2">
+        <v>0</v>
+      </c>
+      <c r="W359" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>22945</v>
       </c>
     </row>
-    <row r="360" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A360" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -28267,15 +29532,18 @@
       <c r="T360" s="2">
         <v>0</v>
       </c>
-      <c r="U360" s="2">
-        <v>0</v>
-      </c>
-      <c r="V360" s="4">
-        <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U360" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V360" s="2">
+        <v>0</v>
+      </c>
+      <c r="W360" s="4">
+        <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A361" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -28342,15 +29610,18 @@
       <c r="T361" s="2">
         <v>0</v>
       </c>
-      <c r="U361" s="2">
+      <c r="U361" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V361" s="2">
         <v>3380</v>
       </c>
-      <c r="V361" s="4">
+      <c r="W361" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>11890</v>
       </c>
     </row>
-    <row r="362" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A362" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -28417,15 +29688,18 @@
       <c r="T362" s="2">
         <v>0</v>
       </c>
-      <c r="U362" s="2">
+      <c r="U362" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V362" s="2">
         <v>1651</v>
       </c>
-      <c r="V362" s="4">
+      <c r="W362" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>4574</v>
       </c>
     </row>
-    <row r="363" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A363" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -28492,15 +29766,18 @@
       <c r="T363" s="2">
         <v>31347</v>
       </c>
-      <c r="U363" s="2">
+      <c r="U363" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V363" s="2">
         <v>34992</v>
       </c>
-      <c r="V363" s="4">
+      <c r="W363" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>24140</v>
       </c>
     </row>
-    <row r="364" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A364" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -28567,15 +29844,18 @@
       <c r="T364" s="2">
         <v>0</v>
       </c>
-      <c r="U364" s="2">
+      <c r="U364" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="V364" s="2">
         <v>7485</v>
       </c>
-      <c r="V364" s="4">
+      <c r="W364" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>52665</v>
       </c>
     </row>
-    <row r="365" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A365" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -28642,15 +29922,18 @@
       <c r="T365" s="2">
         <v>0</v>
       </c>
-      <c r="U365" s="2">
+      <c r="U365" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="V365" s="2">
         <v>1400</v>
       </c>
-      <c r="V365" s="4">
+      <c r="W365" s="4">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>46920</v>
       </c>
     </row>
-    <row r="366" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A366" s="11" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -28717,15 +30000,18 @@
       <c r="T366" s="9">
         <v>0</v>
       </c>
-      <c r="U366" s="9">
+      <c r="U366" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="V366" s="9">
         <v>1141</v>
       </c>
-      <c r="V366" s="10">
+      <c r="W366" s="10">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>22579</v>
       </c>
     </row>
-    <row r="367" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A367" s="13" t="str">
         <f>TEXT(Tabla1[[#This Row],[fecha]],"aaaa")</f>
         <v>2024</v>
@@ -28792,15 +30078,19 @@
       <c r="T367" s="9">
         <v>0</v>
       </c>
-      <c r="U367" s="9">
+      <c r="U367" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="V367" s="9">
         <v>14226</v>
       </c>
-      <c r="V367" s="10">
+      <c r="W367" s="10">
         <f>(Tabla1[[#This Row],[total_adultos]]+Tabla1[[#This Row],[total_niños]]+Tabla1[[#This Row],[total_familia]]+Tabla1[[#This Row],[total_especial]]+Tabla1[[#This Row],[alimento]]+Tabla1[[#This Row],[extras]]+Tabla1[[#This Row],[raya]])-Tabla1[[#This Row],[gastos]]</f>
         <v>10586</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="3">
     <tablePart r:id="rId1"/>
